--- a/papers/LogMSR_Demo.xlsx
+++ b/papers/LogMSR_Demo.xlsx
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="579">
   <si>
     <t>Final</t>
   </si>
@@ -2000,12 +2000,6 @@
     <t>*Low liquidity induces price jump.</t>
   </si>
   <si>
-    <t>*Assume infinite liquidity.</t>
-  </si>
-  <si>
-    <t>(always zero)</t>
-  </si>
-  <si>
     <t>A practical example concerning the recent Bitcoin blocksize controversy.</t>
   </si>
   <si>
@@ -2021,13 +2015,31 @@
     <t>Blocksize Increase Controversy</t>
   </si>
   <si>
-    <t>{1} {2}</t>
-  </si>
-  <si>
     <t>{4}</t>
   </si>
   <si>
     <t>An introduction for anyone wondering "What is the different between this, and a traditional model (in which, for example, 100 shares are issued, and then potential traders submit Bids (to buy) and Asks (to sell) and wait for these submissions to overlap)?". The answer is that issuance, price determination, and trading all happen in one convenient step.</t>
+  </si>
+  <si>
+    <t>{1} {3}</t>
+  </si>
+  <si>
+    <t>*Would be 1 if liquidity were a non-issue.</t>
+  </si>
+  <si>
+    <t>perfect refund</t>
+  </si>
+  <si>
+    <t>infinite-liquidity return</t>
+  </si>
+  <si>
+    <t>(Bitcoin return at high liquidity or equal ERs)</t>
+  </si>
+  <si>
+    <t>(zero at high liquidity or equal ERs)</t>
+  </si>
+  <si>
+    <t>(always equal to zero)</t>
   </si>
 </sst>
 </file>
@@ -2054,7 +2066,7 @@
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.0000_);[Red]\(&quot;$&quot;#,##0.0000\)"/>
     <numFmt numFmtId="179" formatCode="0.000000000"/>
     <numFmt numFmtId="180" formatCode="&quot;$&quot;#,##0.0_);[Red]\(&quot;$&quot;#,##0.0\)"/>
-    <numFmt numFmtId="183" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="181" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -3606,7 +3618,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1119">
+  <cellXfs count="1121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -5710,6 +5722,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="13" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="13" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="14" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="13" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="14" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="13" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="14" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="13" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="89" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="30" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="30" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="30" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="14" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5863,9 +5980,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5873,6 +5987,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5887,16 +6004,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5953,134 +6088,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="14" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="13" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="13" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="14" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="13" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="14" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="13" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="14" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="13" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="89" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="23" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="30" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="30" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="30" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="14" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6227,11 +6243,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="191407616"/>
-        <c:axId val="191251584"/>
+        <c:axId val="189066240"/>
+        <c:axId val="82307328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="191407616"/>
+        <c:axId val="189066240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6240,7 +6256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191251584"/>
+        <c:crossAx val="82307328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6248,7 +6264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191251584"/>
+        <c:axId val="82307328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6260,7 +6276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191407616"/>
+        <c:crossAx val="189066240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6307,7 +6323,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6381,11 +6396,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212932096"/>
-        <c:axId val="213127104"/>
+        <c:axId val="152090112"/>
+        <c:axId val="140121152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212932096"/>
+        <c:axId val="152090112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6394,7 +6409,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213127104"/>
+        <c:crossAx val="140121152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6402,7 +6417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213127104"/>
+        <c:axId val="140121152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6413,7 +6428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212932096"/>
+        <c:crossAx val="152090112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6460,7 +6475,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6534,11 +6548,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212933120"/>
-        <c:axId val="213128832"/>
+        <c:axId val="152092160"/>
+        <c:axId val="140122880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212933120"/>
+        <c:axId val="152092160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6547,7 +6561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213128832"/>
+        <c:crossAx val="140122880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6555,7 +6569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213128832"/>
+        <c:axId val="140122880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6566,7 +6580,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212933120"/>
+        <c:crossAx val="152092160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6656,10 +6670,10 @@
                   <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3377.3345569814551</c:v>
+                  <c:v>4767.4732449554749</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3377.3345569814546</c:v>
+                  <c:v>4767.4732449554749</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>170.94698629242166</c:v>
@@ -6668,52 +6682,52 @@
                   <c:v>117.32279543461961</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>108.04172997940505</c:v>
+                  <c:v>139.93629110572448</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.83903760199715</c:v>
+                  <c:v>124.30206233910975</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90.760117047876392</c:v>
+                  <c:v>129.23265941775711</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73.812717979766333</c:v>
+                  <c:v>117.22223300163215</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70.416569050663171</c:v>
+                  <c:v>114.88445480470813</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.725365205471164</c:v>
+                  <c:v>134.28877307073657</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>69.209518171545568</c:v>
+                  <c:v>149.68474431047761</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61.51262287120565</c:v>
+                  <c:v>127.64828812580328</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>61.42139713367196</c:v>
+                  <c:v>123.15246852007253</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>64.714160921593034</c:v>
+                  <c:v>115.27858967893812</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>55.956119597353357</c:v>
+                  <c:v>141.39925971581235</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54.866831702096924</c:v>
+                  <c:v>141.4255501273089</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>51.570824993938679</c:v>
+                  <c:v>169.24167800231172</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.185914344346358</c:v>
+                  <c:v>157.41396872090226</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>46.077038528392073</c:v>
+                  <c:v>175.32576055960496</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>185.32240628818974</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -6754,10 +6768,10 @@
                   <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3377.3345569814551</c:v>
+                  <c:v>3377.3345569814546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37288.174591205563</c:v>
+                  <c:v>24961.674518643955</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5830.1484580569668</c:v>
@@ -6766,67 +6780,67 @@
                   <c:v>8469.194846700937</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7552.6374849242211</c:v>
+                  <c:v>7434.21943903597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7450.3876630392842</c:v>
+                  <c:v>7358.8057343297651</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7298.942057719998</c:v>
+                  <c:v>7804.2761015158949</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7024.1427307670483</c:v>
+                  <c:v>7972.8316943210139</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6880.1294364874793</c:v>
+                  <c:v>8493.8760553068369</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7205.5878537514109</c:v>
+                  <c:v>8797.4745234752227</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7313.6588951197446</c:v>
+                  <c:v>9945.8674375121827</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7459.1923233402658</c:v>
+                  <c:v>10911.985487771748</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6310.8517540151051</c:v>
+                  <c:v>11293.926802706919</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5732.7970074460782</c:v>
+                  <c:v>10912.723414304002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5240.5054512064908</c:v>
+                  <c:v>10093.849257302138</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5260.9996588181366</c:v>
+                  <c:v>11637.499488812766</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5934.7034751197843</c:v>
+                  <c:v>12922.153190263865</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5210.7315765808698</c:v>
+                  <c:v>12547.23349411303</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5340.2663306474306</c:v>
+                  <c:v>11564.094172900383</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4635.6304171512293</c:v>
+                  <c:v>11069.431511451308</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4480.3016598587674</c:v>
+                  <c:v>10749.606056730023</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4329.6808455545106</c:v>
+                  <c:v>10436.543981907073</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4741.8526853089706</c:v>
+                  <c:v>11286.401096696296</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4583.3242807190854</c:v>
+                  <c:v>10962.071988757585</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9000</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6843,11 +6857,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="47513600"/>
-        <c:axId val="41919616"/>
+        <c:axId val="188782080"/>
+        <c:axId val="210436672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47513600"/>
+        <c:axId val="188782080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6856,7 +6870,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41919616"/>
+        <c:crossAx val="210436672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6864,7 +6878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41919616"/>
+        <c:axId val="210436672"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6878,7 +6892,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47513600"/>
+        <c:crossAx val="188782080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7184,11 +7198,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213130560"/>
-        <c:axId val="213213184"/>
+        <c:axId val="210438976"/>
+        <c:axId val="210439552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213130560"/>
+        <c:axId val="210438976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -7200,12 +7214,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213213184"/>
+        <c:crossAx val="210439552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213213184"/>
+        <c:axId val="210439552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7216,7 +7230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213130560"/>
+        <c:crossAx val="210438976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7497,11 +7511,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212933632"/>
-        <c:axId val="213215488"/>
+        <c:axId val="210552832"/>
+        <c:axId val="210441856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212933632"/>
+        <c:axId val="210552832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7510,7 +7524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213215488"/>
+        <c:crossAx val="210441856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7518,7 +7532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213215488"/>
+        <c:axId val="210441856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -7531,7 +7545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212933632"/>
+        <c:crossAx val="210552832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7918,11 +7932,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="213621248"/>
-        <c:axId val="213217216"/>
+        <c:axId val="78589952"/>
+        <c:axId val="210443584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="213621248"/>
+        <c:axId val="78589952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7931,7 +7945,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213217216"/>
+        <c:crossAx val="210443584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7939,7 +7953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213217216"/>
+        <c:axId val="210443584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7952,7 +7966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213621248"/>
+        <c:crossAx val="78589952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8145,11 +8159,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213219520"/>
-        <c:axId val="213220096"/>
+        <c:axId val="210495168"/>
+        <c:axId val="210495744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213219520"/>
+        <c:axId val="210495168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8159,12 +8173,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213220096"/>
+        <c:crossAx val="210495744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213220096"/>
+        <c:axId val="210495744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8175,7 +8189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213219520"/>
+        <c:crossAx val="210495168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8494,11 +8508,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213434944"/>
-        <c:axId val="213435520"/>
+        <c:axId val="210497472"/>
+        <c:axId val="210498048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213434944"/>
+        <c:axId val="210497472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8508,12 +8522,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213435520"/>
+        <c:crossAx val="210498048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213435520"/>
+        <c:axId val="210498048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8524,7 +8538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213434944"/>
+        <c:crossAx val="210497472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9020,11 +9034,11 @@
         <c:bubbleScale val="20"/>
         <c:showNegBubbles val="0"/>
         <c:sizeRepresents val="w"/>
-        <c:axId val="213437824"/>
-        <c:axId val="213438400"/>
+        <c:axId val="210500352"/>
+        <c:axId val="210500928"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="213437824"/>
+        <c:axId val="210500352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9033,12 +9047,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213438400"/>
+        <c:crossAx val="210500928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213438400"/>
+        <c:axId val="210500928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9049,7 +9063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213437824"/>
+        <c:crossAx val="210500352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9237,11 +9251,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213440704"/>
-        <c:axId val="213441280"/>
+        <c:axId val="212862656"/>
+        <c:axId val="212863232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213440704"/>
+        <c:axId val="212862656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9252,12 +9266,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213441280"/>
+        <c:crossAx val="212863232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213441280"/>
+        <c:axId val="212863232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.30000000000000004"/>
@@ -9269,7 +9283,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213440704"/>
+        <c:crossAx val="212862656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9528,11 +9542,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190980608"/>
-        <c:axId val="191253888"/>
+        <c:axId val="210658816"/>
+        <c:axId val="82309632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190980608"/>
+        <c:axId val="210658816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9541,7 +9555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191253888"/>
+        <c:crossAx val="82309632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9549,7 +9563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191253888"/>
+        <c:axId val="82309632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -9561,7 +9575,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190980608"/>
+        <c:crossAx val="210658816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9700,11 +9714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="214245376"/>
-        <c:axId val="213492864"/>
+        <c:axId val="213022720"/>
+        <c:axId val="212865536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="214245376"/>
+        <c:axId val="213022720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9713,7 +9727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213492864"/>
+        <c:crossAx val="212865536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9721,7 +9735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213492864"/>
+        <c:axId val="212865536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9732,7 +9746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214245376"/>
+        <c:crossAx val="213022720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9888,11 +9902,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213495168"/>
-        <c:axId val="213495744"/>
+        <c:axId val="212867840"/>
+        <c:axId val="212868416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213495168"/>
+        <c:axId val="212867840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9902,12 +9916,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213495744"/>
+        <c:crossAx val="212868416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213495744"/>
+        <c:axId val="212868416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9918,7 +9932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213495168"/>
+        <c:crossAx val="212867840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10194,11 +10208,11 @@
         <c:bubbleScale val="20"/>
         <c:showNegBubbles val="0"/>
         <c:sizeRepresents val="w"/>
-        <c:axId val="213498048"/>
-        <c:axId val="213498624"/>
+        <c:axId val="212403904"/>
+        <c:axId val="212404480"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="213498048"/>
+        <c:axId val="212403904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10207,12 +10221,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213498624"/>
+        <c:crossAx val="212404480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213498624"/>
+        <c:axId val="212404480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10223,7 +10237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213498048"/>
+        <c:crossAx val="212403904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10824,11 +10838,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213886080"/>
-        <c:axId val="213886656"/>
+        <c:axId val="212406784"/>
+        <c:axId val="212407360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213886080"/>
+        <c:axId val="212406784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10838,12 +10852,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213886656"/>
+        <c:crossAx val="212407360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213886656"/>
+        <c:axId val="212407360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10854,7 +10868,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213886080"/>
+        <c:crossAx val="212406784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10993,11 +11007,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190982656"/>
-        <c:axId val="191256192"/>
+        <c:axId val="210660864"/>
+        <c:axId val="82311936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190982656"/>
+        <c:axId val="210660864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11006,7 +11020,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191256192"/>
+        <c:crossAx val="82311936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11014,7 +11028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191256192"/>
+        <c:axId val="82311936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11025,7 +11039,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190982656"/>
+        <c:crossAx val="210660864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11117,11 +11131,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190983680"/>
-        <c:axId val="191545344"/>
+        <c:axId val="211096064"/>
+        <c:axId val="76096640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190983680"/>
+        <c:axId val="211096064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11130,7 +11144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191545344"/>
+        <c:crossAx val="76096640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11138,7 +11152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191545344"/>
+        <c:axId val="76096640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11150,7 +11164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190983680"/>
+        <c:crossAx val="211096064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11270,11 +11284,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="190980096"/>
-        <c:axId val="191547072"/>
+        <c:axId val="78401536"/>
+        <c:axId val="76098368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190980096"/>
+        <c:axId val="78401536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11283,7 +11297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191547072"/>
+        <c:crossAx val="76098368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11291,7 +11305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191547072"/>
+        <c:axId val="76098368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000"/>
@@ -11304,7 +11318,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190980096"/>
+        <c:crossAx val="78401536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000"/>
@@ -11357,7 +11371,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -11572,11 +11585,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="186499584"/>
-        <c:axId val="191548800"/>
+        <c:axId val="78403072"/>
+        <c:axId val="76100096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="186499584"/>
+        <c:axId val="78403072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11585,7 +11598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191548800"/>
+        <c:crossAx val="76100096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11593,7 +11606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191548800"/>
+        <c:axId val="76100096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -11606,14 +11619,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186499584"/>
+        <c:crossAx val="78403072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11938,11 +11950,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212264448"/>
-        <c:axId val="191551104"/>
+        <c:axId val="78404608"/>
+        <c:axId val="76102400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212264448"/>
+        <c:axId val="78404608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11951,7 +11963,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191551104"/>
+        <c:crossAx val="76102400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11959,7 +11971,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191551104"/>
+        <c:axId val="76102400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -11971,7 +11983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212264448"/>
+        <c:crossAx val="78404608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12095,11 +12107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212598784"/>
-        <c:axId val="213123648"/>
+        <c:axId val="140051456"/>
+        <c:axId val="140117696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212598784"/>
+        <c:axId val="140051456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12108,7 +12120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213123648"/>
+        <c:crossAx val="140117696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12116,7 +12128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213123648"/>
+        <c:axId val="140117696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12127,7 +12139,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212598784"/>
+        <c:crossAx val="140051456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12174,7 +12186,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12248,11 +12259,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212600320"/>
-        <c:axId val="213125376"/>
+        <c:axId val="140052992"/>
+        <c:axId val="140119424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="212600320"/>
+        <c:axId val="140052992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12261,7 +12272,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213125376"/>
+        <c:crossAx val="140119424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12269,7 +12280,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213125376"/>
+        <c:axId val="140119424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12280,7 +12291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="212600320"/>
+        <c:crossAx val="140052992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14008,15 +14019,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>133644</xdr:colOff>
+      <xdr:colOff>114475</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>130935</xdr:rowOff>
+      <xdr:rowOff>105259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>6631</xdr:colOff>
+      <xdr:colOff>21955</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>124365</xdr:rowOff>
+      <xdr:rowOff>98689</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14024,9 +14035,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="3486903">
-          <a:off x="19057733" y="5998122"/>
-          <a:ext cx="229913" cy="6349987"/>
+        <a:xfrm rot="3459299">
+          <a:off x="19154631" y="5987473"/>
+          <a:ext cx="233625" cy="6392763"/>
         </a:xfrm>
         <a:prstGeom prst="upDownArrow">
           <a:avLst/>
@@ -14392,7 +14403,7 @@
   <dimension ref="C1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C2" sqref="C2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14403,18 +14414,18 @@
   <sheetData>
     <row r="1" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="983" t="s">
+      <c r="C2" s="1030" t="s">
         <v>486</v>
       </c>
-      <c r="D2" s="984"/>
+      <c r="D2" s="1031"/>
       <c r="E2" s="930"/>
       <c r="F2" s="930"/>
       <c r="G2" s="930"/>
       <c r="H2" s="930"/>
     </row>
     <row r="3" spans="3:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C3" s="985"/>
-      <c r="D3" s="986"/>
+      <c r="C3" s="1032"/>
+      <c r="D3" s="1033"/>
       <c r="E3" s="930"/>
       <c r="F3" s="930"/>
       <c r="G3" s="930"/>
@@ -14433,7 +14444,7 @@
         <v>471</v>
       </c>
       <c r="D5" s="932" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="106.5" x14ac:dyDescent="0.35">
@@ -14486,10 +14497,10 @@
     </row>
     <row r="12" spans="3:8" ht="21" x14ac:dyDescent="0.35">
       <c r="C12" s="933" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D12" s="934" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="31.5" x14ac:dyDescent="0.35">
@@ -14500,7 +14511,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:8" ht="21" x14ac:dyDescent="0.35">
       <c r="C14" s="933" t="s">
         <v>476</v>
       </c>
@@ -14649,7 +14660,7 @@
       <c r="L4" s="141"/>
     </row>
     <row r="5" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L5" s="989" t="s">
+      <c r="L5" s="1036" t="s">
         <v>166</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -14667,7 +14678,7 @@
       <c r="U5" s="17"/>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="L6" s="990"/>
+      <c r="L6" s="1037"/>
       <c r="M6" s="306" t="s">
         <v>152</v>
       </c>
@@ -14685,7 +14696,7 @@
       <c r="U6" s="17"/>
     </row>
     <row r="7" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L7" s="990"/>
+      <c r="L7" s="1037"/>
       <c r="M7" s="306" t="s">
         <v>155</v>
       </c>
@@ -14703,7 +14714,7 @@
       <c r="U7" s="17"/>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="L8" s="990"/>
+      <c r="L8" s="1037"/>
       <c r="M8" s="682" t="s">
         <v>156</v>
       </c>
@@ -14722,7 +14733,7 @@
       <c r="U8" s="17"/>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="L9" s="990"/>
+      <c r="L9" s="1037"/>
       <c r="M9" s="682" t="s">
         <v>160</v>
       </c>
@@ -14741,7 +14752,7 @@
       <c r="X9"/>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="L10" s="990"/>
+      <c r="L10" s="1037"/>
       <c r="M10" s="682" t="s">
         <v>161</v>
       </c>
@@ -14767,7 +14778,7 @@
       <c r="AE10"/>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="L11" s="991"/>
+      <c r="L11" s="1038"/>
       <c r="M11" s="683" t="s">
         <v>162</v>
       </c>
@@ -14807,7 +14818,7 @@
       <c r="AC12"/>
     </row>
     <row r="13" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L13" s="989" t="s">
+      <c r="L13" s="1036" t="s">
         <v>303</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -14829,7 +14840,7 @@
       <c r="AC13"/>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="L14" s="990"/>
+      <c r="L14" s="1037"/>
       <c r="M14" s="306" t="s">
         <v>152</v>
       </c>
@@ -14852,7 +14863,7 @@
       <c r="AC14"/>
     </row>
     <row r="15" spans="2:31" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L15" s="990"/>
+      <c r="L15" s="1037"/>
       <c r="M15" s="306" t="s">
         <v>155</v>
       </c>
@@ -14875,7 +14886,7 @@
       <c r="AC15"/>
     </row>
     <row r="16" spans="2:31" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L16" s="990"/>
+      <c r="L16" s="1037"/>
       <c r="M16" s="682" t="s">
         <v>156</v>
       </c>
@@ -14898,7 +14909,7 @@
       <c r="AC16"/>
     </row>
     <row r="17" spans="1:56" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L17" s="990"/>
+      <c r="L17" s="1037"/>
       <c r="M17" s="682" t="s">
         <v>160</v>
       </c>
@@ -14918,7 +14929,7 @@
       <c r="AC17"/>
     </row>
     <row r="18" spans="1:56" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L18" s="990"/>
+      <c r="L18" s="1037"/>
       <c r="M18" s="682" t="s">
         <v>161</v>
       </c>
@@ -14938,7 +14949,7 @@
       <c r="AC18"/>
     </row>
     <row r="19" spans="1:56" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L19" s="991"/>
+      <c r="L19" s="1038"/>
       <c r="M19" s="683" t="s">
         <v>162</v>
       </c>
@@ -14973,7 +14984,7 @@
       <c r="AC20"/>
     </row>
     <row r="21" spans="1:56" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L21" s="992" t="s">
+      <c r="L21" s="1039" t="s">
         <v>155</v>
       </c>
       <c r="M21" s="287" t="s">
@@ -14994,7 +15005,7 @@
       <c r="AC21"/>
     </row>
     <row r="22" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L22" s="993"/>
+      <c r="L22" s="1040"/>
       <c r="M22" s="17" t="s">
         <v>142</v>
       </c>
@@ -15013,7 +15024,7 @@
       <c r="AC22"/>
     </row>
     <row r="23" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L23" s="993"/>
+      <c r="L23" s="1040"/>
       <c r="M23" s="17" t="s">
         <v>5</v>
       </c>
@@ -15032,7 +15043,7 @@
       <c r="AC23"/>
     </row>
     <row r="24" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="994"/>
+      <c r="L24" s="1041"/>
       <c r="M24" s="168" t="s">
         <v>144</v>
       </c>
@@ -15094,18 +15105,18 @@
       <c r="AT26" s="8"/>
     </row>
     <row r="27" spans="1:56" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="1044" t="s">
+      <c r="B27" s="1095" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="1044"/>
-      <c r="D27" s="1044"/>
-      <c r="E27" s="1044"/>
-      <c r="G27" s="1045" t="s">
+      <c r="C27" s="1095"/>
+      <c r="D27" s="1095"/>
+      <c r="E27" s="1095"/>
+      <c r="G27" s="1096" t="s">
         <v>183</v>
       </c>
-      <c r="H27" s="1045"/>
-      <c r="I27" s="1045"/>
-      <c r="J27" s="1045"/>
+      <c r="H27" s="1096"/>
+      <c r="I27" s="1096"/>
+      <c r="J27" s="1096"/>
       <c r="M27" s="208" t="s">
         <v>12</v>
       </c>
@@ -18284,21 +18295,21 @@
       <c r="S55" s="17"/>
       <c r="T55" s="292"/>
       <c r="V55"/>
-      <c r="W55" s="1043" t="s">
+      <c r="W55" s="1098" t="s">
         <v>311</v>
       </c>
-      <c r="X55" s="1043"/>
+      <c r="X55" s="1098"/>
       <c r="Z55" s="190"/>
       <c r="AA55" s="190"/>
       <c r="AB55" s="190"/>
       <c r="AD55" s="671"/>
       <c r="AE55" s="17"/>
-      <c r="AF55" s="1042" t="s">
+      <c r="AF55" s="1097" t="s">
         <v>542</v>
       </c>
-      <c r="AG55" s="1042"/>
-      <c r="AH55" s="1042"/>
-      <c r="AI55" s="1042"/>
+      <c r="AG55" s="1097"/>
+      <c r="AH55" s="1097"/>
+      <c r="AI55" s="1097"/>
       <c r="AJ55" s="216"/>
       <c r="AK55" s="142"/>
       <c r="AL55" s="142"/>
@@ -18363,10 +18374,10 @@
       <c r="AB56" s="190"/>
       <c r="AD56" s="671"/>
       <c r="AE56" s="17"/>
-      <c r="AF56" s="1042"/>
-      <c r="AG56" s="1042"/>
-      <c r="AH56" s="1042"/>
-      <c r="AI56" s="1042"/>
+      <c r="AF56" s="1097"/>
+      <c r="AG56" s="1097"/>
+      <c r="AH56" s="1097"/>
+      <c r="AI56" s="1097"/>
       <c r="AJ56" s="216"/>
       <c r="AK56" s="142"/>
       <c r="AL56" s="142"/>
@@ -19465,14 +19476,14 @@
       <c r="AF71" s="7"/>
       <c r="AG71" s="7"/>
       <c r="AH71" s="7"/>
-      <c r="AI71" s="1040" t="s">
+      <c r="AI71" s="1087" t="s">
         <v>524</v>
       </c>
-      <c r="AJ71" s="1041"/>
-      <c r="AK71" s="1040" t="s">
+      <c r="AJ71" s="1088"/>
+      <c r="AK71" s="1087" t="s">
         <v>531</v>
       </c>
-      <c r="AL71" s="1041"/>
+      <c r="AL71" s="1088"/>
       <c r="AM71" s="7"/>
       <c r="AN71" s="7"/>
       <c r="AO71" s="7"/>
@@ -21396,15 +21407,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="L13:L19"/>
+    <mergeCell ref="L21:L24"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="G27:J27"/>
     <mergeCell ref="AK71:AL71"/>
     <mergeCell ref="AI71:AJ71"/>
     <mergeCell ref="AF55:AI56"/>
     <mergeCell ref="W55:X55"/>
-    <mergeCell ref="L5:L11"/>
-    <mergeCell ref="L13:L19"/>
-    <mergeCell ref="L21:L24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21458,7 +21469,7 @@
       <c r="D3" s="141"/>
     </row>
     <row r="4" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C4" s="989" t="s">
+      <c r="C4" s="1036" t="s">
         <v>166</v>
       </c>
       <c r="D4" s="152" t="s">
@@ -21477,7 +21488,7 @@
       <c r="M4" s="273"/>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C5" s="990"/>
+      <c r="C5" s="1037"/>
       <c r="D5" s="17" t="s">
         <v>152</v>
       </c>
@@ -21496,7 +21507,7 @@
       <c r="M5" s="252"/>
     </row>
     <row r="6" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C6" s="990"/>
+      <c r="C6" s="1037"/>
       <c r="D6" s="17" t="s">
         <v>155</v>
       </c>
@@ -21515,7 +21526,7 @@
       <c r="M6" s="252"/>
     </row>
     <row r="7" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C7" s="990"/>
+      <c r="C7" s="1037"/>
       <c r="D7" s="142" t="s">
         <v>156</v>
       </c>
@@ -21535,7 +21546,7 @@
       <c r="M7" s="252"/>
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C8" s="990"/>
+      <c r="C8" s="1037"/>
       <c r="D8" s="142" t="s">
         <v>160</v>
       </c>
@@ -21552,7 +21563,7 @@
       <c r="M8" s="252"/>
     </row>
     <row r="9" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C9" s="990"/>
+      <c r="C9" s="1037"/>
       <c r="D9" s="142" t="s">
         <v>161</v>
       </c>
@@ -21569,7 +21580,7 @@
       <c r="M9" s="252"/>
     </row>
     <row r="10" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C10" s="991"/>
+      <c r="C10" s="1038"/>
       <c r="D10" s="279" t="s">
         <v>162</v>
       </c>
@@ -21601,7 +21612,7 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C12" s="989" t="s">
+      <c r="C12" s="1036" t="s">
         <v>170</v>
       </c>
       <c r="D12" s="152" t="s">
@@ -21619,7 +21630,7 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C13" s="990"/>
+      <c r="C13" s="1037"/>
       <c r="D13" s="17" t="s">
         <v>137</v>
       </c>
@@ -21635,7 +21646,7 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C14" s="991"/>
+      <c r="C14" s="1038"/>
       <c r="D14" s="271" t="s">
         <v>138</v>
       </c>
@@ -21663,7 +21674,7 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="C16" s="992" t="s">
+      <c r="C16" s="1039" t="s">
         <v>155</v>
       </c>
       <c r="D16" s="287" t="s">
@@ -21690,7 +21701,7 @@
       <c r="AY16" s="8"/>
     </row>
     <row r="17" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="C17" s="993"/>
+      <c r="C17" s="1040"/>
       <c r="D17" s="17" t="s">
         <v>142</v>
       </c>
@@ -21715,7 +21726,7 @@
       <c r="AY17" s="8"/>
     </row>
     <row r="18" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="C18" s="993"/>
+      <c r="C18" s="1040"/>
       <c r="D18" s="17" t="s">
         <v>5</v>
       </c>
@@ -21740,7 +21751,7 @@
       <c r="AY18" s="8"/>
     </row>
     <row r="19" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="C19" s="993"/>
+      <c r="C19" s="1040"/>
       <c r="D19" s="142" t="s">
         <v>158</v>
       </c>
@@ -21765,7 +21776,7 @@
       <c r="AY19" s="8"/>
     </row>
     <row r="20" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="994"/>
+      <c r="C20" s="1041"/>
       <c r="D20" s="168" t="s">
         <v>144</v>
       </c>
@@ -21901,8 +21912,8 @@
       </c>
       <c r="AP23" s="8"/>
       <c r="AQ23" s="202"/>
-      <c r="AR23" s="1046"/>
-      <c r="AS23" s="1046"/>
+      <c r="AR23" s="1099"/>
+      <c r="AS23" s="1099"/>
       <c r="AT23" s="495"/>
       <c r="AU23" s="8"/>
       <c r="AV23" s="8"/>
@@ -25733,7 +25744,7 @@
       </c>
       <c r="N61" s="17"/>
       <c r="O61" s="17"/>
-      <c r="P61" s="1047" t="s">
+      <c r="P61" s="1100" t="s">
         <v>204</v>
       </c>
       <c r="Q61" s="17"/>
@@ -25782,7 +25793,7 @@
         <v>0.5</v>
       </c>
       <c r="O62" s="142"/>
-      <c r="P62" s="1048"/>
+      <c r="P62" s="1101"/>
       <c r="X62" s="564"/>
       <c r="AB62" s="142"/>
     </row>
@@ -25821,7 +25832,7 @@
       </c>
       <c r="N63" s="396"/>
       <c r="O63" s="142"/>
-      <c r="P63" s="1048"/>
+      <c r="P63" s="1101"/>
       <c r="X63" s="564"/>
       <c r="AB63" s="142"/>
     </row>
@@ -25850,7 +25861,7 @@
       <c r="M64" s="408"/>
       <c r="N64" s="396"/>
       <c r="O64" s="142"/>
-      <c r="P64" s="1049"/>
+      <c r="P64" s="1102"/>
       <c r="X64" s="564"/>
       <c r="AB64" s="142"/>
     </row>
@@ -25891,7 +25902,7 @@
         <v>1</v>
       </c>
       <c r="O66" s="17"/>
-      <c r="P66" s="1047" t="s">
+      <c r="P66" s="1100" t="s">
         <v>202</v>
       </c>
       <c r="Q66" s="17"/>
@@ -25951,7 +25962,7 @@
         <f>M67-M62</f>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="P67" s="1048"/>
+      <c r="P67" s="1101"/>
       <c r="Q67" s="17"/>
       <c r="R67" s="17"/>
       <c r="S67" s="17"/>
@@ -26007,7 +26018,7 @@
         <f>-1*O67</f>
         <v>-5.0000000000000044E-2</v>
       </c>
-      <c r="P68" s="1048"/>
+      <c r="P68" s="1101"/>
       <c r="Q68" s="17"/>
       <c r="R68" s="17"/>
       <c r="S68" s="17"/>
@@ -26048,7 +26059,7 @@
         <v>1</v>
       </c>
       <c r="O69" s="17"/>
-      <c r="P69" s="1049"/>
+      <c r="P69" s="1102"/>
       <c r="Q69" s="17"/>
       <c r="R69" s="17"/>
       <c r="S69" s="17"/>
@@ -26106,7 +26117,7 @@
         <v>1</v>
       </c>
       <c r="O71" s="17"/>
-      <c r="P71" s="1047" t="s">
+      <c r="P71" s="1100" t="s">
         <v>203</v>
       </c>
       <c r="Q71" s="17"/>
@@ -26161,7 +26172,7 @@
         <v>1.0000012776315277</v>
       </c>
       <c r="O72" s="17"/>
-      <c r="P72" s="1048"/>
+      <c r="P72" s="1101"/>
       <c r="Q72" s="17"/>
       <c r="R72" s="17"/>
       <c r="S72" s="17"/>
@@ -26212,7 +26223,7 @@
         <v>0.99999843845478864</v>
       </c>
       <c r="O73" s="17"/>
-      <c r="P73" s="1048"/>
+      <c r="P73" s="1101"/>
       <c r="Q73" s="17"/>
       <c r="R73" s="17"/>
       <c r="S73" s="17"/>
@@ -26253,7 +26264,7 @@
         <v>1.0000000089707122</v>
       </c>
       <c r="O74" s="17"/>
-      <c r="P74" s="1049"/>
+      <c r="P74" s="1102"/>
       <c r="Q74" s="17"/>
       <c r="R74" s="17"/>
       <c r="S74" s="17"/>
@@ -26881,7 +26892,7 @@
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
-      <c r="C4" s="989" t="s">
+      <c r="C4" s="1036" t="s">
         <v>166</v>
       </c>
       <c r="D4" s="152" t="s">
@@ -26905,7 +26916,7 @@
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
-      <c r="C5" s="990"/>
+      <c r="C5" s="1037"/>
       <c r="D5" s="17" t="s">
         <v>137</v>
       </c>
@@ -26927,7 +26938,7 @@
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
-      <c r="C6" s="991"/>
+      <c r="C6" s="1038"/>
       <c r="D6" s="271" t="s">
         <v>138</v>
       </c>
@@ -26967,7 +26978,7 @@
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
-      <c r="C8" s="992" t="s">
+      <c r="C8" s="1039" t="s">
         <v>155</v>
       </c>
       <c r="D8" s="287" t="s">
@@ -26993,7 +27004,7 @@
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
-      <c r="C9" s="993"/>
+      <c r="C9" s="1040"/>
       <c r="D9" s="17" t="s">
         <v>142</v>
       </c>
@@ -27017,7 +27028,7 @@
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="C10" s="993"/>
+      <c r="C10" s="1040"/>
       <c r="D10" s="17" t="s">
         <v>5</v>
       </c>
@@ -27031,11 +27042,11 @@
       <c r="G10" s="7"/>
       <c r="H10" s="291"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="1055" t="s">
+      <c r="J10" s="1108" t="s">
         <v>387</v>
       </c>
-      <c r="K10" s="1055"/>
-      <c r="L10" s="1055"/>
+      <c r="K10" s="1108"/>
+      <c r="L10" s="1108"/>
       <c r="N10" s="33"/>
       <c r="O10" s="33"/>
       <c r="P10" s="33"/>
@@ -27045,7 +27056,7 @@
     </row>
     <row r="11" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
-      <c r="C11" s="994"/>
+      <c r="C11" s="1041"/>
       <c r="D11" s="168" t="s">
         <v>144</v>
       </c>
@@ -27123,11 +27134,11 @@
       <c r="W13" s="821"/>
       <c r="X13" s="821"/>
       <c r="Y13" s="821"/>
-      <c r="Z13" s="1044"/>
-      <c r="AA13" s="1044"/>
+      <c r="Z13" s="1095"/>
+      <c r="AA13" s="1095"/>
     </row>
     <row r="14" spans="2:31" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1056" t="s">
+      <c r="B14" s="1109" t="s">
         <v>389</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -27161,10 +27172,10 @@
       <c r="R14" s="821" t="s">
         <v>390</v>
       </c>
-      <c r="S14" s="1053" t="s">
+      <c r="S14" s="1106" t="s">
         <v>391</v>
       </c>
-      <c r="T14" s="1054"/>
+      <c r="T14" s="1107"/>
       <c r="U14" s="821" t="s">
         <v>392</v>
       </c>
@@ -27182,7 +27193,7 @@
       <c r="AA14" s="8"/>
     </row>
     <row r="15" spans="2:31" s="7" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1051"/>
+      <c r="B15" s="1104"/>
       <c r="D15" s="919">
         <f>$E$10</f>
         <v>0.2</v>
@@ -27239,7 +27250,7 @@
       </c>
     </row>
     <row r="16" spans="2:31" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1051"/>
+      <c r="B16" s="1104"/>
       <c r="D16" s="7">
         <f t="shared" ref="D16:D30" si="6">$E$10</f>
         <v>0.2</v>
@@ -27302,7 +27313,7 @@
       </c>
     </row>
     <row r="17" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1051"/>
+      <c r="B17" s="1104"/>
       <c r="D17" s="7">
         <f t="shared" si="6"/>
         <v>0.2</v>
@@ -27365,7 +27376,7 @@
       </c>
     </row>
     <row r="18" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1051"/>
+      <c r="B18" s="1104"/>
       <c r="D18" s="7">
         <f t="shared" si="6"/>
         <v>0.2</v>
@@ -27428,7 +27439,7 @@
       </c>
     </row>
     <row r="19" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1051"/>
+      <c r="B19" s="1104"/>
       <c r="D19" s="7">
         <f t="shared" si="6"/>
         <v>0.2</v>
@@ -27491,7 +27502,7 @@
       </c>
     </row>
     <row r="20" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1051"/>
+      <c r="B20" s="1104"/>
       <c r="D20" s="7">
         <f t="shared" si="6"/>
         <v>0.2</v>
@@ -27554,7 +27565,7 @@
       </c>
     </row>
     <row r="21" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1051"/>
+      <c r="B21" s="1104"/>
       <c r="D21" s="7">
         <f t="shared" si="6"/>
         <v>0.2</v>
@@ -27617,7 +27628,7 @@
       </c>
     </row>
     <row r="22" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1051"/>
+      <c r="B22" s="1104"/>
       <c r="D22" s="7">
         <f t="shared" si="6"/>
         <v>0.2</v>
@@ -27680,7 +27691,7 @@
       </c>
     </row>
     <row r="23" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1051"/>
+      <c r="B23" s="1104"/>
       <c r="D23" s="7">
         <f t="shared" si="6"/>
         <v>0.2</v>
@@ -27743,7 +27754,7 @@
       </c>
     </row>
     <row r="24" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1051"/>
+      <c r="B24" s="1104"/>
       <c r="D24" s="7">
         <f t="shared" si="6"/>
         <v>0.2</v>
@@ -27806,7 +27817,7 @@
       </c>
     </row>
     <row r="25" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1051"/>
+      <c r="B25" s="1104"/>
       <c r="D25" s="7">
         <f t="shared" si="6"/>
         <v>0.2</v>
@@ -27869,7 +27880,7 @@
       </c>
     </row>
     <row r="26" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1051"/>
+      <c r="B26" s="1104"/>
       <c r="D26" s="7">
         <f t="shared" si="6"/>
         <v>0.2</v>
@@ -27932,7 +27943,7 @@
       </c>
     </row>
     <row r="27" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1051"/>
+      <c r="B27" s="1104"/>
       <c r="D27" s="7">
         <f t="shared" si="6"/>
         <v>0.2</v>
@@ -27995,7 +28006,7 @@
       </c>
     </row>
     <row r="28" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1051"/>
+      <c r="B28" s="1104"/>
       <c r="D28" s="7">
         <f t="shared" si="6"/>
         <v>0.2</v>
@@ -28058,7 +28069,7 @@
       </c>
     </row>
     <row r="29" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1051"/>
+      <c r="B29" s="1104"/>
       <c r="D29" s="7">
         <f t="shared" si="6"/>
         <v>0.2</v>
@@ -28121,7 +28132,7 @@
       </c>
     </row>
     <row r="30" spans="2:25" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="1051"/>
+      <c r="B30" s="1104"/>
       <c r="D30" s="7">
         <f t="shared" si="6"/>
         <v>0.2</v>
@@ -28190,7 +28201,7 @@
       </c>
     </row>
     <row r="31" spans="2:25" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="1052"/>
+      <c r="B31" s="1105"/>
       <c r="E31" s="25" t="s">
         <v>97</v>
       </c>
@@ -28377,8 +28388,8 @@
       <c r="W38" s="821"/>
       <c r="X38" s="821"/>
       <c r="Y38" s="821"/>
-      <c r="Z38" s="1044"/>
-      <c r="AA38" s="1044"/>
+      <c r="Z38" s="1095"/>
+      <c r="AA38" s="1095"/>
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
@@ -28409,7 +28420,7 @@
     </row>
     <row r="39" spans="1:54" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39"/>
-      <c r="B39" s="1050" t="s">
+      <c r="B39" s="1103" t="s">
         <v>395</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -28458,10 +28469,10 @@
       <c r="R39" s="821" t="s">
         <v>390</v>
       </c>
-      <c r="S39" s="1053" t="s">
+      <c r="S39" s="1106" t="s">
         <v>543</v>
       </c>
-      <c r="T39" s="1054"/>
+      <c r="T39" s="1107"/>
       <c r="U39" s="821" t="s">
         <v>392</v>
       </c>
@@ -28511,7 +28522,7 @@
     </row>
     <row r="40" spans="1:54" s="33" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40"/>
-      <c r="B40" s="1051"/>
+      <c r="B40" s="1104"/>
       <c r="C40" s="914">
         <v>0.02</v>
       </c>
@@ -28631,7 +28642,7 @@
       <c r="BB40" s="7"/>
     </row>
     <row r="41" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B41" s="1051"/>
+      <c r="B41" s="1104"/>
       <c r="C41" s="150">
         <v>0.05</v>
       </c>
@@ -28758,7 +28769,7 @@
       <c r="BB41" s="7"/>
     </row>
     <row r="42" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B42" s="1051"/>
+      <c r="B42" s="1104"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7">
         <f t="shared" ref="D42:D56" si="28">$C$40*H42</f>
@@ -28882,7 +28893,7 @@
       <c r="BB42" s="7"/>
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B43" s="1051"/>
+      <c r="B43" s="1104"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7">
         <f t="shared" si="28"/>
@@ -29006,7 +29017,7 @@
       <c r="BB43" s="7"/>
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B44" s="1051"/>
+      <c r="B44" s="1104"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7">
         <f t="shared" si="28"/>
@@ -29130,7 +29141,7 @@
       <c r="BB44" s="7"/>
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B45" s="1051"/>
+      <c r="B45" s="1104"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7">
         <f t="shared" si="28"/>
@@ -29254,7 +29265,7 @@
       <c r="BB45" s="7"/>
     </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B46" s="1051"/>
+      <c r="B46" s="1104"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7">
         <f t="shared" si="28"/>
@@ -29378,7 +29389,7 @@
       <c r="BB46" s="7"/>
     </row>
     <row r="47" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B47" s="1051"/>
+      <c r="B47" s="1104"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7">
         <f t="shared" si="28"/>
@@ -29502,7 +29513,7 @@
       <c r="BB47" s="7"/>
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B48" s="1051"/>
+      <c r="B48" s="1104"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7">
         <f t="shared" si="28"/>
@@ -29628,7 +29639,7 @@
       <c r="BB48" s="7"/>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B49" s="1051"/>
+      <c r="B49" s="1104"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7">
         <f t="shared" si="28"/>
@@ -29752,7 +29763,7 @@
       <c r="BB49" s="7"/>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B50" s="1051"/>
+      <c r="B50" s="1104"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7">
         <f t="shared" si="28"/>
@@ -29876,7 +29887,7 @@
       <c r="BB50" s="7"/>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B51" s="1051"/>
+      <c r="B51" s="1104"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7">
         <f t="shared" si="28"/>
@@ -30000,7 +30011,7 @@
       <c r="BB51" s="7"/>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B52" s="1051"/>
+      <c r="B52" s="1104"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7">
         <f t="shared" si="28"/>
@@ -30124,7 +30135,7 @@
       <c r="BB52" s="7"/>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B53" s="1051"/>
+      <c r="B53" s="1104"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7">
         <f t="shared" si="28"/>
@@ -30248,7 +30259,7 @@
       <c r="BB53" s="7"/>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B54" s="1051"/>
+      <c r="B54" s="1104"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7">
         <f t="shared" si="28"/>
@@ -30372,7 +30383,7 @@
       <c r="BB54" s="7"/>
     </row>
     <row r="55" spans="2:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="1051"/>
+      <c r="B55" s="1104"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7">
         <f t="shared" si="28"/>
@@ -30496,7 +30507,7 @@
       <c r="BB55" s="7"/>
     </row>
     <row r="56" spans="2:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="1052"/>
+      <c r="B56" s="1105"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7">
         <f t="shared" si="28"/>
@@ -36284,7 +36295,7 @@
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
-      <c r="C4" s="989" t="s">
+      <c r="C4" s="1036" t="s">
         <v>166</v>
       </c>
       <c r="D4" s="152" t="s">
@@ -36308,7 +36319,7 @@
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
-      <c r="C5" s="990"/>
+      <c r="C5" s="1037"/>
       <c r="D5" s="17" t="s">
         <v>137</v>
       </c>
@@ -36330,7 +36341,7 @@
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
-      <c r="C6" s="991"/>
+      <c r="C6" s="1038"/>
       <c r="D6" s="271" t="s">
         <v>138</v>
       </c>
@@ -36370,7 +36381,7 @@
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
-      <c r="C8" s="992" t="s">
+      <c r="C8" s="1039" t="s">
         <v>155</v>
       </c>
       <c r="D8" s="287" t="s">
@@ -36396,7 +36407,7 @@
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
-      <c r="C9" s="993"/>
+      <c r="C9" s="1040"/>
       <c r="D9" s="17" t="s">
         <v>142</v>
       </c>
@@ -36420,7 +36431,7 @@
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
-      <c r="C10" s="993"/>
+      <c r="C10" s="1040"/>
       <c r="D10" s="17" t="s">
         <v>5</v>
       </c>
@@ -36434,11 +36445,11 @@
       <c r="G10" s="7"/>
       <c r="H10" s="291"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="1055" t="s">
+      <c r="J10" s="1108" t="s">
         <v>387</v>
       </c>
-      <c r="K10" s="1055"/>
-      <c r="L10" s="1055"/>
+      <c r="K10" s="1108"/>
+      <c r="L10" s="1108"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="33"/>
       <c r="R10" s="33"/>
@@ -36448,7 +36459,7 @@
     </row>
     <row r="11" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
-      <c r="C11" s="994"/>
+      <c r="C11" s="1041"/>
       <c r="D11" s="168" t="s">
         <v>144</v>
       </c>
@@ -36519,11 +36530,11 @@
       <c r="W13" s="902"/>
       <c r="X13" s="902"/>
       <c r="Y13" s="902"/>
-      <c r="Z13" s="1044"/>
-      <c r="AA13" s="1044"/>
+      <c r="Z13" s="1095"/>
+      <c r="AA13" s="1095"/>
     </row>
     <row r="14" spans="2:31" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1056" t="s">
+      <c r="B14" s="1109" t="s">
         <v>389</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -36559,17 +36570,17 @@
       <c r="T14" s="902" t="s">
         <v>390</v>
       </c>
-      <c r="U14" s="1053" t="s">
+      <c r="U14" s="1106" t="s">
         <v>391</v>
       </c>
-      <c r="V14" s="1054"/>
+      <c r="V14" s="1107"/>
       <c r="W14" s="902"/>
       <c r="X14" s="145"/>
       <c r="Y14" s="902"/>
       <c r="AA14" s="8"/>
     </row>
     <row r="15" spans="2:31" s="7" customFormat="1" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1051"/>
+      <c r="B15" s="1104"/>
       <c r="D15" s="829">
         <f>$E$10</f>
         <v>0.2</v>
@@ -36618,7 +36629,7 @@
       <c r="Y15" s="902"/>
     </row>
     <row r="16" spans="2:31" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1051"/>
+      <c r="B16" s="1104"/>
       <c r="D16" s="7">
         <f t="shared" ref="D16:D30" si="7">$E$10</f>
         <v>0.2</v>
@@ -36667,7 +36678,7 @@
       <c r="Y16" s="902"/>
     </row>
     <row r="17" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1051"/>
+      <c r="B17" s="1104"/>
       <c r="D17" s="7">
         <f t="shared" si="7"/>
         <v>0.2</v>
@@ -36716,7 +36727,7 @@
       <c r="Y17" s="902"/>
     </row>
     <row r="18" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1051"/>
+      <c r="B18" s="1104"/>
       <c r="D18" s="7">
         <f t="shared" si="7"/>
         <v>0.2</v>
@@ -36765,7 +36776,7 @@
       <c r="Y18" s="902"/>
     </row>
     <row r="19" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1051"/>
+      <c r="B19" s="1104"/>
       <c r="D19" s="7">
         <f t="shared" si="7"/>
         <v>0.2</v>
@@ -36814,7 +36825,7 @@
       <c r="Y19" s="902"/>
     </row>
     <row r="20" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1051"/>
+      <c r="B20" s="1104"/>
       <c r="D20" s="7">
         <f t="shared" si="7"/>
         <v>0.2</v>
@@ -36863,7 +36874,7 @@
       <c r="Y20" s="902"/>
     </row>
     <row r="21" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1051"/>
+      <c r="B21" s="1104"/>
       <c r="D21" s="7">
         <f t="shared" si="7"/>
         <v>0.2</v>
@@ -36912,7 +36923,7 @@
       <c r="Y21" s="902"/>
     </row>
     <row r="22" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1051"/>
+      <c r="B22" s="1104"/>
       <c r="D22" s="7">
         <f t="shared" si="7"/>
         <v>0.2</v>
@@ -36961,7 +36972,7 @@
       <c r="Y22" s="902"/>
     </row>
     <row r="23" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1051"/>
+      <c r="B23" s="1104"/>
       <c r="D23" s="7">
         <f t="shared" si="7"/>
         <v>0.2</v>
@@ -37010,7 +37021,7 @@
       <c r="Y23" s="902"/>
     </row>
     <row r="24" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1051"/>
+      <c r="B24" s="1104"/>
       <c r="D24" s="7">
         <f t="shared" si="7"/>
         <v>0.2</v>
@@ -37059,7 +37070,7 @@
       <c r="Y24" s="902"/>
     </row>
     <row r="25" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1051"/>
+      <c r="B25" s="1104"/>
       <c r="D25" s="7">
         <f t="shared" si="7"/>
         <v>0.2</v>
@@ -37108,7 +37119,7 @@
       <c r="Y25" s="902"/>
     </row>
     <row r="26" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1051"/>
+      <c r="B26" s="1104"/>
       <c r="D26" s="7">
         <f t="shared" si="7"/>
         <v>0.2</v>
@@ -37157,7 +37168,7 @@
       <c r="Y26" s="902"/>
     </row>
     <row r="27" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1051"/>
+      <c r="B27" s="1104"/>
       <c r="D27" s="7">
         <f t="shared" si="7"/>
         <v>0.2</v>
@@ -37206,7 +37217,7 @@
       <c r="Y27" s="902"/>
     </row>
     <row r="28" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1051"/>
+      <c r="B28" s="1104"/>
       <c r="D28" s="7">
         <f t="shared" si="7"/>
         <v>0.2</v>
@@ -37255,7 +37266,7 @@
       <c r="Y28" s="902"/>
     </row>
     <row r="29" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="1051"/>
+      <c r="B29" s="1104"/>
       <c r="D29" s="7">
         <f t="shared" si="7"/>
         <v>0.2</v>
@@ -37304,7 +37315,7 @@
       <c r="Y29" s="902"/>
     </row>
     <row r="30" spans="2:25" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="1051"/>
+      <c r="B30" s="1104"/>
       <c r="D30" s="7">
         <f t="shared" si="7"/>
         <v>0.2</v>
@@ -37361,7 +37372,7 @@
       <c r="Y30" s="902"/>
     </row>
     <row r="31" spans="2:25" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="1052"/>
+      <c r="B31" s="1105"/>
       <c r="E31" s="25" t="s">
         <v>97</v>
       </c>
@@ -37549,8 +37560,8 @@
       <c r="W38" s="902"/>
       <c r="X38" s="902"/>
       <c r="Y38" s="902"/>
-      <c r="Z38" s="1044"/>
-      <c r="AA38" s="1044"/>
+      <c r="Z38" s="1095"/>
+      <c r="AA38" s="1095"/>
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
@@ -37581,7 +37592,7 @@
     </row>
     <row r="39" spans="1:54" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39"/>
-      <c r="B39" s="1050" t="s">
+      <c r="B39" s="1103" t="s">
         <v>395</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -37632,10 +37643,10 @@
       <c r="T39" s="902" t="s">
         <v>390</v>
       </c>
-      <c r="U39" s="1053" t="s">
+      <c r="U39" s="1106" t="s">
         <v>391</v>
       </c>
-      <c r="V39" s="1054"/>
+      <c r="V39" s="1107"/>
       <c r="W39" s="902"/>
       <c r="X39" s="145"/>
       <c r="Y39" s="902"/>
@@ -37671,7 +37682,7 @@
     </row>
     <row r="40" spans="1:54" s="33" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A40"/>
-      <c r="B40" s="1051"/>
+      <c r="B40" s="1104"/>
       <c r="C40" s="855">
         <v>0.02</v>
       </c>
@@ -37781,7 +37792,7 @@
       <c r="BB40" s="7"/>
     </row>
     <row r="41" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B41" s="1051"/>
+      <c r="B41" s="1104"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7">
         <f t="shared" ref="D41:D56" si="21">$C$40*H41</f>
@@ -37889,7 +37900,7 @@
       <c r="BB41" s="7"/>
     </row>
     <row r="42" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B42" s="1051"/>
+      <c r="B42" s="1104"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7">
         <f t="shared" si="21"/>
@@ -37997,7 +38008,7 @@
       <c r="BB42" s="7"/>
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B43" s="1051"/>
+      <c r="B43" s="1104"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7">
         <f t="shared" si="21"/>
@@ -38105,7 +38116,7 @@
       <c r="BB43" s="7"/>
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B44" s="1051"/>
+      <c r="B44" s="1104"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7">
         <f t="shared" si="21"/>
@@ -38213,7 +38224,7 @@
       <c r="BB44" s="7"/>
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B45" s="1051"/>
+      <c r="B45" s="1104"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7">
         <f t="shared" si="21"/>
@@ -38321,7 +38332,7 @@
       <c r="BB45" s="7"/>
     </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B46" s="1051"/>
+      <c r="B46" s="1104"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7">
         <f t="shared" si="21"/>
@@ -38429,7 +38440,7 @@
       <c r="BB46" s="7"/>
     </row>
     <row r="47" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B47" s="1051"/>
+      <c r="B47" s="1104"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7">
         <f t="shared" si="21"/>
@@ -38537,7 +38548,7 @@
       <c r="BB47" s="7"/>
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B48" s="1051"/>
+      <c r="B48" s="1104"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7">
         <f t="shared" si="21"/>
@@ -38645,7 +38656,7 @@
       <c r="BB48" s="7"/>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B49" s="1051"/>
+      <c r="B49" s="1104"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7">
         <f t="shared" si="21"/>
@@ -38753,7 +38764,7 @@
       <c r="BB49" s="7"/>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B50" s="1051"/>
+      <c r="B50" s="1104"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7">
         <f t="shared" si="21"/>
@@ -38861,7 +38872,7 @@
       <c r="BB50" s="7"/>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B51" s="1051"/>
+      <c r="B51" s="1104"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7">
         <f t="shared" si="21"/>
@@ -38969,7 +38980,7 @@
       <c r="BB51" s="7"/>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B52" s="1051"/>
+      <c r="B52" s="1104"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7">
         <f t="shared" si="21"/>
@@ -39077,7 +39088,7 @@
       <c r="BB52" s="7"/>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B53" s="1051"/>
+      <c r="B53" s="1104"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7">
         <f t="shared" si="21"/>
@@ -39185,7 +39196,7 @@
       <c r="BB53" s="7"/>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B54" s="1051"/>
+      <c r="B54" s="1104"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7">
         <f t="shared" si="21"/>
@@ -39293,7 +39304,7 @@
       <c r="BB54" s="7"/>
     </row>
     <row r="55" spans="2:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="1051"/>
+      <c r="B55" s="1104"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7">
         <f t="shared" si="21"/>
@@ -39401,7 +39412,7 @@
       <c r="BB55" s="7"/>
     </row>
     <row r="56" spans="2:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="1052"/>
+      <c r="B56" s="1105"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7">
         <f t="shared" si="21"/>
@@ -43840,11 +43851,11 @@
       <c r="C25" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="1057" t="s">
+      <c r="D25" s="1110" t="s">
         <v>351</v>
       </c>
-      <c r="E25" s="1058"/>
-      <c r="F25" s="1059"/>
+      <c r="E25" s="1111"/>
+      <c r="F25" s="1112"/>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="131" t="s">
@@ -44500,10 +44511,10 @@
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" s="1060" t="s">
+      <c r="F4" s="1113" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="1061"/>
+      <c r="G4" s="1114"/>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
@@ -45443,12 +45454,12 @@
       <c r="U21" s="102"/>
     </row>
     <row r="22" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R22" s="1062" t="s">
+      <c r="R22" s="1115" t="s">
         <v>61</v>
       </c>
-      <c r="S22" s="1045"/>
-      <c r="T22" s="1045"/>
-      <c r="U22" s="1063"/>
+      <c r="S22" s="1096"/>
+      <c r="T22" s="1096"/>
+      <c r="U22" s="1116"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -45516,7 +45527,7 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="989" t="s">
+      <c r="B4" s="1036" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="152" t="s">
@@ -45537,7 +45548,7 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="990"/>
+      <c r="B5" s="1037"/>
       <c r="C5" s="17" t="s">
         <v>137</v>
       </c>
@@ -45556,7 +45567,7 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="991"/>
+      <c r="B6" s="1038"/>
       <c r="C6" s="271" t="s">
         <v>138</v>
       </c>
@@ -45590,7 +45601,7 @@
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="992" t="s">
+      <c r="B8" s="1039" t="s">
         <v>155</v>
       </c>
       <c r="C8" s="287" t="s">
@@ -45613,7 +45624,7 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="993"/>
+      <c r="B9" s="1040"/>
       <c r="C9" s="17" t="s">
         <v>142</v>
       </c>
@@ -45637,7 +45648,7 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="993"/>
+      <c r="B10" s="1040"/>
       <c r="C10" s="17" t="s">
         <v>5</v>
       </c>
@@ -45661,7 +45672,7 @@
     </row>
     <row r="11" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="994"/>
+      <c r="B11" s="1041"/>
       <c r="C11" s="168" t="s">
         <v>144</v>
       </c>
@@ -45721,10 +45732,10 @@
         <v>127</v>
       </c>
       <c r="K13" s="20"/>
-      <c r="L13" s="995" t="s">
+      <c r="L13" s="1042" t="s">
         <v>98</v>
       </c>
-      <c r="M13" s="996"/>
+      <c r="M13" s="1043"/>
       <c r="N13" s="185" t="s">
         <v>99</v>
       </c>
@@ -46757,20 +46768,20 @@
     </row>
     <row r="39" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="313"/>
-      <c r="C39" s="1012" t="s">
+      <c r="C39" s="1059" t="s">
         <v>450</v>
       </c>
-      <c r="D39" s="1013"/>
-      <c r="E39" s="997" t="s">
+      <c r="D39" s="1060"/>
+      <c r="E39" s="1044" t="s">
         <v>125</v>
       </c>
-      <c r="F39" s="998"/>
-      <c r="G39" s="1003" t="s">
+      <c r="F39" s="1045"/>
+      <c r="G39" s="1050" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="1004"/>
-      <c r="I39" s="1004"/>
-      <c r="J39" s="1005"/>
+      <c r="H39" s="1051"/>
+      <c r="I39" s="1051"/>
+      <c r="J39" s="1052"/>
       <c r="K39" s="314"/>
       <c r="L39" s="314"/>
       <c r="M39" s="314"/>
@@ -46797,14 +46808,14 @@
     </row>
     <row r="40" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="313"/>
-      <c r="C40" s="1012"/>
-      <c r="D40" s="1013"/>
-      <c r="E40" s="999"/>
-      <c r="F40" s="1000"/>
-      <c r="G40" s="1006"/>
-      <c r="H40" s="1007"/>
-      <c r="I40" s="1007"/>
-      <c r="J40" s="1008"/>
+      <c r="C40" s="1059"/>
+      <c r="D40" s="1060"/>
+      <c r="E40" s="1046"/>
+      <c r="F40" s="1047"/>
+      <c r="G40" s="1053"/>
+      <c r="H40" s="1054"/>
+      <c r="I40" s="1054"/>
+      <c r="J40" s="1055"/>
       <c r="K40" s="314"/>
       <c r="L40" s="314"/>
       <c r="M40" s="314"/>
@@ -46831,14 +46842,14 @@
     </row>
     <row r="41" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="313"/>
-      <c r="C41" s="1012"/>
-      <c r="D41" s="1013"/>
-      <c r="E41" s="999"/>
-      <c r="F41" s="1000"/>
-      <c r="G41" s="1006"/>
-      <c r="H41" s="1007"/>
-      <c r="I41" s="1007"/>
-      <c r="J41" s="1008"/>
+      <c r="C41" s="1059"/>
+      <c r="D41" s="1060"/>
+      <c r="E41" s="1046"/>
+      <c r="F41" s="1047"/>
+      <c r="G41" s="1053"/>
+      <c r="H41" s="1054"/>
+      <c r="I41" s="1054"/>
+      <c r="J41" s="1055"/>
       <c r="K41" s="314"/>
       <c r="L41" s="314"/>
       <c r="M41" s="314"/>
@@ -46865,14 +46876,14 @@
     </row>
     <row r="42" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="313"/>
-      <c r="C42" s="1012"/>
-      <c r="D42" s="1013"/>
-      <c r="E42" s="1001"/>
-      <c r="F42" s="1002"/>
-      <c r="G42" s="1009"/>
-      <c r="H42" s="1010"/>
-      <c r="I42" s="1010"/>
-      <c r="J42" s="1011"/>
+      <c r="C42" s="1059"/>
+      <c r="D42" s="1060"/>
+      <c r="E42" s="1048"/>
+      <c r="F42" s="1049"/>
+      <c r="G42" s="1056"/>
+      <c r="H42" s="1057"/>
+      <c r="I42" s="1057"/>
+      <c r="J42" s="1058"/>
       <c r="K42" s="314"/>
       <c r="L42" s="314"/>
       <c r="M42" s="314"/>
@@ -46960,14 +46971,14 @@
     </row>
     <row r="45" spans="2:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D45" s="7"/>
-      <c r="E45" s="1014" t="s">
+      <c r="E45" s="1061" t="s">
         <v>451</v>
       </c>
       <c r="F45" s="17"/>
-      <c r="G45" s="987" t="s">
+      <c r="G45" s="1034" t="s">
         <v>264</v>
       </c>
-      <c r="H45" s="988"/>
+      <c r="H45" s="1035"/>
       <c r="I45" s="17"/>
       <c r="J45" s="17"/>
       <c r="K45" s="7"/>
@@ -46997,7 +47008,7 @@
     <row r="46" spans="2:34" x14ac:dyDescent="0.25">
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="1014"/>
+      <c r="E46" s="1061"/>
       <c r="F46" s="17"/>
       <c r="G46" s="306"/>
       <c r="H46" s="17"/>
@@ -47029,7 +47040,7 @@
     </row>
     <row r="47" spans="2:34" x14ac:dyDescent="0.25">
       <c r="D47" s="7"/>
-      <c r="E47" s="1014"/>
+      <c r="E47" s="1061"/>
       <c r="F47" s="6"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
@@ -47037,7 +47048,7 @@
     </row>
     <row r="48" spans="2:34" x14ac:dyDescent="0.25">
       <c r="D48" s="7"/>
-      <c r="E48" s="1014"/>
+      <c r="E48" s="1061"/>
       <c r="F48" s="252"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
@@ -47045,7 +47056,7 @@
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D49" s="7"/>
-      <c r="E49" s="1014"/>
+      <c r="E49" s="1061"/>
       <c r="F49" s="252"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
@@ -47053,7 +47064,7 @@
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D50" s="7"/>
-      <c r="E50" s="1014"/>
+      <c r="E50" s="1061"/>
       <c r="F50" s="252"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
@@ -47061,7 +47072,7 @@
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D51" s="7"/>
-      <c r="E51" s="1014"/>
+      <c r="E51" s="1061"/>
       <c r="F51" s="252"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
@@ -47140,59 +47151,59 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C6" s="1015" t="s">
+      <c r="C6" s="1062" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="1016"/>
-      <c r="E6" s="1016"/>
-      <c r="F6" s="1016"/>
-      <c r="G6" s="1016"/>
-      <c r="H6" s="1016"/>
-      <c r="I6" s="1016"/>
-      <c r="J6" s="1016"/>
-      <c r="K6" s="1016"/>
-      <c r="L6" s="1016"/>
-      <c r="M6" s="1016"/>
-      <c r="N6" s="1016"/>
-      <c r="O6" s="1017"/>
+      <c r="D6" s="1063"/>
+      <c r="E6" s="1063"/>
+      <c r="F6" s="1063"/>
+      <c r="G6" s="1063"/>
+      <c r="H6" s="1063"/>
+      <c r="I6" s="1063"/>
+      <c r="J6" s="1063"/>
+      <c r="K6" s="1063"/>
+      <c r="L6" s="1063"/>
+      <c r="M6" s="1063"/>
+      <c r="N6" s="1063"/>
+      <c r="O6" s="1064"/>
       <c r="P6" s="330"/>
       <c r="Q6" s="330"/>
       <c r="R6" s="330"/>
       <c r="S6" s="330"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C7" s="1018"/>
-      <c r="D7" s="1014"/>
-      <c r="E7" s="1014"/>
-      <c r="F7" s="1014"/>
-      <c r="G7" s="1014"/>
-      <c r="H7" s="1014"/>
-      <c r="I7" s="1014"/>
-      <c r="J7" s="1014"/>
-      <c r="K7" s="1014"/>
-      <c r="L7" s="1014"/>
-      <c r="M7" s="1014"/>
-      <c r="N7" s="1014"/>
-      <c r="O7" s="1019"/>
+      <c r="C7" s="1065"/>
+      <c r="D7" s="1061"/>
+      <c r="E7" s="1061"/>
+      <c r="F7" s="1061"/>
+      <c r="G7" s="1061"/>
+      <c r="H7" s="1061"/>
+      <c r="I7" s="1061"/>
+      <c r="J7" s="1061"/>
+      <c r="K7" s="1061"/>
+      <c r="L7" s="1061"/>
+      <c r="M7" s="1061"/>
+      <c r="N7" s="1061"/>
+      <c r="O7" s="1066"/>
       <c r="P7" s="330"/>
       <c r="Q7" s="330"/>
       <c r="R7" s="330"/>
       <c r="S7" s="330"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="1020"/>
-      <c r="D8" s="1021"/>
-      <c r="E8" s="1021"/>
-      <c r="F8" s="1021"/>
-      <c r="G8" s="1021"/>
-      <c r="H8" s="1021"/>
-      <c r="I8" s="1021"/>
-      <c r="J8" s="1021"/>
-      <c r="K8" s="1021"/>
-      <c r="L8" s="1021"/>
-      <c r="M8" s="1021"/>
-      <c r="N8" s="1021"/>
-      <c r="O8" s="1022"/>
+      <c r="C8" s="1067"/>
+      <c r="D8" s="1068"/>
+      <c r="E8" s="1068"/>
+      <c r="F8" s="1068"/>
+      <c r="G8" s="1068"/>
+      <c r="H8" s="1068"/>
+      <c r="I8" s="1068"/>
+      <c r="J8" s="1068"/>
+      <c r="K8" s="1068"/>
+      <c r="L8" s="1068"/>
+      <c r="M8" s="1068"/>
+      <c r="N8" s="1068"/>
+      <c r="O8" s="1069"/>
       <c r="P8" s="330"/>
       <c r="Q8" s="330"/>
       <c r="R8" s="330"/>
@@ -47243,7 +47254,7 @@
       <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="989" t="s">
+      <c r="B13" s="1036" t="s">
         <v>166</v>
       </c>
       <c r="C13" s="152" t="s">
@@ -47267,7 +47278,7 @@
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="990"/>
+      <c r="B14" s="1037"/>
       <c r="C14" s="17" t="s">
         <v>137</v>
       </c>
@@ -47289,7 +47300,7 @@
       <c r="T14" s="7"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="991"/>
+      <c r="B15" s="1038"/>
       <c r="C15" s="271" t="s">
         <v>138</v>
       </c>
@@ -47324,7 +47335,7 @@
       <c r="T16" s="7"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="989" t="s">
+      <c r="B17" s="1036" t="s">
         <v>155</v>
       </c>
       <c r="C17" s="152" t="s">
@@ -47350,7 +47361,7 @@
       <c r="T17" s="7"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="990"/>
+      <c r="B18" s="1037"/>
       <c r="C18" s="17" t="s">
         <v>142</v>
       </c>
@@ -47375,7 +47386,7 @@
       <c r="T18" s="7"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="990"/>
+      <c r="B19" s="1037"/>
       <c r="C19" s="17" t="s">
         <v>5</v>
       </c>
@@ -47399,7 +47410,7 @@
       <c r="T19" s="7"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="991"/>
+      <c r="B20" s="1038"/>
       <c r="C20" s="259" t="s">
         <v>144</v>
       </c>
@@ -47845,19 +47856,19 @@
       <c r="U38" s="269"/>
     </row>
     <row r="39" spans="2:22" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="1023" t="s">
+      <c r="C39" s="1070" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="1023"/>
-      <c r="E39" s="1023"/>
-      <c r="F39" s="1023"/>
-      <c r="G39" s="1023"/>
-      <c r="H39" s="1023"/>
-      <c r="I39" s="1023"/>
-      <c r="J39" s="1023"/>
-      <c r="K39" s="1023"/>
-      <c r="L39" s="1023"/>
-      <c r="M39" s="1023"/>
+      <c r="D39" s="1070"/>
+      <c r="E39" s="1070"/>
+      <c r="F39" s="1070"/>
+      <c r="G39" s="1070"/>
+      <c r="H39" s="1070"/>
+      <c r="I39" s="1070"/>
+      <c r="J39" s="1070"/>
+      <c r="K39" s="1070"/>
+      <c r="L39" s="1070"/>
+      <c r="M39" s="1070"/>
       <c r="N39" s="269"/>
       <c r="O39" s="269"/>
       <c r="P39" s="269"/>
@@ -47868,17 +47879,17 @@
       <c r="U39" s="269"/>
     </row>
     <row r="40" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="1023"/>
-      <c r="D40" s="1023"/>
-      <c r="E40" s="1023"/>
-      <c r="F40" s="1023"/>
-      <c r="G40" s="1023"/>
-      <c r="H40" s="1023"/>
-      <c r="I40" s="1023"/>
-      <c r="J40" s="1023"/>
-      <c r="K40" s="1023"/>
-      <c r="L40" s="1023"/>
-      <c r="M40" s="1023"/>
+      <c r="C40" s="1070"/>
+      <c r="D40" s="1070"/>
+      <c r="E40" s="1070"/>
+      <c r="F40" s="1070"/>
+      <c r="G40" s="1070"/>
+      <c r="H40" s="1070"/>
+      <c r="I40" s="1070"/>
+      <c r="J40" s="1070"/>
+      <c r="K40" s="1070"/>
+      <c r="L40" s="1070"/>
+      <c r="M40" s="1070"/>
       <c r="N40" s="269"/>
       <c r="O40" s="269"/>
       <c r="P40" s="269"/>
@@ -47889,17 +47900,17 @@
       <c r="U40" s="269"/>
     </row>
     <row r="41" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="1023"/>
-      <c r="D41" s="1023"/>
-      <c r="E41" s="1023"/>
-      <c r="F41" s="1023"/>
-      <c r="G41" s="1023"/>
-      <c r="H41" s="1023"/>
-      <c r="I41" s="1023"/>
-      <c r="J41" s="1023"/>
-      <c r="K41" s="1023"/>
-      <c r="L41" s="1023"/>
-      <c r="M41" s="1023"/>
+      <c r="C41" s="1070"/>
+      <c r="D41" s="1070"/>
+      <c r="E41" s="1070"/>
+      <c r="F41" s="1070"/>
+      <c r="G41" s="1070"/>
+      <c r="H41" s="1070"/>
+      <c r="I41" s="1070"/>
+      <c r="J41" s="1070"/>
+      <c r="K41" s="1070"/>
+      <c r="L41" s="1070"/>
+      <c r="M41" s="1070"/>
       <c r="N41" s="269"/>
       <c r="O41" s="269"/>
       <c r="P41" s="269"/>
@@ -47910,17 +47921,17 @@
       <c r="U41" s="269"/>
     </row>
     <row r="42" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="1023"/>
-      <c r="D42" s="1023"/>
-      <c r="E42" s="1023"/>
-      <c r="F42" s="1023"/>
-      <c r="G42" s="1023"/>
-      <c r="H42" s="1023"/>
-      <c r="I42" s="1023"/>
-      <c r="J42" s="1023"/>
-      <c r="K42" s="1023"/>
-      <c r="L42" s="1023"/>
-      <c r="M42" s="1023"/>
+      <c r="C42" s="1070"/>
+      <c r="D42" s="1070"/>
+      <c r="E42" s="1070"/>
+      <c r="F42" s="1070"/>
+      <c r="G42" s="1070"/>
+      <c r="H42" s="1070"/>
+      <c r="I42" s="1070"/>
+      <c r="J42" s="1070"/>
+      <c r="K42" s="1070"/>
+      <c r="L42" s="1070"/>
+      <c r="M42" s="1070"/>
       <c r="N42" s="269"/>
       <c r="O42" s="269"/>
       <c r="P42" s="269"/>
@@ -47931,17 +47942,17 @@
       <c r="U42" s="269"/>
     </row>
     <row r="43" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="1023"/>
-      <c r="D43" s="1023"/>
-      <c r="E43" s="1023"/>
-      <c r="F43" s="1023"/>
-      <c r="G43" s="1023"/>
-      <c r="H43" s="1023"/>
-      <c r="I43" s="1023"/>
-      <c r="J43" s="1023"/>
-      <c r="K43" s="1023"/>
-      <c r="L43" s="1023"/>
-      <c r="M43" s="1023"/>
+      <c r="C43" s="1070"/>
+      <c r="D43" s="1070"/>
+      <c r="E43" s="1070"/>
+      <c r="F43" s="1070"/>
+      <c r="G43" s="1070"/>
+      <c r="H43" s="1070"/>
+      <c r="I43" s="1070"/>
+      <c r="J43" s="1070"/>
+      <c r="K43" s="1070"/>
+      <c r="L43" s="1070"/>
+      <c r="M43" s="1070"/>
       <c r="N43" s="269"/>
       <c r="O43" s="269"/>
       <c r="P43" s="269"/>
@@ -47952,17 +47963,17 @@
       <c r="U43" s="269"/>
     </row>
     <row r="44" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="1023"/>
-      <c r="D44" s="1023"/>
-      <c r="E44" s="1023"/>
-      <c r="F44" s="1023"/>
-      <c r="G44" s="1023"/>
-      <c r="H44" s="1023"/>
-      <c r="I44" s="1023"/>
-      <c r="J44" s="1023"/>
-      <c r="K44" s="1023"/>
-      <c r="L44" s="1023"/>
-      <c r="M44" s="1023"/>
+      <c r="C44" s="1070"/>
+      <c r="D44" s="1070"/>
+      <c r="E44" s="1070"/>
+      <c r="F44" s="1070"/>
+      <c r="G44" s="1070"/>
+      <c r="H44" s="1070"/>
+      <c r="I44" s="1070"/>
+      <c r="J44" s="1070"/>
+      <c r="K44" s="1070"/>
+      <c r="L44" s="1070"/>
+      <c r="M44" s="1070"/>
       <c r="N44" s="269"/>
       <c r="O44" s="269"/>
       <c r="P44" s="269"/>
@@ -47973,17 +47984,17 @@
       <c r="U44" s="269"/>
     </row>
     <row r="45" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="1023"/>
-      <c r="D45" s="1023"/>
-      <c r="E45" s="1023"/>
-      <c r="F45" s="1023"/>
-      <c r="G45" s="1023"/>
-      <c r="H45" s="1023"/>
-      <c r="I45" s="1023"/>
-      <c r="J45" s="1023"/>
-      <c r="K45" s="1023"/>
-      <c r="L45" s="1023"/>
-      <c r="M45" s="1023"/>
+      <c r="C45" s="1070"/>
+      <c r="D45" s="1070"/>
+      <c r="E45" s="1070"/>
+      <c r="F45" s="1070"/>
+      <c r="G45" s="1070"/>
+      <c r="H45" s="1070"/>
+      <c r="I45" s="1070"/>
+      <c r="J45" s="1070"/>
+      <c r="K45" s="1070"/>
+      <c r="L45" s="1070"/>
+      <c r="M45" s="1070"/>
       <c r="N45" s="269"/>
       <c r="O45" s="269"/>
       <c r="P45" s="269"/>
@@ -47994,17 +48005,17 @@
       <c r="U45" s="269"/>
     </row>
     <row r="46" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="1023"/>
-      <c r="D46" s="1023"/>
-      <c r="E46" s="1023"/>
-      <c r="F46" s="1023"/>
-      <c r="G46" s="1023"/>
-      <c r="H46" s="1023"/>
-      <c r="I46" s="1023"/>
-      <c r="J46" s="1023"/>
-      <c r="K46" s="1023"/>
-      <c r="L46" s="1023"/>
-      <c r="M46" s="1023"/>
+      <c r="C46" s="1070"/>
+      <c r="D46" s="1070"/>
+      <c r="E46" s="1070"/>
+      <c r="F46" s="1070"/>
+      <c r="G46" s="1070"/>
+      <c r="H46" s="1070"/>
+      <c r="I46" s="1070"/>
+      <c r="J46" s="1070"/>
+      <c r="K46" s="1070"/>
+      <c r="L46" s="1070"/>
+      <c r="M46" s="1070"/>
       <c r="N46" s="269"/>
       <c r="O46" s="269"/>
       <c r="P46" s="269"/>
@@ -48083,7 +48094,7 @@
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B53" s="989" t="s">
+      <c r="B53" s="1036" t="s">
         <v>166</v>
       </c>
       <c r="C53" s="152" t="s">
@@ -48098,7 +48109,7 @@
       <c r="H53" s="273"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B54" s="990"/>
+      <c r="B54" s="1037"/>
       <c r="C54" s="17" t="s">
         <v>137</v>
       </c>
@@ -48118,7 +48129,7 @@
       <c r="S54" s="7"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B55" s="991"/>
+      <c r="B55" s="1038"/>
       <c r="C55" s="271" t="s">
         <v>138</v>
       </c>
@@ -48149,7 +48160,7 @@
       <c r="S56" s="7"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B57" s="989" t="s">
+      <c r="B57" s="1036" t="s">
         <v>170</v>
       </c>
       <c r="C57" s="152" t="s">
@@ -48165,7 +48176,7 @@
       <c r="M57" s="18"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B58" s="990"/>
+      <c r="B58" s="1037"/>
       <c r="C58" s="17" t="s">
         <v>137</v>
       </c>
@@ -48179,7 +48190,7 @@
       <c r="M58" s="18"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B59" s="991"/>
+      <c r="B59" s="1038"/>
       <c r="C59" s="271" t="s">
         <v>138</v>
       </c>
@@ -48203,7 +48214,7 @@
       <c r="M60" s="18"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B61" s="992" t="s">
+      <c r="B61" s="1039" t="s">
         <v>155</v>
       </c>
       <c r="C61" s="10" t="s">
@@ -48221,7 +48232,7 @@
       <c r="M61" s="18"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B62" s="993"/>
+      <c r="B62" s="1040"/>
       <c r="C62" s="17" t="s">
         <v>142</v>
       </c>
@@ -48238,7 +48249,7 @@
       <c r="M62" s="18"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B63" s="993"/>
+      <c r="B63" s="1040"/>
       <c r="C63" s="17" t="s">
         <v>5</v>
       </c>
@@ -48254,7 +48265,7 @@
       <c r="M63" s="18"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="994"/>
+      <c r="B64" s="1041"/>
       <c r="C64" s="168" t="s">
         <v>144</v>
       </c>
@@ -49044,18 +49055,18 @@
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
-      <c r="D82" s="1023" t="s">
+      <c r="D82" s="1070" t="s">
         <v>123</v>
       </c>
-      <c r="E82" s="1023"/>
-      <c r="F82" s="1023"/>
-      <c r="G82" s="1023"/>
-      <c r="H82" s="1023"/>
-      <c r="I82" s="1023"/>
-      <c r="J82" s="1023"/>
-      <c r="K82" s="1023"/>
-      <c r="L82" s="1023"/>
-      <c r="M82" s="1023"/>
+      <c r="E82" s="1070"/>
+      <c r="F82" s="1070"/>
+      <c r="G82" s="1070"/>
+      <c r="H82" s="1070"/>
+      <c r="I82" s="1070"/>
+      <c r="J82" s="1070"/>
+      <c r="K82" s="1070"/>
+      <c r="L82" s="1070"/>
+      <c r="M82" s="1070"/>
       <c r="N82" s="269"/>
       <c r="O82" s="269"/>
       <c r="P82" s="269"/>
@@ -49073,16 +49084,16 @@
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
-      <c r="D83" s="1023"/>
-      <c r="E83" s="1023"/>
-      <c r="F83" s="1023"/>
-      <c r="G83" s="1023"/>
-      <c r="H83" s="1023"/>
-      <c r="I83" s="1023"/>
-      <c r="J83" s="1023"/>
-      <c r="K83" s="1023"/>
-      <c r="L83" s="1023"/>
-      <c r="M83" s="1023"/>
+      <c r="D83" s="1070"/>
+      <c r="E83" s="1070"/>
+      <c r="F83" s="1070"/>
+      <c r="G83" s="1070"/>
+      <c r="H83" s="1070"/>
+      <c r="I83" s="1070"/>
+      <c r="J83" s="1070"/>
+      <c r="K83" s="1070"/>
+      <c r="L83" s="1070"/>
+      <c r="M83" s="1070"/>
       <c r="N83" s="269"/>
       <c r="O83" s="269"/>
       <c r="P83" s="269"/>
@@ -49098,16 +49109,16 @@
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="1023"/>
-      <c r="E84" s="1023"/>
-      <c r="F84" s="1023"/>
-      <c r="G84" s="1023"/>
-      <c r="H84" s="1023"/>
-      <c r="I84" s="1023"/>
-      <c r="J84" s="1023"/>
-      <c r="K84" s="1023"/>
-      <c r="L84" s="1023"/>
-      <c r="M84" s="1023"/>
+      <c r="D84" s="1070"/>
+      <c r="E84" s="1070"/>
+      <c r="F84" s="1070"/>
+      <c r="G84" s="1070"/>
+      <c r="H84" s="1070"/>
+      <c r="I84" s="1070"/>
+      <c r="J84" s="1070"/>
+      <c r="K84" s="1070"/>
+      <c r="L84" s="1070"/>
+      <c r="M84" s="1070"/>
       <c r="N84" s="269"/>
       <c r="O84" s="269"/>
       <c r="P84" s="269"/>
@@ -49123,16 +49134,16 @@
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
-      <c r="D85" s="1023"/>
-      <c r="E85" s="1023"/>
-      <c r="F85" s="1023"/>
-      <c r="G85" s="1023"/>
-      <c r="H85" s="1023"/>
-      <c r="I85" s="1023"/>
-      <c r="J85" s="1023"/>
-      <c r="K85" s="1023"/>
-      <c r="L85" s="1023"/>
-      <c r="M85" s="1023"/>
+      <c r="D85" s="1070"/>
+      <c r="E85" s="1070"/>
+      <c r="F85" s="1070"/>
+      <c r="G85" s="1070"/>
+      <c r="H85" s="1070"/>
+      <c r="I85" s="1070"/>
+      <c r="J85" s="1070"/>
+      <c r="K85" s="1070"/>
+      <c r="L85" s="1070"/>
+      <c r="M85" s="1070"/>
       <c r="N85" s="269"/>
       <c r="O85" s="269"/>
       <c r="P85" s="269"/>
@@ -49148,16 +49159,16 @@
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
-      <c r="D86" s="1023"/>
-      <c r="E86" s="1023"/>
-      <c r="F86" s="1023"/>
-      <c r="G86" s="1023"/>
-      <c r="H86" s="1023"/>
-      <c r="I86" s="1023"/>
-      <c r="J86" s="1023"/>
-      <c r="K86" s="1023"/>
-      <c r="L86" s="1023"/>
-      <c r="M86" s="1023"/>
+      <c r="D86" s="1070"/>
+      <c r="E86" s="1070"/>
+      <c r="F86" s="1070"/>
+      <c r="G86" s="1070"/>
+      <c r="H86" s="1070"/>
+      <c r="I86" s="1070"/>
+      <c r="J86" s="1070"/>
+      <c r="K86" s="1070"/>
+      <c r="L86" s="1070"/>
+      <c r="M86" s="1070"/>
       <c r="N86" s="269"/>
       <c r="O86" s="269"/>
       <c r="P86" s="269"/>
@@ -49173,16 +49184,16 @@
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
-      <c r="D87" s="1023"/>
-      <c r="E87" s="1023"/>
-      <c r="F87" s="1023"/>
-      <c r="G87" s="1023"/>
-      <c r="H87" s="1023"/>
-      <c r="I87" s="1023"/>
-      <c r="J87" s="1023"/>
-      <c r="K87" s="1023"/>
-      <c r="L87" s="1023"/>
-      <c r="M87" s="1023"/>
+      <c r="D87" s="1070"/>
+      <c r="E87" s="1070"/>
+      <c r="F87" s="1070"/>
+      <c r="G87" s="1070"/>
+      <c r="H87" s="1070"/>
+      <c r="I87" s="1070"/>
+      <c r="J87" s="1070"/>
+      <c r="K87" s="1070"/>
+      <c r="L87" s="1070"/>
+      <c r="M87" s="1070"/>
       <c r="N87" s="269"/>
       <c r="O87" s="269"/>
       <c r="P87" s="269"/>
@@ -49198,16 +49209,16 @@
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
-      <c r="D88" s="1023"/>
-      <c r="E88" s="1023"/>
-      <c r="F88" s="1023"/>
-      <c r="G88" s="1023"/>
-      <c r="H88" s="1023"/>
-      <c r="I88" s="1023"/>
-      <c r="J88" s="1023"/>
-      <c r="K88" s="1023"/>
-      <c r="L88" s="1023"/>
-      <c r="M88" s="1023"/>
+      <c r="D88" s="1070"/>
+      <c r="E88" s="1070"/>
+      <c r="F88" s="1070"/>
+      <c r="G88" s="1070"/>
+      <c r="H88" s="1070"/>
+      <c r="I88" s="1070"/>
+      <c r="J88" s="1070"/>
+      <c r="K88" s="1070"/>
+      <c r="L88" s="1070"/>
+      <c r="M88" s="1070"/>
       <c r="N88" s="269"/>
       <c r="O88" s="269"/>
       <c r="P88" s="269"/>
@@ -49303,11 +49314,11 @@
       <c r="L93" t="s">
         <v>54</v>
       </c>
-      <c r="V93" s="1024" t="s">
+      <c r="V93" s="1071" t="s">
         <v>196</v>
       </c>
-      <c r="W93" s="1025"/>
-      <c r="X93" s="1026"/>
+      <c r="W93" s="1072"/>
+      <c r="X93" s="1073"/>
     </row>
     <row r="94" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
@@ -49337,9 +49348,9 @@
         <f>I95/SUM(H95:I95)</f>
         <v>0.47813894602839851</v>
       </c>
-      <c r="V94" s="1027"/>
-      <c r="W94" s="1023"/>
-      <c r="X94" s="1028"/>
+      <c r="V94" s="1074"/>
+      <c r="W94" s="1070"/>
+      <c r="X94" s="1075"/>
     </row>
     <row r="95" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
@@ -49383,9 +49394,9 @@
       <c r="S95" s="360" t="s">
         <v>191</v>
       </c>
-      <c r="V95" s="1027"/>
-      <c r="W95" s="1023"/>
-      <c r="X95" s="1028"/>
+      <c r="V95" s="1074"/>
+      <c r="W95" s="1070"/>
+      <c r="X95" s="1075"/>
     </row>
     <row r="96" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7"/>
@@ -49418,9 +49429,9 @@
         <v>0</v>
       </c>
       <c r="S96" s="367"/>
-      <c r="V96" s="1027"/>
-      <c r="W96" s="1023"/>
-      <c r="X96" s="1028"/>
+      <c r="V96" s="1074"/>
+      <c r="W96" s="1070"/>
+      <c r="X96" s="1075"/>
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
@@ -49459,9 +49470,9 @@
       <c r="T97" s="363" t="s">
         <v>195</v>
       </c>
-      <c r="V97" s="1027"/>
-      <c r="W97" s="1023"/>
-      <c r="X97" s="1028"/>
+      <c r="V97" s="1074"/>
+      <c r="W97" s="1070"/>
+      <c r="X97" s="1075"/>
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
@@ -49497,9 +49508,9 @@
         <f>R98-R97</f>
         <v>3.7499600000250002</v>
       </c>
-      <c r="V98" s="1027"/>
-      <c r="W98" s="1023"/>
-      <c r="X98" s="1028"/>
+      <c r="V98" s="1074"/>
+      <c r="W98" s="1070"/>
+      <c r="X98" s="1075"/>
     </row>
     <row r="99" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
@@ -49547,9 +49558,9 @@
         <f t="shared" ref="S99" si="10">R99-R98</f>
         <v>0.40877408410061378</v>
       </c>
-      <c r="V99" s="1027"/>
-      <c r="W99" s="1023"/>
-      <c r="X99" s="1028"/>
+      <c r="V99" s="1074"/>
+      <c r="W99" s="1070"/>
+      <c r="X99" s="1075"/>
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
@@ -49607,9 +49618,9 @@
       <c r="T100" s="362" t="s">
         <v>194</v>
       </c>
-      <c r="V100" s="1027"/>
-      <c r="W100" s="1023"/>
-      <c r="X100" s="1028"/>
+      <c r="V100" s="1074"/>
+      <c r="W100" s="1070"/>
+      <c r="X100" s="1075"/>
     </row>
     <row r="101" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
@@ -49663,9 +49674,9 @@
       <c r="T101" s="362" t="s">
         <v>194</v>
       </c>
-      <c r="V101" s="1027"/>
-      <c r="W101" s="1023"/>
-      <c r="X101" s="1028"/>
+      <c r="V101" s="1074"/>
+      <c r="W101" s="1070"/>
+      <c r="X101" s="1075"/>
     </row>
     <row r="102" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
@@ -49707,9 +49718,9 @@
         <f t="shared" ref="S102" si="13">R102-R101</f>
         <v>-1.304191000000003</v>
       </c>
-      <c r="V102" s="1027"/>
-      <c r="W102" s="1023"/>
-      <c r="X102" s="1028"/>
+      <c r="V102" s="1074"/>
+      <c r="W102" s="1070"/>
+      <c r="X102" s="1075"/>
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
@@ -49739,20 +49750,20 @@
         <f t="shared" ref="S103" si="14">R103-R102</f>
         <v>-7.5524999999999984</v>
       </c>
-      <c r="V103" s="1027"/>
-      <c r="W103" s="1023"/>
-      <c r="X103" s="1028"/>
+      <c r="V103" s="1074"/>
+      <c r="W103" s="1070"/>
+      <c r="X103" s="1075"/>
     </row>
     <row r="104" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F104" s="1032" t="s">
+      <c r="F104" s="1079" t="s">
         <v>55</v>
       </c>
-      <c r="G104" s="1032"/>
-      <c r="H104" s="1032"/>
-      <c r="I104" s="1032"/>
-      <c r="J104" s="1032"/>
-      <c r="K104" s="1032"/>
-      <c r="L104" s="1032"/>
+      <c r="G104" s="1079"/>
+      <c r="H104" s="1079"/>
+      <c r="I104" s="1079"/>
+      <c r="J104" s="1079"/>
+      <c r="K104" s="1079"/>
+      <c r="L104" s="1079"/>
       <c r="N104" s="433">
         <f>$D$63*LN(EXP($D76/$D$63)+EXP($E76/$D$63)+EXP($F76/$D$63)+EXP($G76/$D$63))</f>
         <v>14.962522986437438</v>
@@ -49777,36 +49788,36 @@
         <f t="shared" ref="S104" si="15">R104-R103</f>
         <v>0</v>
       </c>
-      <c r="V104" s="1027"/>
-      <c r="W104" s="1023"/>
-      <c r="X104" s="1028"/>
+      <c r="V104" s="1074"/>
+      <c r="W104" s="1070"/>
+      <c r="X104" s="1075"/>
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F105" s="1032"/>
-      <c r="G105" s="1032"/>
-      <c r="H105" s="1032"/>
-      <c r="I105" s="1032"/>
-      <c r="J105" s="1032"/>
-      <c r="K105" s="1032"/>
-      <c r="L105" s="1032"/>
+      <c r="F105" s="1079"/>
+      <c r="G105" s="1079"/>
+      <c r="H105" s="1079"/>
+      <c r="I105" s="1079"/>
+      <c r="J105" s="1079"/>
+      <c r="K105" s="1079"/>
+      <c r="L105" s="1079"/>
       <c r="N105" s="142"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
       <c r="R105" s="8"/>
       <c r="S105" s="8"/>
-      <c r="V105" s="1027"/>
-      <c r="W105" s="1023"/>
-      <c r="X105" s="1028"/>
+      <c r="V105" s="1074"/>
+      <c r="W105" s="1070"/>
+      <c r="X105" s="1075"/>
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N106" s="142"/>
       <c r="P106" s="8"/>
       <c r="R106" s="8"/>
       <c r="S106" s="8"/>
-      <c r="V106" s="1027"/>
-      <c r="W106" s="1023"/>
-      <c r="X106" s="1028"/>
+      <c r="V106" s="1074"/>
+      <c r="W106" s="1070"/>
+      <c r="X106" s="1075"/>
     </row>
     <row r="107" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F107" s="26">
@@ -49828,9 +49839,9 @@
       <c r="Q107" s="143"/>
       <c r="R107" s="143"/>
       <c r="S107" s="143"/>
-      <c r="V107" s="1027"/>
-      <c r="W107" s="1023"/>
-      <c r="X107" s="1028"/>
+      <c r="V107" s="1074"/>
+      <c r="W107" s="1070"/>
+      <c r="X107" s="1075"/>
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="F108" s="21" t="s">
@@ -49861,9 +49872,9 @@
       <c r="Q108" s="8"/>
       <c r="R108" s="142"/>
       <c r="S108" s="8"/>
-      <c r="V108" s="1027"/>
-      <c r="W108" s="1023"/>
-      <c r="X108" s="1028"/>
+      <c r="V108" s="1074"/>
+      <c r="W108" s="1070"/>
+      <c r="X108" s="1075"/>
     </row>
     <row r="109" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F109" s="21" t="s">
@@ -49890,9 +49901,9 @@
       <c r="Q109" s="8"/>
       <c r="R109" s="142"/>
       <c r="S109" s="8"/>
-      <c r="V109" s="1027"/>
-      <c r="W109" s="1023"/>
-      <c r="X109" s="1028"/>
+      <c r="V109" s="1074"/>
+      <c r="W109" s="1070"/>
+      <c r="X109" s="1075"/>
     </row>
     <row r="110" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H110" s="118">
@@ -49907,50 +49918,50 @@
         <f>SUM(H108:I109)</f>
         <v>1</v>
       </c>
-      <c r="V110" s="1027"/>
-      <c r="W110" s="1023"/>
-      <c r="X110" s="1028"/>
+      <c r="V110" s="1074"/>
+      <c r="W110" s="1070"/>
+      <c r="X110" s="1075"/>
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="V111" s="1027"/>
-      <c r="W111" s="1023"/>
-      <c r="X111" s="1028"/>
+      <c r="V111" s="1074"/>
+      <c r="W111" s="1070"/>
+      <c r="X111" s="1075"/>
     </row>
     <row r="112" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F112" s="1032" t="s">
+      <c r="F112" s="1079" t="s">
         <v>56</v>
       </c>
-      <c r="G112" s="1032"/>
-      <c r="H112" s="1032"/>
-      <c r="I112" s="1032"/>
-      <c r="J112" s="1032"/>
-      <c r="K112" s="1032"/>
-      <c r="L112" s="1032"/>
-      <c r="V112" s="1027"/>
-      <c r="W112" s="1023"/>
-      <c r="X112" s="1028"/>
+      <c r="G112" s="1079"/>
+      <c r="H112" s="1079"/>
+      <c r="I112" s="1079"/>
+      <c r="J112" s="1079"/>
+      <c r="K112" s="1079"/>
+      <c r="L112" s="1079"/>
+      <c r="V112" s="1074"/>
+      <c r="W112" s="1070"/>
+      <c r="X112" s="1075"/>
     </row>
     <row r="113" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F113" s="1032"/>
-      <c r="G113" s="1032"/>
-      <c r="H113" s="1032"/>
-      <c r="I113" s="1032"/>
-      <c r="J113" s="1032"/>
-      <c r="K113" s="1032"/>
-      <c r="L113" s="1032"/>
-      <c r="V113" s="1027"/>
-      <c r="W113" s="1023"/>
-      <c r="X113" s="1028"/>
+      <c r="F113" s="1079"/>
+      <c r="G113" s="1079"/>
+      <c r="H113" s="1079"/>
+      <c r="I113" s="1079"/>
+      <c r="J113" s="1079"/>
+      <c r="K113" s="1079"/>
+      <c r="L113" s="1079"/>
+      <c r="V113" s="1074"/>
+      <c r="W113" s="1070"/>
+      <c r="X113" s="1075"/>
     </row>
     <row r="114" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V114" s="1027"/>
-      <c r="W114" s="1023"/>
-      <c r="X114" s="1028"/>
+      <c r="V114" s="1074"/>
+      <c r="W114" s="1070"/>
+      <c r="X114" s="1075"/>
     </row>
     <row r="115" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V115" s="1027"/>
-      <c r="W115" s="1023"/>
-      <c r="X115" s="1028"/>
+      <c r="V115" s="1074"/>
+      <c r="W115" s="1070"/>
+      <c r="X115" s="1075"/>
     </row>
     <row r="116" spans="6:24" x14ac:dyDescent="0.25">
       <c r="J116" s="33"/>
@@ -49958,9 +49969,9 @@
       <c r="L116" s="33"/>
       <c r="M116" s="33"/>
       <c r="N116" s="33"/>
-      <c r="V116" s="1027"/>
-      <c r="W116" s="1023"/>
-      <c r="X116" s="1028"/>
+      <c r="V116" s="1074"/>
+      <c r="W116" s="1070"/>
+      <c r="X116" s="1075"/>
     </row>
     <row r="117" spans="6:24" x14ac:dyDescent="0.25">
       <c r="J117" s="33"/>
@@ -49968,9 +49979,9 @@
       <c r="L117" s="33"/>
       <c r="M117" s="33"/>
       <c r="N117" s="33"/>
-      <c r="V117" s="1027"/>
-      <c r="W117" s="1023"/>
-      <c r="X117" s="1028"/>
+      <c r="V117" s="1074"/>
+      <c r="W117" s="1070"/>
+      <c r="X117" s="1075"/>
     </row>
     <row r="118" spans="6:24" x14ac:dyDescent="0.25">
       <c r="J118" s="33"/>
@@ -49978,58 +49989,58 @@
       <c r="L118" s="33"/>
       <c r="M118" s="33"/>
       <c r="N118" s="33"/>
-      <c r="V118" s="1027"/>
-      <c r="W118" s="1023"/>
-      <c r="X118" s="1028"/>
+      <c r="V118" s="1074"/>
+      <c r="W118" s="1070"/>
+      <c r="X118" s="1075"/>
     </row>
     <row r="119" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V119" s="1027"/>
-      <c r="W119" s="1023"/>
-      <c r="X119" s="1028"/>
+      <c r="V119" s="1074"/>
+      <c r="W119" s="1070"/>
+      <c r="X119" s="1075"/>
     </row>
     <row r="120" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V120" s="1027"/>
-      <c r="W120" s="1023"/>
-      <c r="X120" s="1028"/>
+      <c r="V120" s="1074"/>
+      <c r="W120" s="1070"/>
+      <c r="X120" s="1075"/>
     </row>
     <row r="121" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V121" s="1027"/>
-      <c r="W121" s="1023"/>
-      <c r="X121" s="1028"/>
+      <c r="V121" s="1074"/>
+      <c r="W121" s="1070"/>
+      <c r="X121" s="1075"/>
     </row>
     <row r="122" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V122" s="1027"/>
-      <c r="W122" s="1023"/>
-      <c r="X122" s="1028"/>
+      <c r="V122" s="1074"/>
+      <c r="W122" s="1070"/>
+      <c r="X122" s="1075"/>
     </row>
     <row r="123" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V123" s="1027"/>
-      <c r="W123" s="1023"/>
-      <c r="X123" s="1028"/>
+      <c r="V123" s="1074"/>
+      <c r="W123" s="1070"/>
+      <c r="X123" s="1075"/>
     </row>
     <row r="124" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V124" s="1027"/>
-      <c r="W124" s="1023"/>
-      <c r="X124" s="1028"/>
+      <c r="V124" s="1074"/>
+      <c r="W124" s="1070"/>
+      <c r="X124" s="1075"/>
     </row>
     <row r="125" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="V125" s="1029"/>
-      <c r="W125" s="1030"/>
-      <c r="X125" s="1031"/>
+      <c r="V125" s="1076"/>
+      <c r="W125" s="1077"/>
+      <c r="X125" s="1078"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B57:B59"/>
     <mergeCell ref="C6:O8"/>
     <mergeCell ref="C39:M46"/>
     <mergeCell ref="D82:M88"/>
     <mergeCell ref="V93:X125"/>
     <mergeCell ref="F104:L105"/>
     <mergeCell ref="F112:L113"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B57:B59"/>
   </mergeCells>
   <conditionalFormatting sqref="AP69:AS75">
     <cfRule type="dataBar" priority="1">
@@ -50109,7 +50120,7 @@
       <c r="B4" s="188"/>
     </row>
     <row r="5" spans="2:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="989" t="s">
+      <c r="B5" s="1036" t="s">
         <v>166</v>
       </c>
       <c r="C5" s="152" t="s">
@@ -50137,7 +50148,7 @@
       <c r="U5" s="250"/>
     </row>
     <row r="6" spans="2:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="990"/>
+      <c r="B6" s="1037"/>
       <c r="C6" s="17" t="s">
         <v>152</v>
       </c>
@@ -50167,7 +50178,7 @@
       <c r="U6" s="6"/>
     </row>
     <row r="7" spans="2:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="990"/>
+      <c r="B7" s="1037"/>
       <c r="C7" s="17" t="s">
         <v>155</v>
       </c>
@@ -50197,7 +50208,7 @@
       <c r="U7" s="6"/>
     </row>
     <row r="8" spans="2:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="990"/>
+      <c r="B8" s="1037"/>
       <c r="C8" s="142" t="s">
         <v>156</v>
       </c>
@@ -50226,7 +50237,7 @@
       <c r="U8" s="6"/>
     </row>
     <row r="9" spans="2:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="990"/>
+      <c r="B9" s="1037"/>
       <c r="C9" s="142" t="s">
         <v>160</v>
       </c>
@@ -50254,7 +50265,7 @@
       <c r="U9" s="6"/>
     </row>
     <row r="10" spans="2:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="990"/>
+      <c r="B10" s="1037"/>
       <c r="C10" s="142" t="s">
         <v>161</v>
       </c>
@@ -50282,7 +50293,7 @@
       <c r="U10" s="6"/>
     </row>
     <row r="11" spans="2:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="991"/>
+      <c r="B11" s="1038"/>
       <c r="C11" s="279" t="s">
         <v>162</v>
       </c>
@@ -50315,7 +50326,7 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="2:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="992" t="s">
+      <c r="B13" s="1039" t="s">
         <v>155</v>
       </c>
       <c r="C13" s="287" t="s">
@@ -50344,7 +50355,7 @@
       <c r="R13" s="11"/>
     </row>
     <row r="14" spans="2:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="993"/>
+      <c r="B14" s="1040"/>
       <c r="C14" s="17" t="s">
         <v>142</v>
       </c>
@@ -50369,7 +50380,7 @@
       <c r="R14" s="102"/>
     </row>
     <row r="15" spans="2:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="993"/>
+      <c r="B15" s="1040"/>
       <c r="C15" s="17" t="s">
         <v>5</v>
       </c>
@@ -50396,7 +50407,7 @@
       <c r="R15" s="102"/>
     </row>
     <row r="16" spans="2:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="993"/>
+      <c r="B16" s="1040"/>
       <c r="C16" s="142" t="s">
         <v>158</v>
       </c>
@@ -50424,7 +50435,7 @@
       <c r="R16" s="102"/>
     </row>
     <row r="17" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="994"/>
+      <c r="B17" s="1041"/>
       <c r="C17" s="168" t="s">
         <v>144</v>
       </c>
@@ -50493,10 +50504,10 @@
         <v>35</v>
       </c>
       <c r="K19" s="202"/>
-      <c r="L19" s="995" t="s">
+      <c r="L19" s="1042" t="s">
         <v>98</v>
       </c>
-      <c r="M19" s="996"/>
+      <c r="M19" s="1043"/>
       <c r="N19" s="185" t="s">
         <v>99</v>
       </c>
@@ -51460,7 +51471,7 @@
       <c r="D3" s="141"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="989" t="s">
+      <c r="C4" s="1036" t="s">
         <v>166</v>
       </c>
       <c r="D4" s="152" t="s">
@@ -51479,7 +51490,7 @@
       <c r="M4" s="273"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="990"/>
+      <c r="C5" s="1037"/>
       <c r="D5" s="17" t="s">
         <v>152</v>
       </c>
@@ -51500,7 +51511,7 @@
       <c r="M5" s="252"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="990"/>
+      <c r="C6" s="1037"/>
       <c r="D6" s="17" t="s">
         <v>155</v>
       </c>
@@ -51521,7 +51532,7 @@
       <c r="M6" s="252"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="990"/>
+      <c r="C7" s="1037"/>
       <c r="D7" s="142" t="s">
         <v>156</v>
       </c>
@@ -51541,7 +51552,7 @@
       <c r="M7" s="252"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="990"/>
+      <c r="C8" s="1037"/>
       <c r="D8" s="142" t="s">
         <v>160</v>
       </c>
@@ -51560,7 +51571,7 @@
       <c r="M8" s="252"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="990"/>
+      <c r="C9" s="1037"/>
       <c r="D9" s="142" t="s">
         <v>161</v>
       </c>
@@ -51577,7 +51588,7 @@
       <c r="M9" s="252"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="991"/>
+      <c r="C10" s="1038"/>
       <c r="D10" s="279" t="s">
         <v>162</v>
       </c>
@@ -51606,7 +51617,7 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="989" t="s">
+      <c r="C12" s="1036" t="s">
         <v>170</v>
       </c>
       <c r="D12" s="152" t="s">
@@ -51624,7 +51635,7 @@
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="990"/>
+      <c r="C13" s="1037"/>
       <c r="D13" s="17" t="s">
         <v>137</v>
       </c>
@@ -51640,7 +51651,7 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="991"/>
+      <c r="C14" s="1038"/>
       <c r="D14" s="271" t="s">
         <v>138</v>
       </c>
@@ -51668,7 +51679,7 @@
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="992" t="s">
+      <c r="C16" s="1039" t="s">
         <v>155</v>
       </c>
       <c r="D16" s="287" t="s">
@@ -51685,7 +51696,7 @@
       <c r="I16" s="263"/>
     </row>
     <row r="17" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C17" s="993"/>
+      <c r="C17" s="1040"/>
       <c r="D17" s="17" t="s">
         <v>142</v>
       </c>
@@ -51700,7 +51711,7 @@
       <c r="I17" s="204"/>
     </row>
     <row r="18" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C18" s="993"/>
+      <c r="C18" s="1040"/>
       <c r="D18" s="17" t="s">
         <v>5</v>
       </c>
@@ -51715,7 +51726,7 @@
       <c r="I18" s="204"/>
     </row>
     <row r="19" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C19" s="993"/>
+      <c r="C19" s="1040"/>
       <c r="D19" s="142" t="s">
         <v>158</v>
       </c>
@@ -51731,7 +51742,7 @@
       <c r="I19" s="204"/>
     </row>
     <row r="20" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="994"/>
+      <c r="C20" s="1041"/>
       <c r="D20" s="168" t="s">
         <v>144</v>
       </c>
@@ -51813,10 +51824,10 @@
         <v>35</v>
       </c>
       <c r="U23" s="202"/>
-      <c r="V23" s="995" t="s">
+      <c r="V23" s="1042" t="s">
         <v>98</v>
       </c>
-      <c r="W23" s="996"/>
+      <c r="W23" s="1043"/>
       <c r="X23" s="185" t="s">
         <v>99</v>
       </c>
@@ -54536,7 +54547,7 @@
       </c>
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="G4" s="989" t="s">
+      <c r="G4" s="1036" t="s">
         <v>166</v>
       </c>
       <c r="H4" s="152" t="s">
@@ -54554,7 +54565,7 @@
       <c r="B5" s="780" t="s">
         <v>381</v>
       </c>
-      <c r="G5" s="990"/>
+      <c r="G5" s="1037"/>
       <c r="H5" s="17" t="s">
         <v>137</v>
       </c>
@@ -54574,7 +54585,7 @@
       <c r="B6" s="186" t="s">
         <v>358</v>
       </c>
-      <c r="G6" s="991"/>
+      <c r="G6" s="1038"/>
       <c r="H6" s="271" t="s">
         <v>138</v>
       </c>
@@ -54599,7 +54610,7 @@
       <c r="Y7" s="7"/>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="G8" s="989" t="s">
+      <c r="G8" s="1036" t="s">
         <v>170</v>
       </c>
       <c r="H8" s="152" t="s">
@@ -54615,7 +54626,7 @@
       <c r="V8" s="18"/>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="G9" s="990"/>
+      <c r="G9" s="1037"/>
       <c r="H9" s="17" t="s">
         <v>137</v>
       </c>
@@ -54629,7 +54640,7 @@
       <c r="V9" s="18"/>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="G10" s="991"/>
+      <c r="G10" s="1038"/>
       <c r="H10" s="271" t="s">
         <v>138</v>
       </c>
@@ -54653,7 +54664,7 @@
       <c r="V11" s="18"/>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="G12" s="992" t="s">
+      <c r="G12" s="1039" t="s">
         <v>155</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -54671,7 +54682,7 @@
       <c r="V12" s="18"/>
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="G13" s="993"/>
+      <c r="G13" s="1040"/>
       <c r="H13" s="17" t="s">
         <v>142</v>
       </c>
@@ -54697,7 +54708,7 @@
       <c r="AH13" s="7"/>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="G14" s="993"/>
+      <c r="G14" s="1040"/>
       <c r="H14" s="17" t="s">
         <v>5</v>
       </c>
@@ -54722,7 +54733,7 @@
       <c r="AH14" s="7"/>
     </row>
     <row r="15" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="994"/>
+      <c r="G15" s="1041"/>
       <c r="H15" s="168" t="s">
         <v>144</v>
       </c>
@@ -57244,12 +57255,12 @@
       <c r="D78" s="7"/>
       <c r="E78" s="116"/>
       <c r="H78" s="21"/>
-      <c r="I78" s="1033" t="s">
+      <c r="I78" s="1080" t="s">
         <v>364</v>
       </c>
-      <c r="J78" s="1033"/>
-      <c r="K78" s="1033"/>
-      <c r="L78" s="1033"/>
+      <c r="J78" s="1080"/>
+      <c r="K78" s="1080"/>
+      <c r="L78" s="1080"/>
       <c r="O78" s="146"/>
       <c r="P78" s="147"/>
       <c r="Q78" s="8"/>
@@ -57268,14 +57279,14 @@
       <c r="D79" s="7"/>
       <c r="E79" s="116"/>
       <c r="H79" s="21"/>
-      <c r="I79" s="1035" t="s">
+      <c r="I79" s="1081" t="s">
         <v>365</v>
       </c>
-      <c r="J79" s="1036"/>
-      <c r="K79" s="1037" t="s">
+      <c r="J79" s="1082"/>
+      <c r="K79" s="1083" t="s">
         <v>283</v>
       </c>
-      <c r="L79" s="1036"/>
+      <c r="L79" s="1082"/>
       <c r="M79" s="17"/>
       <c r="O79" s="146"/>
       <c r="P79" s="147"/>
@@ -57419,12 +57430,12 @@
       <c r="D84" s="7"/>
       <c r="E84" s="116"/>
       <c r="G84" s="7"/>
-      <c r="I84" s="1033" t="s">
+      <c r="I84" s="1080" t="s">
         <v>293</v>
       </c>
-      <c r="J84" s="1033"/>
-      <c r="K84" s="1033"/>
-      <c r="L84" s="1033"/>
+      <c r="J84" s="1080"/>
+      <c r="K84" s="1080"/>
+      <c r="L84" s="1080"/>
       <c r="O84" s="146"/>
       <c r="P84" s="147"/>
       <c r="Q84" s="8"/>
@@ -57532,12 +57543,12 @@
       <c r="E88" s="116"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
-      <c r="I88" s="1034" t="s">
+      <c r="I88" s="1084" t="s">
         <v>295</v>
       </c>
-      <c r="J88" s="1034"/>
-      <c r="K88" s="1034"/>
-      <c r="L88" s="1034"/>
+      <c r="J88" s="1084"/>
+      <c r="K88" s="1084"/>
+      <c r="L88" s="1084"/>
       <c r="M88" s="149"/>
       <c r="N88" s="149"/>
       <c r="O88" s="147"/>
@@ -59576,12 +59587,12 @@
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
       <c r="H160" s="21"/>
-      <c r="I160" s="1033" t="s">
+      <c r="I160" s="1080" t="s">
         <v>364</v>
       </c>
-      <c r="J160" s="1033"/>
-      <c r="K160" s="1033"/>
-      <c r="L160" s="1033"/>
+      <c r="J160" s="1080"/>
+      <c r="K160" s="1080"/>
+      <c r="L160" s="1080"/>
       <c r="M160" s="17"/>
       <c r="N160" s="17"/>
       <c r="O160" s="146"/>
@@ -59604,14 +59615,14 @@
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
       <c r="H161" s="21"/>
-      <c r="I161" s="1035" t="s">
+      <c r="I161" s="1081" t="s">
         <v>365</v>
       </c>
-      <c r="J161" s="1036"/>
-      <c r="K161" s="1037" t="s">
+      <c r="J161" s="1082"/>
+      <c r="K161" s="1083" t="s">
         <v>283</v>
       </c>
-      <c r="L161" s="1036"/>
+      <c r="L161" s="1082"/>
       <c r="M161" s="17"/>
       <c r="N161" s="17"/>
       <c r="O161" s="146"/>
@@ -59774,12 +59785,12 @@
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
-      <c r="I166" s="1033" t="s">
+      <c r="I166" s="1080" t="s">
         <v>293</v>
       </c>
-      <c r="J166" s="1033"/>
-      <c r="K166" s="1033"/>
-      <c r="L166" s="1033"/>
+      <c r="J166" s="1080"/>
+      <c r="K166" s="1080"/>
+      <c r="L166" s="1080"/>
       <c r="M166" s="17"/>
       <c r="N166" s="17"/>
       <c r="O166" s="146"/>
@@ -59898,12 +59909,12 @@
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
-      <c r="I170" s="1034" t="s">
+      <c r="I170" s="1084" t="s">
         <v>295</v>
       </c>
-      <c r="J170" s="1034"/>
-      <c r="K170" s="1034"/>
-      <c r="L170" s="1034"/>
+      <c r="J170" s="1084"/>
+      <c r="K170" s="1084"/>
+      <c r="L170" s="1084"/>
       <c r="M170" s="149"/>
       <c r="N170" s="149"/>
       <c r="O170" s="147"/>
@@ -60068,11 +60079,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I160:L160"/>
-    <mergeCell ref="I161:J161"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="I166:L166"/>
-    <mergeCell ref="I170:L170"/>
     <mergeCell ref="I84:L84"/>
     <mergeCell ref="I88:L88"/>
     <mergeCell ref="G4:G6"/>
@@ -60081,6 +60087,11 @@
     <mergeCell ref="I78:L78"/>
     <mergeCell ref="I79:J79"/>
     <mergeCell ref="K79:L79"/>
+    <mergeCell ref="I160:L160"/>
+    <mergeCell ref="I161:J161"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="I166:L166"/>
+    <mergeCell ref="I170:L170"/>
   </mergeCells>
   <conditionalFormatting sqref="AD23:AG35">
     <cfRule type="dataBar" priority="1">
@@ -60163,7 +60174,7 @@
       <c r="D3" s="141"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C4" s="989" t="s">
+      <c r="C4" s="1036" t="s">
         <v>166</v>
       </c>
       <c r="D4" s="152" t="s">
@@ -60182,7 +60193,7 @@
       <c r="M4" s="273"/>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C5" s="990"/>
+      <c r="C5" s="1037"/>
       <c r="D5" s="17" t="s">
         <v>152</v>
       </c>
@@ -60203,7 +60214,7 @@
       <c r="M5" s="252"/>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C6" s="990"/>
+      <c r="C6" s="1037"/>
       <c r="D6" s="17" t="s">
         <v>155</v>
       </c>
@@ -60224,7 +60235,7 @@
       <c r="M6" s="252"/>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C7" s="990"/>
+      <c r="C7" s="1037"/>
       <c r="D7" s="142" t="s">
         <v>156</v>
       </c>
@@ -60244,7 +60255,7 @@
       <c r="M7" s="252"/>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C8" s="990"/>
+      <c r="C8" s="1037"/>
       <c r="D8" s="142" t="s">
         <v>160</v>
       </c>
@@ -60261,7 +60272,7 @@
       <c r="M8" s="252"/>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C9" s="990"/>
+      <c r="C9" s="1037"/>
       <c r="D9" s="142" t="s">
         <v>161</v>
       </c>
@@ -60278,7 +60289,7 @@
       <c r="M9" s="252"/>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C10" s="991"/>
+      <c r="C10" s="1038"/>
       <c r="D10" s="279" t="s">
         <v>162</v>
       </c>
@@ -60307,7 +60318,7 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C12" s="989" t="s">
+      <c r="C12" s="1036" t="s">
         <v>170</v>
       </c>
       <c r="D12" s="152" t="s">
@@ -60326,7 +60337,7 @@
       <c r="M12" s="273"/>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="C13" s="990"/>
+      <c r="C13" s="1037"/>
       <c r="D13" s="17" t="s">
         <v>152</v>
       </c>
@@ -60348,7 +60359,7 @@
     </row>
     <row r="14" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14"/>
-      <c r="C14" s="990"/>
+      <c r="C14" s="1037"/>
       <c r="D14" s="17" t="s">
         <v>155</v>
       </c>
@@ -60383,7 +60394,7 @@
     </row>
     <row r="15" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15"/>
-      <c r="C15" s="990"/>
+      <c r="C15" s="1037"/>
       <c r="D15" s="142" t="s">
         <v>156</v>
       </c>
@@ -60417,7 +60428,7 @@
     </row>
     <row r="16" spans="2:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16"/>
-      <c r="C16" s="990"/>
+      <c r="C16" s="1037"/>
       <c r="D16" s="142" t="s">
         <v>160</v>
       </c>
@@ -60448,7 +60459,7 @@
     </row>
     <row r="17" spans="2:48" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17"/>
-      <c r="C17" s="990"/>
+      <c r="C17" s="1037"/>
       <c r="D17" s="142" t="s">
         <v>161</v>
       </c>
@@ -60479,7 +60490,7 @@
     </row>
     <row r="18" spans="2:48" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18"/>
-      <c r="C18" s="991"/>
+      <c r="C18" s="1038"/>
       <c r="D18" s="279" t="s">
         <v>162</v>
       </c>
@@ -60536,7 +60547,7 @@
     </row>
     <row r="20" spans="2:48" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20"/>
-      <c r="C20" s="992" t="s">
+      <c r="C20" s="1039" t="s">
         <v>155</v>
       </c>
       <c r="D20" s="287" t="s">
@@ -60566,7 +60577,7 @@
       <c r="AJ20"/>
     </row>
     <row r="21" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C21" s="993"/>
+      <c r="C21" s="1040"/>
       <c r="D21" s="17" t="s">
         <v>142</v>
       </c>
@@ -60581,7 +60592,7 @@
       <c r="I21" s="204"/>
     </row>
     <row r="22" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="C22" s="993"/>
+      <c r="C22" s="1040"/>
       <c r="D22" s="17" t="s">
         <v>5</v>
       </c>
@@ -60596,7 +60607,7 @@
       <c r="I22" s="204"/>
     </row>
     <row r="23" spans="2:48" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="993"/>
+      <c r="C23" s="1040"/>
       <c r="D23" s="142" t="s">
         <v>158</v>
       </c>
@@ -60610,15 +60621,15 @@
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="204"/>
-      <c r="K23" s="1038" t="s">
+      <c r="K23" s="1085" t="s">
         <v>469</v>
       </c>
-      <c r="L23" s="1038"/>
-      <c r="M23" s="1038"/>
-      <c r="N23" s="1038"/>
+      <c r="L23" s="1085"/>
+      <c r="M23" s="1085"/>
+      <c r="N23" s="1085"/>
     </row>
     <row r="24" spans="2:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="994"/>
+      <c r="C24" s="1041"/>
       <c r="D24" s="168" t="s">
         <v>144</v>
       </c>
@@ -60632,10 +60643,10 @@
       <c r="G24" s="266"/>
       <c r="H24" s="266"/>
       <c r="I24" s="264"/>
-      <c r="K24" s="1038"/>
-      <c r="L24" s="1038"/>
-      <c r="M24" s="1038"/>
-      <c r="N24" s="1038"/>
+      <c r="K24" s="1085"/>
+      <c r="L24" s="1085"/>
+      <c r="M24" s="1085"/>
+      <c r="N24" s="1085"/>
     </row>
     <row r="25" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
@@ -61578,10 +61589,10 @@
       <c r="AV33" s="7"/>
     </row>
     <row r="34" spans="2:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="1038" t="s">
+      <c r="B34" s="1085" t="s">
         <v>447</v>
       </c>
-      <c r="C34" s="1038"/>
+      <c r="C34" s="1085"/>
       <c r="D34" s="25">
         <v>6</v>
       </c>
@@ -61733,8 +61744,8 @@
       <c r="AV34" s="7"/>
     </row>
     <row r="35" spans="2:48" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="1038"/>
-      <c r="C35" s="1038"/>
+      <c r="B35" s="1085"/>
+      <c r="C35" s="1085"/>
       <c r="D35" s="25">
         <v>16</v>
       </c>
@@ -62700,7 +62711,7 @@
       <c r="E3" s="141"/>
     </row>
     <row r="4" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="D4" s="989" t="s">
+      <c r="D4" s="1036" t="s">
         <v>166</v>
       </c>
       <c r="E4" s="152" t="s">
@@ -62719,7 +62730,7 @@
       <c r="N4" s="273"/>
     </row>
     <row r="5" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="D5" s="990"/>
+      <c r="D5" s="1037"/>
       <c r="E5" s="17" t="s">
         <v>152</v>
       </c>
@@ -62740,7 +62751,7 @@
       <c r="N5" s="252"/>
     </row>
     <row r="6" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="D6" s="990"/>
+      <c r="D6" s="1037"/>
       <c r="E6" s="17" t="s">
         <v>155</v>
       </c>
@@ -62761,7 +62772,7 @@
       <c r="N6" s="252"/>
     </row>
     <row r="7" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="D7" s="990"/>
+      <c r="D7" s="1037"/>
       <c r="E7" s="142" t="s">
         <v>156</v>
       </c>
@@ -62781,7 +62792,7 @@
       <c r="N7" s="252"/>
     </row>
     <row r="8" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="D8" s="990"/>
+      <c r="D8" s="1037"/>
       <c r="E8" s="142" t="s">
         <v>160</v>
       </c>
@@ -62798,7 +62809,7 @@
       <c r="N8" s="252"/>
     </row>
     <row r="9" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="D9" s="990"/>
+      <c r="D9" s="1037"/>
       <c r="E9" s="142" t="s">
         <v>161</v>
       </c>
@@ -62815,7 +62826,7 @@
       <c r="N9" s="252"/>
     </row>
     <row r="10" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="D10" s="991"/>
+      <c r="D10" s="1038"/>
       <c r="E10" s="279" t="s">
         <v>162</v>
       </c>
@@ -62844,7 +62855,7 @@
       <c r="M11" s="17"/>
     </row>
     <row r="12" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="D12" s="989" t="s">
+      <c r="D12" s="1036" t="s">
         <v>170</v>
       </c>
       <c r="E12" s="152" t="s">
@@ -62863,7 +62874,7 @@
       <c r="N12" s="273"/>
     </row>
     <row r="13" spans="3:37" x14ac:dyDescent="0.25">
-      <c r="D13" s="990"/>
+      <c r="D13" s="1037"/>
       <c r="E13" s="17" t="s">
         <v>152</v>
       </c>
@@ -62885,7 +62896,7 @@
     </row>
     <row r="14" spans="3:37" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C14"/>
-      <c r="D14" s="990"/>
+      <c r="D14" s="1037"/>
       <c r="E14" s="17" t="s">
         <v>155</v>
       </c>
@@ -62920,7 +62931,7 @@
     </row>
     <row r="15" spans="3:37" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15"/>
-      <c r="D15" s="990"/>
+      <c r="D15" s="1037"/>
       <c r="E15" s="142" t="s">
         <v>156</v>
       </c>
@@ -62954,7 +62965,7 @@
     </row>
     <row r="16" spans="3:37" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16"/>
-      <c r="D16" s="990"/>
+      <c r="D16" s="1037"/>
       <c r="E16" s="142" t="s">
         <v>160</v>
       </c>
@@ -62985,7 +62996,7 @@
     </row>
     <row r="17" spans="2:49" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17"/>
-      <c r="D17" s="990"/>
+      <c r="D17" s="1037"/>
       <c r="E17" s="142" t="s">
         <v>161</v>
       </c>
@@ -63016,7 +63027,7 @@
     </row>
     <row r="18" spans="2:49" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18"/>
-      <c r="D18" s="991"/>
+      <c r="D18" s="1038"/>
       <c r="E18" s="279" t="s">
         <v>162</v>
       </c>
@@ -63073,7 +63084,7 @@
     </row>
     <row r="20" spans="2:49" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20"/>
-      <c r="D20" s="992" t="s">
+      <c r="D20" s="1039" t="s">
         <v>155</v>
       </c>
       <c r="E20" s="287" t="s">
@@ -63088,11 +63099,11 @@
       <c r="H20" s="265"/>
       <c r="I20" s="265"/>
       <c r="J20" s="263"/>
-      <c r="L20" s="1039" t="s">
+      <c r="L20" s="1086" t="s">
         <v>468</v>
       </c>
-      <c r="M20" s="1039"/>
-      <c r="N20" s="1039"/>
+      <c r="M20" s="1086"/>
+      <c r="N20" s="1086"/>
       <c r="Y20"/>
       <c r="Z20"/>
       <c r="AA20"/>
@@ -63108,7 +63119,7 @@
       <c r="AK20"/>
     </row>
     <row r="21" spans="2:49" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="993"/>
+      <c r="D21" s="1040"/>
       <c r="E21" s="17" t="s">
         <v>142</v>
       </c>
@@ -63121,12 +63132,12 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="204"/>
-      <c r="L21" s="1039"/>
-      <c r="M21" s="1039"/>
-      <c r="N21" s="1039"/>
+      <c r="L21" s="1086"/>
+      <c r="M21" s="1086"/>
+      <c r="N21" s="1086"/>
     </row>
     <row r="22" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="D22" s="993"/>
+      <c r="D22" s="1040"/>
       <c r="E22" s="17" t="s">
         <v>5</v>
       </c>
@@ -63139,12 +63150,12 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="204"/>
-      <c r="L22" s="1039"/>
-      <c r="M22" s="1039"/>
-      <c r="N22" s="1039"/>
+      <c r="L22" s="1086"/>
+      <c r="M22" s="1086"/>
+      <c r="N22" s="1086"/>
     </row>
     <row r="23" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="D23" s="993"/>
+      <c r="D23" s="1040"/>
       <c r="E23" s="142" t="s">
         <v>158</v>
       </c>
@@ -63157,12 +63168,12 @@
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="204"/>
-      <c r="L23" s="1039"/>
-      <c r="M23" s="1039"/>
-      <c r="N23" s="1039"/>
+      <c r="L23" s="1086"/>
+      <c r="M23" s="1086"/>
+      <c r="N23" s="1086"/>
     </row>
     <row r="24" spans="2:49" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="994"/>
+      <c r="D24" s="1041"/>
       <c r="E24" s="168" t="s">
         <v>144</v>
       </c>
@@ -63176,9 +63187,9 @@
       <c r="H24" s="266"/>
       <c r="I24" s="266"/>
       <c r="J24" s="264"/>
-      <c r="L24" s="1039"/>
-      <c r="M24" s="1039"/>
-      <c r="N24" s="1039"/>
+      <c r="L24" s="1086"/>
+      <c r="M24" s="1086"/>
+      <c r="N24" s="1086"/>
     </row>
     <row r="25" spans="2:49" x14ac:dyDescent="0.25">
       <c r="C25" s="7"/>
@@ -66010,10 +66021,13 @@
   </sheetPr>
   <dimension ref="B2:AP74"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AK34" sqref="AK34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="16" width="11.42578125" style="33" customWidth="1"/>
@@ -66038,7 +66052,7 @@
   <sheetData>
     <row r="2" spans="2:34" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B2" s="188" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D2" s="141"/>
     </row>
@@ -66049,25 +66063,25 @@
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="2:34" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="989" t="s">
+      <c r="C4" s="1036" t="s">
         <v>166</v>
       </c>
       <c r="D4" s="152" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="1016" t="s">
+      <c r="E4" s="1063" t="s">
         <v>545</v>
       </c>
-      <c r="F4" s="1016"/>
-      <c r="G4" s="1016"/>
-      <c r="H4" s="1016"/>
-      <c r="I4" s="1016"/>
-      <c r="J4" s="1017"/>
+      <c r="F4" s="1063"/>
+      <c r="G4" s="1063"/>
+      <c r="H4" s="1063"/>
+      <c r="I4" s="1063"/>
+      <c r="J4" s="1064"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C5" s="990"/>
+      <c r="C5" s="1037"/>
       <c r="D5" s="17" t="s">
         <v>152</v>
       </c>
@@ -66087,7 +66101,7 @@
       <c r="L5" s="17"/>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C6" s="990"/>
+      <c r="C6" s="1037"/>
       <c r="D6" s="17" t="s">
         <v>155</v>
       </c>
@@ -66107,7 +66121,7 @@
       <c r="L6" s="17"/>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C7" s="991"/>
+      <c r="C7" s="1038"/>
       <c r="D7" s="279" t="s">
         <v>156</v>
       </c>
@@ -66156,20 +66170,20 @@
     </row>
     <row r="9" spans="2:34" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9"/>
-      <c r="C9" s="989" t="s">
+      <c r="C9" s="1036" t="s">
         <v>170</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="1016" t="s">
+      <c r="E9" s="1063" t="s">
         <v>544</v>
       </c>
-      <c r="F9" s="1016"/>
-      <c r="G9" s="1016"/>
-      <c r="H9" s="1016"/>
-      <c r="I9" s="1016"/>
-      <c r="J9" s="1017"/>
+      <c r="F9" s="1063"/>
+      <c r="G9" s="1063"/>
+      <c r="H9" s="1063"/>
+      <c r="I9" s="1063"/>
+      <c r="J9" s="1064"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
       <c r="S9"/>
@@ -66191,7 +66205,7 @@
     </row>
     <row r="10" spans="2:34" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10"/>
-      <c r="C10" s="990"/>
+      <c r="C10" s="1037"/>
       <c r="D10" s="306" t="s">
         <v>137</v>
       </c>
@@ -66224,7 +66238,7 @@
     </row>
     <row r="11" spans="2:34" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11"/>
-      <c r="C11" s="991"/>
+      <c r="C11" s="1038"/>
       <c r="D11" s="304" t="s">
         <v>138</v>
       </c>
@@ -66286,7 +66300,7 @@
     </row>
     <row r="13" spans="2:34" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13"/>
-      <c r="C13" s="992" t="s">
+      <c r="C13" s="1039" t="s">
         <v>155</v>
       </c>
       <c r="D13" s="287" t="s">
@@ -66319,7 +66333,7 @@
       <c r="AH13"/>
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C14" s="993"/>
+      <c r="C14" s="1040"/>
       <c r="D14" s="17" t="s">
         <v>142</v>
       </c>
@@ -66334,7 +66348,7 @@
       <c r="I14" s="204"/>
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C15" s="993"/>
+      <c r="C15" s="1040"/>
       <c r="D15" s="17" t="s">
         <v>5</v>
       </c>
@@ -66349,7 +66363,7 @@
       <c r="I15" s="204"/>
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.25">
-      <c r="C16" s="993"/>
+      <c r="C16" s="1040"/>
       <c r="D16" s="142" t="s">
         <v>158</v>
       </c>
@@ -66364,7 +66378,7 @@
       <c r="I16" s="204"/>
     </row>
     <row r="17" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="994"/>
+      <c r="C17" s="1041"/>
       <c r="D17" s="168" t="s">
         <v>144</v>
       </c>
@@ -66379,7 +66393,7 @@
       <c r="H17" s="266"/>
       <c r="I17" s="264"/>
       <c r="M17" s="33" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="2:41" x14ac:dyDescent="0.25">
@@ -66415,6 +66429,7 @@
       <c r="AD19" s="8"/>
     </row>
     <row r="20" spans="2:41" s="7" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1117"/>
       <c r="D20"/>
       <c r="E20" s="61" t="s">
         <v>12</v>
@@ -66428,11 +66443,11 @@
       <c r="J20" s="62"/>
       <c r="K20" s="62"/>
       <c r="L20" s="62"/>
-      <c r="M20" s="1075" t="s">
+      <c r="M20" s="1089" t="s">
         <v>554</v>
       </c>
-      <c r="N20" s="1076"/>
-      <c r="O20" s="1080"/>
+      <c r="N20" s="1090"/>
+      <c r="O20" s="993"/>
       <c r="P20" s="61" t="s">
         <v>36</v>
       </c>
@@ -66440,10 +66455,10 @@
         <v>35</v>
       </c>
       <c r="R20" s="202"/>
-      <c r="S20" s="995" t="s">
+      <c r="S20" s="1042" t="s">
         <v>98</v>
       </c>
-      <c r="T20" s="996"/>
+      <c r="T20" s="1043"/>
       <c r="U20" s="185" t="s">
         <v>99</v>
       </c>
@@ -66454,7 +66469,7 @@
       <c r="Y20" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="Z20" s="1069" t="s">
+      <c r="Z20" s="1091" t="s">
         <v>558</v>
       </c>
       <c r="AB20" s="20"/>
@@ -66496,13 +66511,13 @@
         <f>"i="&amp;$E$6&amp;", 1"</f>
         <v>i=50000, 1</v>
       </c>
-      <c r="M21" s="1077" t="s">
+      <c r="M21" s="990" t="s">
         <v>555</v>
       </c>
-      <c r="N21" s="1078" t="s">
+      <c r="N21" s="991" t="s">
         <v>556</v>
       </c>
-      <c r="O21" s="1081" t="s">
+      <c r="O21" s="994" t="s">
         <v>560</v>
       </c>
       <c r="P21" s="310">
@@ -66519,21 +66534,21 @@
         <v>i=50000, 1</v>
       </c>
       <c r="Y21"/>
-      <c r="Z21" s="1070"/>
-      <c r="AA21" s="1111" t="s">
+      <c r="Z21" s="1092"/>
+      <c r="AA21" s="1022" t="s">
         <v>561</v>
       </c>
-      <c r="AF21" s="1040" t="s">
+      <c r="AF21" s="1087" t="s">
         <v>548</v>
       </c>
-      <c r="AG21" s="1065"/>
-      <c r="AH21" s="1065"/>
-      <c r="AI21" s="1065"/>
-      <c r="AJ21" s="1065"/>
-      <c r="AK21" s="1065"/>
-      <c r="AL21" s="1065"/>
-      <c r="AM21" s="1065"/>
-      <c r="AN21" s="1041"/>
+      <c r="AG21" s="1093"/>
+      <c r="AH21" s="1093"/>
+      <c r="AI21" s="1093"/>
+      <c r="AJ21" s="1093"/>
+      <c r="AK21" s="1093"/>
+      <c r="AL21" s="1093"/>
+      <c r="AM21" s="1093"/>
+      <c r="AN21" s="1088"/>
     </row>
     <row r="22" spans="2:41" s="7" customFormat="1" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="25">
@@ -66567,15 +66582,15 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="M22" s="1086">
+      <c r="M22" s="999">
         <f>IF( ROUND(K22,3) = 0, 0, (   K22/SUM(K22,I22) * $E$6 )   )</f>
         <v>25000</v>
       </c>
-      <c r="N22" s="1087">
+      <c r="N22" s="1000">
         <f t="shared" ref="N22:N47" si="1">IF( ROUND(L22,3) = 0, 0, (   L22/SUM(L22,J22) * $E$6 )   )</f>
         <v>25000</v>
       </c>
-      <c r="O22" s="1082">
+      <c r="O22" s="995">
         <f>SUM(J22,L22)</f>
         <v>0.5</v>
       </c>
@@ -66587,229 +66602,229 @@
         <f>(P22-P21)</f>
         <v>5.5451774444795623</v>
       </c>
-      <c r="R22" s="1108"/>
+      <c r="R22" s="1020"/>
       <c r="S22" s="116"/>
       <c r="T22" s="102"/>
       <c r="Y22"/>
-      <c r="Z22" s="1094">
-        <f>(1-O22)*M22 + O22*N22</f>
+      <c r="Z22" s="1007">
+        <f t="shared" ref="Z22:Z47" si="2">(1-O22)*M22 + O22*N22</f>
         <v>25000</v>
       </c>
-      <c r="AA22" s="1109">
+      <c r="AA22" s="1021">
         <f>Z22/$E$6</f>
         <v>0.5</v>
       </c>
-      <c r="AB22" s="1015" t="s">
+      <c r="AB22" s="1062" t="s">
         <v>549</v>
       </c>
-      <c r="AC22" s="1017"/>
+      <c r="AC22" s="1064"/>
     </row>
     <row r="23" spans="2:41" s="7" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
         <v>572</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D23" s="25">
         <v>2</v>
       </c>
       <c r="E23" s="244">
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="F23" s="243">
-        <v>12.3</v>
+        <v>13</v>
       </c>
       <c r="G23" s="242">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H23" s="241">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="I23" s="240">
         <f t="shared" si="0"/>
-        <v>0.41399631684971189</v>
+        <v>0.34800118135682917</v>
       </c>
       <c r="J23" s="239">
         <f t="shared" si="0"/>
-        <v>0.51845699201065898</v>
+        <v>0.57375694993177717</v>
       </c>
       <c r="K23" s="238">
         <f t="shared" si="0"/>
-        <v>2.9989792605668114E-2</v>
+        <v>3.6679054661622516E-2</v>
       </c>
       <c r="L23" s="237">
         <f t="shared" si="0"/>
-        <v>3.7556898533960985E-2</v>
-      </c>
-      <c r="M23" s="1088">
-        <f t="shared" ref="M23:M47" si="2">IF( ROUND(K23,3) = 0, 0, (   K23/SUM(K23,I23) * $E$6 )   )</f>
-        <v>3377.3345569814551</v>
-      </c>
-      <c r="N23" s="1089">
-        <f t="shared" si="1"/>
-        <v>3377.3345569814551</v>
-      </c>
-      <c r="O23" s="1083">
+        <v>4.1562814049771114E-2</v>
+      </c>
+      <c r="M23" s="1001">
+        <f>IF( ROUND(K23,3) = 0, 0, (   K23/SUM(K23,I23) * $E$6 )   )</f>
+        <v>4767.4732449554749</v>
+      </c>
+      <c r="N23" s="1002">
+        <f>IF( ROUND(L23,3) = 0, 0, (   L23/SUM(L23,J23) * $E$6 )   )</f>
+        <v>3377.3345569814546</v>
+      </c>
+      <c r="O23" s="996">
         <f>SUM(J23,L23)</f>
-        <v>0.55601389054461992</v>
+        <v>0.61531976398154831</v>
       </c>
       <c r="P23" s="355">
         <f>$E$15*LN(EXP($E23/$E$15) + EXP($F23/$E$15) + EXP($G23/$E$15) +EXP($H23/$E$15) )</f>
-        <v>14.927592806778708</v>
+        <v>15.222197618039571</v>
       </c>
       <c r="Q23" s="49">
         <f>(P23-P22)</f>
-        <v>9.3824153622991453</v>
-      </c>
-      <c r="R23" s="1108"/>
+        <v>9.6770201735600097</v>
+      </c>
+      <c r="R23" s="1020"/>
       <c r="S23" s="116">
         <f>E23-E22</f>
-        <v>11.4</v>
+        <v>11</v>
       </c>
       <c r="T23" s="102">
         <f>H23-H22</f>
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="U23" s="184">
         <f t="shared" ref="U23:U46" si="3">Q23</f>
-        <v>9.3824153622991453</v>
+        <v>9.6770201735600097</v>
       </c>
       <c r="W23" s="7" t="str">
         <f t="shared" ref="W23:W46" si="4">IF(S23&gt;0,"Bought ",IF(S23&lt;0,"Sold ",""))&amp;IF(S23&lt;0,S23*-1,IF(S23&gt;0,S23,""))&amp;IF(S23&lt;&gt;0," Shares of State 1 at a cost of "&amp;ROUND($U23,5),"")</f>
-        <v>Bought 11.4 Shares of State 1 at a cost of 9.38242</v>
+        <v>Bought 11 Shares of State 1 at a cost of 9.67702</v>
       </c>
       <c r="X23" s="7" t="str">
         <f t="shared" ref="X23:X46" si="5">IF(T23&gt;0,"Bought ",IF(T23&lt;0,"Sold ",""))&amp;IF(T23&lt;0,T23*-1,IF(T23&gt;0,T23,""))&amp;IF(T23&lt;&gt;0," Shares of State 2 at a cost of "&amp;ROUND($U23,5),"")</f>
-        <v>Bought 1.8 Shares of State 2 at a cost of 9.38242</v>
+        <v>Bought 2.5 Shares of State 2 at a cost of 9.67702</v>
       </c>
       <c r="Y23" s="187" t="str">
         <f t="shared" ref="Y23:Y46" si="6">W23&amp;X23</f>
-        <v>Bought 11.4 Shares of State 1 at a cost of 9.38242Bought 1.8 Shares of State 2 at a cost of 9.38242</v>
-      </c>
-      <c r="Z23" s="1118">
+        <v>Bought 11 Shares of State 1 at a cost of 9.67702Bought 2.5 Shares of State 2 at a cost of 9.67702</v>
+      </c>
+      <c r="Z23" s="1029">
         <f>(1-O23)*M23 + O23*N23</f>
-        <v>3377.3345569814551</v>
-      </c>
-      <c r="AA23" s="1109">
-        <f t="shared" ref="AA23:AA47" si="7">Z23/$E$6</f>
-        <v>6.7546691139629106E-2</v>
-      </c>
-      <c r="AB23" s="1020"/>
-      <c r="AC23" s="1022"/>
-      <c r="AF23" s="1067" t="s">
+        <v>3912.0934355696818</v>
+      </c>
+      <c r="AA23" s="1021">
+        <f>Z23/$E$6</f>
+        <v>7.8241868711393631E-2</v>
+      </c>
+      <c r="AB23" s="1067"/>
+      <c r="AC23" s="1069"/>
+      <c r="AF23" s="1094" t="s">
         <v>550</v>
       </c>
-      <c r="AG23" s="1067"/>
-      <c r="AH23" s="1067"/>
-      <c r="AI23" s="1067"/>
-      <c r="AK23" s="1067" t="s">
+      <c r="AG23" s="1094"/>
+      <c r="AH23" s="1094"/>
+      <c r="AI23" s="1094"/>
+      <c r="AK23" s="1094" t="s">
         <v>551</v>
       </c>
-      <c r="AL23" s="1067"/>
-      <c r="AM23" s="1067"/>
-      <c r="AN23" s="1067"/>
+      <c r="AL23" s="1094"/>
+      <c r="AM23" s="1094"/>
+      <c r="AN23" s="1094"/>
     </row>
     <row r="24" spans="2:41" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="1102">
+      <c r="B24" s="1015">
         <v>1</v>
       </c>
-      <c r="C24" s="1103">
+      <c r="C24" s="1119">
         <f>SUM(I23,K23)/(AA23-L23)</f>
-        <v>14.804574186067091</v>
-      </c>
-      <c r="D24" s="1095">
+        <v>10.487735836358526</v>
+      </c>
+      <c r="D24" s="1008">
         <v>3</v>
       </c>
-      <c r="E24" s="1096">
+      <c r="E24" s="1009">
         <f>E23+$B$24</f>
-        <v>12.4</v>
-      </c>
-      <c r="F24" s="1097">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1010">
         <f>F23</f>
-        <v>12.3</v>
-      </c>
-      <c r="G24" s="1098">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1011">
         <f>G23+$B$24</f>
-        <v>1.9</v>
-      </c>
-      <c r="H24" s="1099">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1012">
         <f>H23+$C$24</f>
-        <v>16.60457418606709</v>
+        <v>12.987735836358526</v>
       </c>
       <c r="I24" s="240">
         <f>EXP(E24/$E$15)/(EXP($E24/$E$15)+EXP($F24/$E$15)+EXP($G24/$E$15)+EXP($H24/$E$15))</f>
-        <v>0.2037211496049301</v>
+        <v>0.27251526482253308</v>
       </c>
       <c r="J24" s="239">
         <f t="shared" si="0"/>
-        <v>0.19869125649949518</v>
+        <v>0.34991652646752325</v>
       </c>
       <c r="K24" s="238">
         <f t="shared" si="0"/>
-        <v>1.4757510580119529E-2</v>
+        <v>2.8722897593566093E-2</v>
       </c>
       <c r="L24" s="237">
         <f t="shared" si="0"/>
-        <v>0.58283008331545516</v>
-      </c>
-      <c r="M24" s="1088">
-        <f t="shared" si="2"/>
-        <v>3377.3345569814546</v>
-      </c>
-      <c r="N24" s="1089">
-        <f t="shared" si="1"/>
-        <v>37288.174591205563</v>
-      </c>
-      <c r="O24" s="1083">
+        <v>0.34884531111637773</v>
+      </c>
+      <c r="M24" s="1001">
+        <f t="shared" ref="M23:M47" si="7">IF( ROUND(K24,3) = 0, 0, (   K24/SUM(K24,I24) * $E$6 )   )</f>
+        <v>4767.4732449554749</v>
+      </c>
+      <c r="N24" s="1002">
+        <f>IF( ROUND(L24,3) = 0, 0, (   L24/SUM(L24,J24) * $E$6 )   )</f>
+        <v>24961.674518643955</v>
+      </c>
+      <c r="O24" s="996">
         <f t="shared" ref="O24:O47" si="8">SUM(J24,L24)</f>
-        <v>0.78152133981495031</v>
+        <v>0.69876183758390098</v>
       </c>
       <c r="P24" s="355">
-        <f t="shared" ref="P24:P47" si="9">$E$15*LN(EXP($E24/$E$15) + EXP($F24/$E$15) + EXP($G24/$E$15) +EXP($H24/$E$15) )</f>
-        <v>18.764012535671956</v>
-      </c>
-      <c r="Q24" s="1104">
+        <f>$E$15*LN(EXP($E24/$E$15) + EXP($F24/$E$15) + EXP($G24/$E$15) +EXP($H24/$E$15) )</f>
+        <v>17.200242595001608</v>
+      </c>
+      <c r="Q24" s="1016">
         <f>(P24-P23)</f>
-        <v>3.8364197288932473</v>
-      </c>
-      <c r="R24" s="1112"/>
+        <v>1.9780449769620372</v>
+      </c>
+      <c r="R24" s="1023"/>
       <c r="S24" s="846">
         <f>E24-E23</f>
         <v>1</v>
       </c>
       <c r="T24" s="969">
         <f>H24-H23</f>
-        <v>14.804574186067089</v>
-      </c>
-      <c r="U24" s="1113">
+        <v>10.487735836358526</v>
+      </c>
+      <c r="U24" s="1024">
         <f t="shared" si="3"/>
-        <v>3.8364197288932473</v>
+        <v>1.9780449769620372</v>
       </c>
       <c r="V24" s="259"/>
       <c r="W24" s="259" t="str">
         <f t="shared" si="4"/>
-        <v>Bought 1 Shares of State 1 at a cost of 3.83642</v>
+        <v>Bought 1 Shares of State 1 at a cost of 1.97804</v>
       </c>
       <c r="X24" s="259" t="str">
         <f t="shared" si="5"/>
-        <v>Bought 14.8045741860671 Shares of State 2 at a cost of 3.83642</v>
-      </c>
-      <c r="Y24" s="1114" t="str">
+        <v>Bought 10.4877358363585 Shares of State 2 at a cost of 1.97804</v>
+      </c>
+      <c r="Y24" s="1025" t="str">
         <f t="shared" si="6"/>
-        <v>Bought 1 Shares of State 1 at a cost of 3.83642Bought 14.8045741860671 Shares of State 2 at a cost of 3.83642</v>
-      </c>
-      <c r="Z24" s="1115">
+        <v>Bought 1 Shares of State 1 at a cost of 1.97804Bought 10.4877358363585 Shares of State 2 at a cost of 1.97804</v>
+      </c>
+      <c r="Z24" s="1026">
         <f>(1-O24)*M24 + O24*N24</f>
-        <v>29879.379694778738</v>
-      </c>
-      <c r="AA24" s="1116">
-        <f t="shared" si="7"/>
-        <v>0.59758759389557481</v>
-      </c>
-      <c r="AB24" s="1105">
+        <v>18878.41043549719</v>
+      </c>
+      <c r="AA24" s="1027">
+        <f>Z24/$E$6</f>
+        <v>0.37756820870994379</v>
+      </c>
+      <c r="AB24" s="1017">
         <f>Q24</f>
-        <v>3.8364197288932473</v>
+        <v>1.9780449769620372</v>
       </c>
       <c r="AC24" s="7" t="s">
         <v>564</v>
@@ -66837,7 +66852,13 @@
       </c>
     </row>
     <row r="25" spans="2:41" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C25" s="21"/>
+      <c r="B25" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C25" s="1120">
+        <f>(1-SUM(I23,K23))/L23</f>
+        <v>14.804574186067097</v>
+      </c>
       <c r="D25" s="25">
         <v>4</v>
       </c>
@@ -66869,94 +66890,93 @@
         <f t="shared" si="0"/>
         <v>5.3084542687934284E-2</v>
       </c>
-      <c r="M25" s="1088">
-        <f t="shared" si="2"/>
+      <c r="M25" s="1001">
+        <f t="shared" si="7"/>
         <v>170.94698629242166</v>
       </c>
-      <c r="N25" s="1089">
+      <c r="N25" s="1002">
         <f t="shared" si="1"/>
         <v>5830.1484580569668</v>
       </c>
-      <c r="O25" s="1083">
+      <c r="O25" s="996">
         <f t="shared" si="8"/>
         <v>0.45525892753703517</v>
       </c>
       <c r="P25" s="355">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="P24:P47" si="9">$E$15*LN(EXP($E25/$E$15) + EXP($F25/$E$15) + EXP($G25/$E$15) +EXP($H25/$E$15) )</f>
         <v>28.743477965068799</v>
       </c>
       <c r="Q25" s="49">
         <f>(P25-P24)</f>
-        <v>9.9794654293968428</v>
-      </c>
-      <c r="R25" s="1108"/>
+        <v>11.54323537006719</v>
+      </c>
+      <c r="R25" s="1020"/>
       <c r="S25" s="116">
         <f>E25-E24</f>
-        <v>13.9</v>
+        <v>14.3</v>
       </c>
       <c r="T25" s="102">
         <f>H25-H24</f>
-        <v>0.39542581393290988</v>
+        <v>4.0122641636414738</v>
       </c>
       <c r="U25" s="184">
         <f t="shared" si="3"/>
-        <v>9.9794654293968428</v>
+        <v>11.54323537006719</v>
       </c>
       <c r="W25" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>Bought 13.9 Shares of State 1 at a cost of 9.97947</v>
+        <v>Bought 14.3 Shares of State 1 at a cost of 11.54324</v>
       </c>
       <c r="X25" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>Bought 0.39542581393291 Shares of State 2 at a cost of 9.97947</v>
+        <v>Bought 4.01226416364147 Shares of State 2 at a cost of 11.54324</v>
       </c>
       <c r="Y25" s="187" t="str">
         <f t="shared" si="6"/>
-        <v>Bought 13.9 Shares of State 1 at a cost of 9.97947Bought 0.39542581393291 Shares of State 2 at a cost of 9.97947</v>
-      </c>
-      <c r="Z25" s="1094">
-        <f>(1-O25)*M25 + O25*N25</f>
+        <v>Bought 14.3 Shares of State 1 at a cost of 11.54324Bought 4.01226416364147 Shares of State 2 at a cost of 11.54324</v>
+      </c>
+      <c r="Z25" s="1007">
+        <f t="shared" si="2"/>
         <v>2747.3489790439594</v>
       </c>
-      <c r="AA25" s="1109">
-        <f t="shared" si="7"/>
+      <c r="AA25" s="1021">
+        <f t="shared" ref="AA23:AA47" si="10">Z25/$E$6</f>
         <v>5.4946979580879185E-2</v>
       </c>
-      <c r="AB25" s="1117"/>
+      <c r="AB25" s="1028"/>
       <c r="AF25" s="5" t="s">
         <v>178</v>
       </c>
       <c r="AG25" s="480">
         <f>D50</f>
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="AH25" s="524">
         <f>($AG$25-$E$5)/($E$6-$E$5)</f>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="AI25" s="525">
         <f>1-AH25</f>
-        <v>0.82000000000000006</v>
+        <v>0.91</v>
       </c>
       <c r="AK25" s="5" t="s">
         <v>178</v>
       </c>
       <c r="AL25" s="480">
         <f>AG25</f>
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="AM25" s="524">
         <f>($D$50-$E$5)/($E$6-$E$5)</f>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="AN25" s="525">
         <f>1-AM25</f>
-        <v>0.82000000000000006</v>
+        <v>0.91</v>
       </c>
       <c r="AO25" s="33"/>
     </row>
     <row r="26" spans="2:41" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="21"/>
       <c r="D26" s="25">
         <v>5</v>
       </c>
@@ -66988,15 +67008,15 @@
         <f t="shared" si="0"/>
         <v>6.2591326193850466E-2</v>
       </c>
-      <c r="M26" s="1088">
-        <f t="shared" si="2"/>
+      <c r="M26" s="1001">
+        <f t="shared" si="7"/>
         <v>117.32279543461961</v>
       </c>
-      <c r="N26" s="1089">
+      <c r="N26" s="1002">
         <f t="shared" si="1"/>
         <v>8469.194846700937</v>
       </c>
-      <c r="O26" s="1083">
+      <c r="O26" s="996">
         <f t="shared" si="8"/>
         <v>0.36952347493948667</v>
       </c>
@@ -67005,10 +67025,10 @@
         <v>30.044514278719856</v>
       </c>
       <c r="Q26" s="49">
-        <f t="shared" ref="Q26:Q46" si="10">(P26-P25)</f>
+        <f t="shared" ref="Q26:Q46" si="11">(P26-P25)</f>
         <v>1.301036313651057</v>
       </c>
-      <c r="R26" s="1108"/>
+      <c r="R26" s="1020"/>
       <c r="S26" s="116">
         <f>E26-E25</f>
         <v>1.8900000000000006</v>
@@ -67033,29 +67053,29 @@
         <f t="shared" si="6"/>
         <v>Bought 1.89 Shares of State 1 at a cost of 1.30104Bought 1.96 Shares of State 2 at a cost of 1.30104</v>
       </c>
-      <c r="Z26" s="1094">
-        <f>(1-O26)*M26 + O26*N26</f>
+      <c r="Z26" s="1007">
+        <f t="shared" si="2"/>
         <v>3203.5355780685277</v>
       </c>
-      <c r="AA26" s="1109">
-        <f t="shared" si="7"/>
+      <c r="AA26" s="1021">
+        <f t="shared" si="10"/>
         <v>6.407071156137055E-2</v>
       </c>
-      <c r="AB26" s="1040" t="s">
+      <c r="AB26" s="1087" t="s">
         <v>552</v>
       </c>
-      <c r="AC26" s="1041"/>
+      <c r="AC26" s="1088"/>
       <c r="AF26" s="304" t="s">
         <v>179</v>
       </c>
       <c r="AG26" s="481">
         <v>0</v>
       </c>
-      <c r="AH26" s="1064">
+      <c r="AH26" s="983">
         <f>AG26</f>
         <v>0</v>
       </c>
-      <c r="AI26" s="1068">
+      <c r="AI26" s="985">
         <f>1-AH26</f>
         <v>1</v>
       </c>
@@ -67066,11 +67086,11 @@
       <c r="AL26" s="481">
         <v>1</v>
       </c>
-      <c r="AM26" s="1064">
+      <c r="AM26" s="983">
         <f>AL26</f>
         <v>1</v>
       </c>
-      <c r="AN26" s="1068">
+      <c r="AN26" s="985">
         <f>1-AM26</f>
         <v>0</v>
       </c>
@@ -67078,199 +67098,199 @@
     </row>
     <row r="27" spans="2:41" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C27" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D27" s="25">
         <v>6</v>
       </c>
       <c r="E27" s="244">
         <f ca="1">E26+RAND()</f>
-        <v>28.637492116986454</v>
+        <v>28.345096474307589</v>
       </c>
       <c r="F27" s="243">
-        <f t="shared" ref="F27:F42" ca="1" si="11">F26+RAND()</f>
-        <v>25.967412197620302</v>
+        <f t="shared" ref="F27:F42" ca="1" si="12">F26+RAND()</f>
+        <v>26.013229189513002</v>
       </c>
       <c r="G27" s="242">
-        <f t="shared" ref="G27:G42" ca="1" si="12">G26+RAND()</f>
-        <v>4.0971018344044561</v>
+        <f t="shared" ref="G27:G42" ca="1" si="13">G26+RAND()</f>
+        <v>4.8419429570019883</v>
       </c>
       <c r="H27" s="241">
-        <f t="shared" ref="H27:H42" ca="1" si="13">H26+RAND()</f>
-        <v>19.06194043260675</v>
+        <f t="shared" ref="H27:H42" ca="1" si="14">H26+RAND()</f>
+        <v>19.033400919420412</v>
       </c>
       <c r="I27" s="240">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62250265909943359</v>
+        <v>0.60293839217071876</v>
       </c>
       <c r="J27" s="239">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31933091625455412</v>
+        <v>0.33658415313770734</v>
       </c>
       <c r="K27" s="238">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3480381716404991E-3</v>
+        <v>1.6921952378205307E-3</v>
       </c>
       <c r="L27" s="237">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6818386474371915E-2</v>
-      </c>
-      <c r="M27" s="1088">
-        <f t="shared" ca="1" si="2"/>
-        <v>108.04172997940505</v>
-      </c>
-      <c r="N27" s="1089">
+        <v>5.8785259453753409E-2</v>
+      </c>
+      <c r="M27" s="1001">
+        <f t="shared" ca="1" si="7"/>
+        <v>139.93629110572448</v>
+      </c>
+      <c r="N27" s="1002">
         <f t="shared" ca="1" si="1"/>
-        <v>7552.6374849242211</v>
-      </c>
-      <c r="O27" s="1083">
+        <v>7434.21943903597</v>
+      </c>
+      <c r="O27" s="996">
         <f t="shared" ca="1" si="8"/>
-        <v>0.37614930272892605</v>
+        <v>0.39536941259146074</v>
       </c>
       <c r="P27" s="355">
         <f t="shared" ca="1" si="9"/>
-        <v>30.53352163301334</v>
+        <v>30.368857499690225</v>
       </c>
       <c r="Q27" s="49">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.4890073542934843</v>
-      </c>
-      <c r="R27" s="1108"/>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.32434322097036983</v>
+      </c>
+      <c r="R27" s="1020"/>
       <c r="S27" s="116">
         <f ca="1">E27-E24</f>
-        <v>16.237492116986452</v>
+        <v>16.345096474307589</v>
       </c>
       <c r="T27" s="102">
         <f ca="1">H27-H24</f>
-        <v>2.4573662465396602</v>
+        <v>6.0456650830618859</v>
       </c>
       <c r="U27" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4890073542934843</v>
+        <v>0.32434322097036983</v>
       </c>
       <c r="W27" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bought 16.2374921169865 Shares of State 1 at a cost of 0.48901</v>
+        <v>Bought 16.3450964743076 Shares of State 1 at a cost of 0.32434</v>
       </c>
       <c r="X27" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Bought 2.45736624653966 Shares of State 2 at a cost of 0.48901</v>
+        <v>Bought 6.04566508306189 Shares of State 2 at a cost of 0.32434</v>
       </c>
       <c r="Y27" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bought 16.2374921169865 Shares of State 1 at a cost of 0.48901Bought 2.45736624653966 Shares of State 2 at a cost of 0.48901</v>
-      </c>
-      <c r="Z27" s="1094">
-        <f ca="1">(1-O27)*M27 + O27*N27</f>
-        <v>2908.3212323006205</v>
-      </c>
-      <c r="AA27" s="1109">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.8166424646012412E-2</v>
-      </c>
-      <c r="AB27" s="1106">
+        <v>Bought 16.3450964743076 Shares of State 1 at a cost of 0.32434Bought 6.04566508306189 Shares of State 2 at a cost of 0.32434</v>
+      </c>
+      <c r="Z27" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>3023.872734578697</v>
+      </c>
+      <c r="AA27" s="1021">
+        <f t="shared" ca="1" si="10"/>
+        <v>6.0477454691573937E-2</v>
+      </c>
+      <c r="AB27" s="1018">
         <f>SUMPRODUCT(AF29:AI29,I23:L23)</f>
-        <v>0.99999999999999967</v>
+        <v>0.82058005038814186</v>
       </c>
       <c r="AC27" s="7" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="2:41" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C28" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D28" s="25">
         <v>7</v>
       </c>
       <c r="E28" s="244">
-        <f t="shared" ref="E28:E42" ca="1" si="14">E27+RAND()</f>
-        <v>29.147687031200384</v>
+        <f t="shared" ref="E28:E42" ca="1" si="15">E27+RAND()</f>
+        <v>28.953452541278828</v>
       </c>
       <c r="F28" s="243">
-        <f t="shared" ca="1" si="11"/>
-        <v>26.154227508260849</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>26.841175492584831</v>
       </c>
       <c r="G28" s="242">
-        <f t="shared" ca="1" si="12"/>
-        <v>4.330751396179279</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>4.9751543099716065</v>
       </c>
       <c r="H28" s="241">
-        <f t="shared" ca="1" si="13"/>
-        <v>19.184608796788112</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>19.813482963165026</v>
       </c>
       <c r="I28" s="240">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64184580327109408</v>
+        <v>0.59031543286469546</v>
       </c>
       <c r="J28" s="239">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30368264107530069</v>
+        <v>0.3481341046858013</v>
       </c>
       <c r="K28" s="238">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2970781841304035E-3</v>
+        <v>1.4712059934960629E-3</v>
       </c>
       <c r="L28" s="237">
         <f t="shared" ca="1" si="0"/>
-        <v>5.317447746947486E-2</v>
-      </c>
-      <c r="M28" s="1088">
-        <f t="shared" ca="1" si="2"/>
-        <v>100.83903760199715</v>
-      </c>
-      <c r="N28" s="1089">
+        <v>6.0079256456007375E-2</v>
+      </c>
+      <c r="M28" s="1001">
+        <f t="shared" ca="1" si="7"/>
+        <v>124.30206233910975</v>
+      </c>
+      <c r="N28" s="1002">
         <f t="shared" ca="1" si="1"/>
-        <v>7450.3876630392842</v>
-      </c>
-      <c r="O28" s="1083">
+        <v>7358.8057343297651</v>
+      </c>
+      <c r="O28" s="996">
         <f t="shared" ca="1" si="8"/>
-        <v>0.35685711854477553</v>
+        <v>0.40821336114180867</v>
       </c>
       <c r="P28" s="355">
         <f t="shared" ca="1" si="9"/>
-        <v>30.92131577504508</v>
+        <v>31.0618455531711</v>
       </c>
       <c r="Q28" s="49">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.38779414203174056</v>
-      </c>
-      <c r="R28" s="1108"/>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.69298805348087456</v>
+      </c>
+      <c r="R28" s="1020"/>
       <c r="S28" s="116">
         <f ca="1">E28-E23</f>
-        <v>17.747687031200385</v>
+        <v>17.953452541278828</v>
       </c>
       <c r="T28" s="102">
         <f ca="1">H28-H23</f>
-        <v>17.384608796788111</v>
+        <v>17.313482963165026</v>
       </c>
       <c r="U28" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38779414203174056</v>
+        <v>0.69298805348087456</v>
       </c>
       <c r="W28" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bought 17.7476870312004 Shares of State 1 at a cost of 0.38779</v>
+        <v>Bought 17.9534525412788 Shares of State 1 at a cost of 0.69299</v>
       </c>
       <c r="X28" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Bought 17.3846087967881 Shares of State 2 at a cost of 0.38779</v>
+        <v>Bought 17.313482963165 Shares of State 2 at a cost of 0.69299</v>
       </c>
       <c r="Y28" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bought 17.7476870312004 Shares of State 1 at a cost of 0.38779Bought 17.3846087967881 Shares of State 2 at a cost of 0.38779</v>
-      </c>
-      <c r="Z28" s="1094">
-        <f ca="1">(1-O28)*M28 + O28*N28</f>
-        <v>2723.5777826802632</v>
-      </c>
-      <c r="AA28" s="1109">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.4471555653605265E-2</v>
+        <v>Bought 17.9534525412788 Shares of State 1 at a cost of 0.69299Bought 17.313482963165 Shares of State 2 at a cost of 0.69299</v>
+      </c>
+      <c r="Z28" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>3077.5231224751719</v>
+      </c>
+      <c r="AA28" s="1021">
+        <f t="shared" ca="1" si="10"/>
+        <v>6.1550462449503442E-2</v>
       </c>
       <c r="AF28" s="482">
         <f>AI25*AI26</f>
-        <v>0.82000000000000006</v>
+        <v>0.91</v>
       </c>
       <c r="AG28" s="482">
         <f>AI25*AH26</f>
@@ -67278,7 +67298,7 @@
       </c>
       <c r="AH28" s="482">
         <f>AH25*AI26</f>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="AI28" s="482">
         <f>AH25*AH26</f>
@@ -67291,7 +67311,7 @@
       </c>
       <c r="AL28" s="482">
         <f>AN25*AM26</f>
-        <v>0.82000000000000006</v>
+        <v>0.91</v>
       </c>
       <c r="AM28" s="482">
         <f>AM25*AN26</f>
@@ -67299,101 +67319,101 @@
       </c>
       <c r="AN28" s="482">
         <f>AM25*AM26</f>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="AO28" s="33"/>
     </row>
     <row r="29" spans="2:41" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C29" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D29" s="25">
         <v>6</v>
       </c>
       <c r="E29" s="244">
+        <f t="shared" ca="1" si="15"/>
+        <v>29.113405908746739</v>
+      </c>
+      <c r="F29" s="243">
+        <f t="shared" ca="1" si="12"/>
+        <v>27.529304146578891</v>
+      </c>
+      <c r="G29" s="242">
+        <f t="shared" ca="1" si="13"/>
+        <v>5.2911021328930197</v>
+      </c>
+      <c r="H29" s="241">
         <f t="shared" ca="1" si="14"/>
-        <v>29.86245680007103</v>
-      </c>
-      <c r="F29" s="243">
-        <f t="shared" ca="1" si="11"/>
-        <v>26.497147306382377</v>
-      </c>
-      <c r="G29" s="242">
-        <f t="shared" ca="1" si="12"/>
-        <v>4.6234908679082158</v>
-      </c>
-      <c r="H29" s="241">
-        <f t="shared" ca="1" si="13"/>
-        <v>19.431170178216149</v>
+        <v>20.778715807114715</v>
       </c>
       <c r="I29" s="240">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66372359776963674</v>
+        <v>0.55553914563408568</v>
       </c>
       <c r="J29" s="239">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28615637323701976</v>
+        <v>0.37387205323842571</v>
       </c>
       <c r="K29" s="238">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2069835477816276E-3</v>
+        <v>1.4395968826920273E-3</v>
       </c>
       <c r="L29" s="237">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8913045445561694E-2</v>
-      </c>
-      <c r="M29" s="1088">
-        <f t="shared" ca="1" si="2"/>
-        <v>90.760117047876392</v>
-      </c>
-      <c r="N29" s="1089">
+        <v>6.9149204244796633E-2</v>
+      </c>
+      <c r="M29" s="1001">
+        <f t="shared" ca="1" si="7"/>
+        <v>129.23265941775711</v>
+      </c>
+      <c r="N29" s="1002">
         <f t="shared" ca="1" si="1"/>
-        <v>7298.942057719998</v>
-      </c>
-      <c r="O29" s="1083">
+        <v>7804.2761015158949</v>
+      </c>
+      <c r="O29" s="996">
         <f t="shared" ca="1" si="8"/>
-        <v>0.33506941868258144</v>
+        <v>0.44302125748322235</v>
       </c>
       <c r="P29" s="355">
         <f t="shared" ca="1" si="9"/>
-        <v>31.502014738425729</v>
+        <v>31.464670721534802</v>
       </c>
       <c r="Q29" s="49">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.58069896338064808</v>
-      </c>
-      <c r="R29" s="1108"/>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.40282516836370164</v>
+      </c>
+      <c r="R29" s="1020"/>
       <c r="S29" s="116">
         <f ca="1">E29-E24</f>
-        <v>17.462456800071031</v>
+        <v>17.113405908746739</v>
       </c>
       <c r="T29" s="102">
         <f ca="1">H29-H24</f>
-        <v>2.8265959921490591</v>
+        <v>7.7909799707561884</v>
       </c>
       <c r="U29" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58069896338064808</v>
+        <v>0.40282516836370164</v>
       </c>
       <c r="W29" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bought 17.462456800071 Shares of State 1 at a cost of 0.5807</v>
+        <v>Bought 17.1134059087467 Shares of State 1 at a cost of 0.40283</v>
       </c>
       <c r="X29" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Bought 2.82659599214906 Shares of State 2 at a cost of 0.5807</v>
+        <v>Bought 7.79097997075619 Shares of State 2 at a cost of 0.40283</v>
       </c>
       <c r="Y29" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bought 17.462456800071 Shares of State 1 at a cost of 0.5807Bought 2.82659599214906 Shares of State 2 at a cost of 0.5807</v>
-      </c>
-      <c r="Z29" s="1094">
-        <f ca="1">(1-O29)*M29 + O29*N29</f>
-        <v>2506.0014496671661</v>
-      </c>
-      <c r="AA29" s="1109">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.0120028993343321E-2</v>
+        <v>Bought 17.1134059087467 Shares of State 1 at a cost of 0.40283Bought 7.79097997075619 Shares of State 2 at a cost of 0.40283</v>
+      </c>
+      <c r="Z29" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>3529.4400563744334</v>
+      </c>
+      <c r="AA29" s="1021">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.0588801127488665E-2</v>
       </c>
       <c r="AC29"/>
       <c r="AE29" s="21" t="s">
@@ -67409,11 +67429,11 @@
       </c>
       <c r="AH29" s="649">
         <f>G24-G23</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="AI29" s="649">
         <f>H24-H23</f>
-        <v>14.804574186067089</v>
+        <v>10.487735836358526</v>
       </c>
       <c r="AJ29" s="190"/>
       <c r="AK29" s="649">
@@ -67421,215 +67441,215 @@
         <v>1</v>
       </c>
       <c r="AL29" s="649">
-        <f t="shared" ref="AL29:AN29" si="15">AG29</f>
+        <f t="shared" ref="AL29:AN29" si="16">AG29</f>
         <v>0</v>
       </c>
       <c r="AM29" s="649">
-        <f t="shared" si="15"/>
-        <v>0.99999999999999989</v>
+        <f t="shared" si="16"/>
+        <v>1</v>
       </c>
       <c r="AN29" s="649">
-        <f t="shared" si="15"/>
-        <v>14.804574186067089</v>
+        <f t="shared" si="16"/>
+        <v>10.487735836358526</v>
       </c>
       <c r="AO29" s="33"/>
     </row>
     <row r="30" spans="2:41" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C30" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D30" s="25">
         <v>7</v>
       </c>
       <c r="E30" s="244">
+        <f t="shared" ca="1" si="15"/>
+        <v>29.944146261688751</v>
+      </c>
+      <c r="F30" s="243">
+        <f t="shared" ca="1" si="12"/>
+        <v>27.749826825896726</v>
+      </c>
+      <c r="G30" s="242">
+        <f t="shared" ca="1" si="13"/>
+        <v>5.7307081548649288</v>
+      </c>
+      <c r="H30" s="241">
         <f t="shared" ca="1" si="14"/>
-        <v>30.75329586667424</v>
-      </c>
-      <c r="F30" s="243">
-        <f t="shared" ca="1" si="11"/>
-        <v>26.947226151998247</v>
-      </c>
-      <c r="G30" s="242">
-        <f t="shared" ca="1" si="12"/>
-        <v>4.6862162978533473</v>
-      </c>
-      <c r="H30" s="241">
-        <f t="shared" ca="1" si="13"/>
-        <v>19.702084861615802</v>
+        <v>21.100720626959056</v>
       </c>
       <c r="I30" s="240">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68929974136763383</v>
+        <v>0.59181177395183093</v>
       </c>
       <c r="J30" s="239">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26617627732677007</v>
+        <v>0.34193093628191401</v>
       </c>
       <c r="K30" s="238">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0190861786759744E-3</v>
+        <v>1.3907304437482059E-3</v>
       </c>
       <c r="L30" s="237">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3504895126920087E-2</v>
-      </c>
-      <c r="M30" s="1088">
-        <f t="shared" ca="1" si="2"/>
-        <v>73.812717979766333</v>
-      </c>
-      <c r="N30" s="1089">
+        <v>6.4866559322506789E-2</v>
+      </c>
+      <c r="M30" s="1001">
+        <f t="shared" ca="1" si="7"/>
+        <v>117.22223300163215</v>
+      </c>
+      <c r="N30" s="1002">
         <f t="shared" ca="1" si="1"/>
-        <v>7024.1427307670483</v>
-      </c>
-      <c r="O30" s="1083">
+        <v>7972.8316943210139</v>
+      </c>
+      <c r="O30" s="996">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30968117245369015</v>
+        <v>0.4067974956044208</v>
       </c>
       <c r="P30" s="355">
         <f t="shared" ca="1" si="9"/>
-        <v>32.241612123877303</v>
+        <v>32.042412837930556</v>
       </c>
       <c r="Q30" s="49">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.7395973854515745</v>
-      </c>
-      <c r="R30" s="1108"/>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.57774211639575412</v>
+      </c>
+      <c r="R30" s="1020"/>
       <c r="S30" s="116">
         <f ca="1">E30-E23</f>
-        <v>19.353295866674237</v>
+        <v>18.944146261688751</v>
       </c>
       <c r="T30" s="102">
         <f ca="1">H30-H23</f>
-        <v>17.902084861615801</v>
+        <v>18.600720626959056</v>
       </c>
       <c r="U30" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7395973854515745</v>
+        <v>0.57774211639575412</v>
       </c>
       <c r="W30" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bought 19.3532958666742 Shares of State 1 at a cost of 0.7396</v>
+        <v>Bought 18.9441462616888 Shares of State 1 at a cost of 0.57774</v>
       </c>
       <c r="X30" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Bought 17.9020848616158 Shares of State 2 at a cost of 0.7396</v>
+        <v>Bought 18.6007206269591 Shares of State 2 at a cost of 0.57774</v>
       </c>
       <c r="Y30" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bought 19.3532958666742 Shares of State 1 at a cost of 0.7396Bought 17.9020848616158 Shares of State 2 at a cost of 0.7396</v>
-      </c>
-      <c r="Z30" s="1094">
-        <f ca="1">(1-O30)*M30 + O30*N30</f>
-        <v>2226.1990652798027</v>
-      </c>
-      <c r="AA30" s="1109">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.4523981305596053E-2</v>
+        <v>Bought 18.9441462616888 Shares of State 1 at a cost of 0.57774Bought 18.6007206269591 Shares of State 2 at a cost of 0.57774</v>
+      </c>
+      <c r="Z30" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>3312.8644883127499</v>
+      </c>
+      <c r="AA30" s="1021">
+        <f t="shared" ca="1" si="10"/>
+        <v>6.6257289766255001E-2</v>
       </c>
       <c r="AJ30" s="142"/>
     </row>
     <row r="31" spans="2:41" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C31" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D31" s="25">
         <v>6</v>
       </c>
       <c r="E31" s="244">
+        <f t="shared" ca="1" si="15"/>
+        <v>30.424297446141185</v>
+      </c>
+      <c r="F31" s="243">
+        <f t="shared" ca="1" si="12"/>
+        <v>28.117666176463214</v>
+      </c>
+      <c r="G31" s="242">
+        <f t="shared" ca="1" si="13"/>
+        <v>6.1300931696133629</v>
+      </c>
+      <c r="H31" s="241">
         <f t="shared" ca="1" si="14"/>
-        <v>31.287022739241632</v>
-      </c>
-      <c r="F31" s="243">
-        <f t="shared" ca="1" si="11"/>
-        <v>27.822613522303087</v>
-      </c>
-      <c r="G31" s="242">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.0312612628691866</v>
-      </c>
-      <c r="H31" s="241">
-        <f t="shared" ca="1" si="13"/>
-        <v>20.481227683858371</v>
+        <v>21.771684010356683</v>
       </c>
       <c r="I31" s="240">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67154376791095793</v>
+        <v>0.59557920874725789</v>
       </c>
       <c r="J31" s="239">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28244303632337686</v>
+        <v>0.33458018763165714</v>
       </c>
       <c r="K31" s="238">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4708997861040996E-4</v>
+        <v>1.3716073811226915E-3</v>
       </c>
       <c r="L31" s="237">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5066105787054847E-2</v>
-      </c>
-      <c r="M31" s="1088">
-        <f t="shared" ca="1" si="2"/>
-        <v>70.416569050663171</v>
-      </c>
-      <c r="N31" s="1089">
+        <v>6.8468996239962207E-2</v>
+      </c>
+      <c r="M31" s="1001">
+        <f t="shared" ca="1" si="7"/>
+        <v>114.88445480470813</v>
+      </c>
+      <c r="N31" s="1002">
         <f t="shared" ca="1" si="1"/>
-        <v>6880.1294364874793</v>
-      </c>
-      <c r="O31" s="1083">
+        <v>8493.8760553068369</v>
+      </c>
+      <c r="O31" s="996">
         <f t="shared" ca="1" si="8"/>
-        <v>0.32750914211043169</v>
+        <v>0.40304918387161937</v>
       </c>
       <c r="P31" s="355">
         <f t="shared" ca="1" si="9"/>
-        <v>32.87972708254776</v>
+        <v>32.497180993589495</v>
       </c>
       <c r="Q31" s="49">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.63811495867045664</v>
-      </c>
-      <c r="R31" s="1108"/>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.45476815565893958</v>
+      </c>
+      <c r="R31" s="1020"/>
       <c r="S31" s="116">
         <f ca="1">E31-E26</f>
-        <v>3.0970227392416305</v>
+        <v>2.2342974461411842</v>
       </c>
       <c r="T31" s="102">
         <f ca="1">H31-H26</f>
-        <v>1.5212276838583705</v>
+        <v>2.8116840103566823</v>
       </c>
       <c r="U31" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63811495867045664</v>
+        <v>0.45476815565893958</v>
       </c>
       <c r="W31" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bought 3.09702273924163 Shares of State 1 at a cost of 0.63811</v>
+        <v>Bought 2.23429744614118 Shares of State 1 at a cost of 0.45477</v>
       </c>
       <c r="X31" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Bought 1.52122768385837 Shares of State 2 at a cost of 0.63811</v>
+        <v>Bought 2.81168401035668 Shares of State 2 at a cost of 0.45477</v>
       </c>
       <c r="Y31" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bought 3.09702273924163 Shares of State 1 at a cost of 0.63811Bought 1.52122768385837 Shares of State 2 at a cost of 0.63811</v>
-      </c>
-      <c r="Z31" s="1094">
-        <f ca="1">(1-O31)*M31 + O31*N31</f>
-        <v>2300.659788283263</v>
-      </c>
-      <c r="AA31" s="1109">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.601319576566526E-2</v>
+        <v>Bought 2.23429744614118 Shares of State 1 at a cost of 0.45477Bought 2.81168401035668 Shares of State 2 at a cost of 0.45477</v>
+      </c>
+      <c r="Z31" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>3492.0301810542451</v>
+      </c>
+      <c r="AA31" s="1021">
+        <f t="shared" ca="1" si="10"/>
+        <v>6.9840603621084907E-2</v>
       </c>
       <c r="AE31" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="AF31" s="1066">
+      <c r="AF31" s="984">
         <f>SUMPRODUCT(AF28:AI28,AF29:AI29)</f>
         <v>1</v>
       </c>
-      <c r="AK31" s="1107">
+      <c r="AK31" s="1019">
         <f>SUMPRODUCT(AK28:AN28,AK29:AN29)</f>
-        <v>2.6648233534920758</v>
+        <v>0.94389622527226735</v>
       </c>
       <c r="AM31" s="33"/>
       <c r="AN31" s="33"/>
@@ -67637,110 +67657,110 @@
     </row>
     <row r="32" spans="2:41" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C32" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D32" s="25">
         <v>7</v>
       </c>
       <c r="E32" s="244">
+        <f t="shared" ca="1" si="15"/>
+        <v>30.616582625995587</v>
+      </c>
+      <c r="F32" s="243">
+        <f t="shared" ca="1" si="12"/>
+        <v>28.660863137862506</v>
+      </c>
+      <c r="G32" s="242">
+        <f t="shared" ca="1" si="13"/>
+        <v>6.948197059405925</v>
+      </c>
+      <c r="H32" s="241">
         <f t="shared" ca="1" si="14"/>
-        <v>31.357120656751739</v>
-      </c>
-      <c r="F32" s="243">
-        <f t="shared" ca="1" si="11"/>
-        <v>27.925791421164913</v>
-      </c>
-      <c r="G32" s="242">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.3925228591796479</v>
-      </c>
-      <c r="H32" s="241">
-        <f t="shared" ca="1" si="13"/>
-        <v>20.799588537502189</v>
+        <v>22.48472370536788</v>
       </c>
       <c r="I32" s="240">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66800156655283127</v>
+        <v>0.57243538209671507</v>
       </c>
       <c r="J32" s="239">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28328634610185494</v>
+        <v>0.35106450704133563</v>
       </c>
       <c r="K32" s="238">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0132277925934093E-3</v>
+        <v>1.5415732220125785E-3</v>
       </c>
       <c r="L32" s="237">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7698859552720414E-2</v>
-      </c>
-      <c r="M32" s="1088">
-        <f t="shared" ca="1" si="2"/>
-        <v>75.725365205471164</v>
-      </c>
-      <c r="N32" s="1089">
+        <v>7.4958537639936818E-2</v>
+      </c>
+      <c r="M32" s="1001">
+        <f t="shared" ca="1" si="7"/>
+        <v>134.28877307073657</v>
+      </c>
+      <c r="N32" s="1002">
         <f t="shared" ca="1" si="1"/>
-        <v>7205.5878537514109</v>
-      </c>
-      <c r="O32" s="1083">
+        <v>8797.4745234752227</v>
+      </c>
+      <c r="O32" s="996">
         <f t="shared" ca="1" si="8"/>
-        <v>0.33098520565457534</v>
+        <v>0.42602304468127244</v>
       </c>
       <c r="P32" s="355">
         <f t="shared" ca="1" si="9"/>
-        <v>32.970979697988831</v>
+        <v>32.848004304491859</v>
       </c>
       <c r="Q32" s="49">
-        <f t="shared" ca="1" si="10"/>
-        <v>9.1252615441071327E-2</v>
-      </c>
-      <c r="R32" s="1108"/>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.35082331090236352</v>
+      </c>
+      <c r="R32" s="1020"/>
       <c r="S32" s="116">
         <f ca="1">E32-E25</f>
-        <v>5.0571206567517386</v>
+        <v>4.3165826259955864</v>
       </c>
       <c r="T32" s="102">
         <f ca="1">H32-H25</f>
-        <v>3.7995885375021885</v>
+        <v>5.4847237053678803</v>
       </c>
       <c r="U32" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1252615441071327E-2</v>
+        <v>0.35082331090236352</v>
       </c>
       <c r="W32" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bought 5.05712065675174 Shares of State 1 at a cost of 0.09125</v>
+        <v>Bought 4.31658262599559 Shares of State 1 at a cost of 0.35082</v>
       </c>
       <c r="X32" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Bought 3.79958853750219 Shares of State 2 at a cost of 0.09125</v>
+        <v>Bought 5.48472370536788 Shares of State 2 at a cost of 0.35082</v>
       </c>
       <c r="Y32" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bought 5.05712065675174 Shares of State 1 at a cost of 0.09125Bought 3.79958853750219 Shares of State 2 at a cost of 0.09125</v>
-      </c>
-      <c r="Z32" s="1094">
-        <f ca="1">(1-O32)*M32 + O32*N32</f>
-        <v>2435.6043672656911</v>
-      </c>
-      <c r="AA32" s="1109">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.871208734531382E-2</v>
+        <v>Bought 4.31658262599559 Shares of State 1 at a cost of 0.35082Bought 5.48472370536788 Shares of State 2 at a cost of 0.35082</v>
+      </c>
+      <c r="Z32" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>3825.0055430974694</v>
+      </c>
+      <c r="AA32" s="1021">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.6500110861949383E-2</v>
       </c>
       <c r="AE32" s="21" t="s">
         <v>553</v>
       </c>
       <c r="AF32" s="630">
         <f>(AF31-$AB$27)/$AB$27</f>
-        <v>3.3306690738754706E-16</v>
+        <v>0.21865014818114439</v>
       </c>
       <c r="AG32" s="7" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="AJ32" s="17"/>
       <c r="AK32" s="630">
         <f>(AK31-$AB$27)/$AB$27</f>
-        <v>1.6648233534920767</v>
+        <v>0.15027927479567146</v>
       </c>
       <c r="AL32" s="7" t="s">
         <v>562</v>
@@ -67751,188 +67771,205 @@
     </row>
     <row r="33" spans="3:42" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C33" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D33" s="25">
         <v>8</v>
       </c>
       <c r="E33" s="244">
+        <f t="shared" ca="1" si="15"/>
+        <v>30.74187108227656</v>
+      </c>
+      <c r="F33" s="243">
+        <f t="shared" ca="1" si="12"/>
+        <v>28.832885720828145</v>
+      </c>
+      <c r="G33" s="242">
+        <f t="shared" ca="1" si="13"/>
+        <v>7.5088761957281136</v>
+      </c>
+      <c r="H33" s="241">
         <f t="shared" ca="1" si="14"/>
-        <v>31.794308289923325</v>
-      </c>
-      <c r="F33" s="243">
-        <f t="shared" ca="1" si="11"/>
-        <v>28.818785890092744</v>
-      </c>
-      <c r="G33" s="242">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.4692893452282156</v>
-      </c>
-      <c r="H33" s="241">
-        <f t="shared" ca="1" si="13"/>
-        <v>21.762244661176254</v>
+        <v>23.260586835670349</v>
       </c>
       <c r="I33" s="240">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64181483995424027</v>
+        <v>0.5625668482553885</v>
       </c>
       <c r="J33" s="239">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30503278140478962</v>
+        <v>0.34906691173624244</v>
       </c>
       <c r="K33" s="238">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8962532737683095E-4</v>
+        <v>1.6892104775415296E-3</v>
       </c>
       <c r="L33" s="237">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2262753313593334E-2</v>
-      </c>
-      <c r="M33" s="1088">
-        <f t="shared" ca="1" si="2"/>
-        <v>69.209518171545568</v>
-      </c>
-      <c r="N33" s="1089">
+        <v>8.667702953082744E-2</v>
+      </c>
+      <c r="M33" s="1001">
+        <f t="shared" ca="1" si="7"/>
+        <v>149.68474431047761</v>
+      </c>
+      <c r="N33" s="1002">
         <f t="shared" ca="1" si="1"/>
-        <v>7313.6588951197446</v>
-      </c>
-      <c r="O33" s="1083">
+        <v>9945.8674375121827</v>
+      </c>
+      <c r="O33" s="996">
         <f t="shared" ca="1" si="8"/>
-        <v>0.35729553471838293</v>
+        <v>0.43574394126706989</v>
       </c>
       <c r="P33" s="355">
         <f t="shared" ca="1" si="9"/>
-        <v>33.568130002631086</v>
+        <v>33.042852324763452</v>
       </c>
       <c r="Q33" s="49">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.59715030464225549</v>
-      </c>
-      <c r="R33" s="1108"/>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.19484802027159276</v>
+      </c>
+      <c r="R33" s="1020"/>
       <c r="S33" s="116">
         <f ca="1">E33-E24</f>
-        <v>19.394308289923323</v>
+        <v>18.74187108227656</v>
       </c>
       <c r="T33" s="102">
         <f ca="1">H33-H24</f>
-        <v>5.157670475109164</v>
+        <v>10.272850999311823</v>
       </c>
       <c r="U33" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59715030464225549</v>
+        <v>0.19484802027159276</v>
       </c>
       <c r="W33" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bought 19.3943082899233 Shares of State 1 at a cost of 0.59715</v>
+        <v>Bought 18.7418710822766 Shares of State 1 at a cost of 0.19485</v>
       </c>
       <c r="X33" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Bought 5.15767047510916 Shares of State 2 at a cost of 0.59715</v>
+        <v>Bought 10.2728509993118 Shares of State 2 at a cost of 0.19485</v>
       </c>
       <c r="Y33" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bought 19.3943082899233 Shares of State 1 at a cost of 0.59715Bought 5.15767047510916 Shares of State 2 at a cost of 0.59715</v>
-      </c>
-      <c r="Z33" s="1094">
-        <f ca="1">(1-O33)*M33 + O33*N33</f>
-        <v>2657.6189320485087</v>
-      </c>
-      <c r="AA33" s="1101">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.3152378640970173E-2</v>
+        <v>Bought 18.7418710822766 Shares of State 1 at a cost of 0.19485Bought 10.2728509993118 Shares of State 2 at a cost of 0.19485</v>
+      </c>
+      <c r="Z33" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>4418.3120004184475</v>
+      </c>
+      <c r="AA33" s="1014">
+        <f t="shared" ca="1" si="10"/>
+        <v>8.8366240008368943E-2</v>
+      </c>
+      <c r="AE33" s="144" t="s">
+        <v>575</v>
+      </c>
+      <c r="AF33" s="630">
+        <f>(AF31-1)/1</f>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="AK33" s="630">
+        <f>(AK31-1)/1</f>
+        <v>-5.6103774727732647E-2</v>
+      </c>
+      <c r="AL33" s="7" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="34" spans="3:42" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C34" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D34" s="25">
         <v>9</v>
       </c>
       <c r="E34" s="244">
+        <f t="shared" ca="1" si="15"/>
+        <v>31.461752920905379</v>
+      </c>
+      <c r="F34" s="243">
+        <f t="shared" ca="1" si="12"/>
+        <v>29.05367420504157</v>
+      </c>
+      <c r="G34" s="242">
+        <f t="shared" ca="1" si="13"/>
+        <v>7.5899796354532141</v>
+      </c>
+      <c r="H34" s="241">
         <f t="shared" ca="1" si="14"/>
-        <v>32.404271540847994</v>
-      </c>
-      <c r="F34" s="243">
-        <f t="shared" ca="1" si="11"/>
-        <v>29.11119506549748</v>
-      </c>
-      <c r="G34" s="242">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.6070520573233065</v>
-      </c>
-      <c r="H34" s="241">
-        <f t="shared" ca="1" si="13"/>
-        <v>22.14712844480324</v>
+        <v>23.949857746566721</v>
       </c>
       <c r="I34" s="240">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65910884630265654</v>
+        <v>0.58714271488735437</v>
       </c>
       <c r="J34" s="239">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28934494883291134</v>
+        <v>0.32158060806603772</v>
       </c>
       <c r="K34" s="238">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1186908180681469E-4</v>
+        <v>1.5027918248952943E-3</v>
       </c>
       <c r="L34" s="237">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0734335782625192E-2</v>
-      </c>
-      <c r="M34" s="1088">
-        <f t="shared" ca="1" si="2"/>
-        <v>61.51262287120565</v>
-      </c>
-      <c r="N34" s="1089">
+        <v>8.9773885221712674E-2</v>
+      </c>
+      <c r="M34" s="1001">
+        <f t="shared" ca="1" si="7"/>
+        <v>127.64828812580328</v>
+      </c>
+      <c r="N34" s="1002">
         <f t="shared" ca="1" si="1"/>
-        <v>7459.1923233402658</v>
-      </c>
-      <c r="O34" s="1083">
+        <v>10911.985487771748</v>
+      </c>
+      <c r="O34" s="996">
         <f t="shared" ca="1" si="8"/>
-        <v>0.34007928461553655</v>
+        <v>0.41135449328775042</v>
       </c>
       <c r="P34" s="355">
         <f t="shared" ca="1" si="9"/>
-        <v>34.071737897736867</v>
+        <v>33.591702372231424</v>
       </c>
       <c r="Q34" s="49">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.5036078951057803</v>
-      </c>
-      <c r="R34" s="1108"/>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.5488500474679725</v>
+      </c>
+      <c r="R34" s="1020"/>
       <c r="S34" s="116">
         <f ca="1">E34-E26</f>
-        <v>4.2142715408479923</v>
+        <v>3.2717529209053779</v>
       </c>
       <c r="T34" s="102">
         <f ca="1">H34-H26</f>
-        <v>3.1871284448032391</v>
+        <v>4.9898577465667202</v>
       </c>
       <c r="U34" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5036078951057803</v>
+        <v>0.5488500474679725</v>
       </c>
       <c r="W34" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bought 4.21427154084799 Shares of State 1 at a cost of 0.50361</v>
+        <v>Bought 3.27175292090538 Shares of State 1 at a cost of 0.54885</v>
       </c>
       <c r="X34" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Bought 3.18712844480324 Shares of State 2 at a cost of 0.50361</v>
+        <v>Bought 4.98985774656672 Shares of State 2 at a cost of 0.54885</v>
       </c>
       <c r="Y34" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bought 4.21427154084799 Shares of State 1 at a cost of 0.50361Bought 3.18712844480324 Shares of State 2 at a cost of 0.50361</v>
-      </c>
-      <c r="Z34" s="1094">
-        <f ca="1">(1-O34)*M34 + O34*N34</f>
-        <v>2577.3102432216006</v>
-      </c>
-      <c r="AA34" s="1101">
-        <f t="shared" ca="1" si="7"/>
-        <v>5.154620486443201E-2</v>
+        <v>Bought 3.27175292090538 Shares of State 1 at a cost of 0.54885Bought 4.98985774656672 Shares of State 2 at a cost of 0.54885</v>
+      </c>
+      <c r="Z34" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>4563.8338523303983</v>
+      </c>
+      <c r="AA34" s="1014">
+        <f t="shared" ca="1" si="10"/>
+        <v>9.1276677046607968E-2</v>
       </c>
       <c r="AE34" s="8"/>
       <c r="AF34" s="8"/>
@@ -67949,95 +67986,95 @@
     </row>
     <row r="35" spans="3:42" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C35" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D35" s="25">
         <v>10</v>
       </c>
       <c r="E35" s="244">
+        <f t="shared" ca="1" si="15"/>
+        <v>31.99163190415948</v>
+      </c>
+      <c r="F35" s="243">
+        <f t="shared" ca="1" si="12"/>
+        <v>29.583328253892294</v>
+      </c>
+      <c r="G35" s="242">
+        <f t="shared" ca="1" si="13"/>
+        <v>7.9760757939428935</v>
+      </c>
+      <c r="H35" s="241">
         <f t="shared" ca="1" si="14"/>
-        <v>32.691498631415946</v>
-      </c>
-      <c r="F35" s="243">
-        <f t="shared" ca="1" si="11"/>
-        <v>30.090271093001647</v>
-      </c>
-      <c r="G35" s="242">
-        <f t="shared" ca="1" si="12"/>
-        <v>5.8883352739479102</v>
-      </c>
-      <c r="H35" s="241">
-        <f t="shared" ca="1" si="13"/>
-        <v>22.350954712435193</v>
+        <v>24.656402702955127</v>
       </c>
       <c r="I35" s="240">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62558595495870672</v>
+        <v>0.58481356709899468</v>
       </c>
       <c r="J35" s="239">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32648429740759871</v>
+        <v>0.32028691234119017</v>
       </c>
       <c r="K35" s="238">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6943245994912427E-4</v>
+        <v>1.4439812854413832E-3</v>
       </c>
       <c r="L35" s="237">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7160315173745401E-2</v>
-      </c>
-      <c r="M35" s="1088">
-        <f t="shared" ca="1" si="2"/>
-        <v>61.42139713367196</v>
-      </c>
-      <c r="N35" s="1089">
+        <v>9.345553927437375E-2</v>
+      </c>
+      <c r="M35" s="1001">
+        <f t="shared" ca="1" si="7"/>
+        <v>123.15246852007253</v>
+      </c>
+      <c r="N35" s="1002">
         <f t="shared" ca="1" si="1"/>
-        <v>6310.8517540151051</v>
-      </c>
-      <c r="O35" s="1083">
+        <v>11293.926802706919</v>
+      </c>
+      <c r="O35" s="996">
         <f t="shared" ca="1" si="8"/>
-        <v>0.37364461258134413</v>
+        <v>0.41374245161556389</v>
       </c>
       <c r="P35" s="355">
         <f t="shared" ca="1" si="9"/>
-        <v>34.567764793482461</v>
+        <v>34.137480589207435</v>
       </c>
       <c r="Q35" s="49">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.49602689574559378</v>
-      </c>
-      <c r="R35" s="1108"/>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.54577821697601081</v>
+      </c>
+      <c r="R35" s="1020"/>
       <c r="S35" s="116">
         <f ca="1">E35-E25</f>
-        <v>6.3914986314159457</v>
+        <v>5.6916319041594789</v>
       </c>
       <c r="T35" s="102">
         <f ca="1">H35-H25</f>
-        <v>5.3509547124351933</v>
+        <v>7.6564027029551269</v>
       </c>
       <c r="U35" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49602689574559378</v>
+        <v>0.54577821697601081</v>
       </c>
       <c r="W35" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bought 6.39149863141595 Shares of State 1 at a cost of 0.49603</v>
+        <v>Bought 5.69163190415948 Shares of State 1 at a cost of 0.54578</v>
       </c>
       <c r="X35" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Bought 5.35095471243519 Shares of State 2 at a cost of 0.49603</v>
+        <v>Bought 7.65640270295513 Shares of State 2 at a cost of 0.54578</v>
       </c>
       <c r="Y35" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bought 6.39149863141595 Shares of State 1 at a cost of 0.49603Bought 5.35095471243519 Shares of State 2 at a cost of 0.49603</v>
-      </c>
-      <c r="Z35" s="1094">
-        <f ca="1">(1-O35)*M35 + O35*N35</f>
-        <v>2396.4873816847262</v>
-      </c>
-      <c r="AA35" s="1101">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.7929747633694522E-2</v>
+        <v>Bought 5.69163190415948 Shares of State 1 at a cost of 0.54578Bought 7.65640270295513 Shares of State 2 at a cost of 0.54578</v>
+      </c>
+      <c r="Z35" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>4744.9760279907568</v>
+      </c>
+      <c r="AA35" s="1014">
+        <f t="shared" ca="1" si="10"/>
+        <v>9.489952055981514E-2</v>
       </c>
       <c r="AE35" s="8"/>
       <c r="AF35" s="8"/>
@@ -68054,95 +68091,95 @@
     </row>
     <row r="36" spans="3:42" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C36" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D36" s="25">
         <v>11</v>
       </c>
       <c r="E36" s="244">
+        <f t="shared" ca="1" si="15"/>
+        <v>32.302834082299931</v>
+      </c>
+      <c r="F36" s="243">
+        <f t="shared" ca="1" si="12"/>
+        <v>29.771757426287959</v>
+      </c>
+      <c r="G36" s="242">
+        <f t="shared" ca="1" si="13"/>
+        <v>8.0223607504922629</v>
+      </c>
+      <c r="H36" s="241">
         <f t="shared" ca="1" si="14"/>
-        <v>32.73599489370897</v>
-      </c>
-      <c r="F36" s="243">
-        <f t="shared" ca="1" si="11"/>
-        <v>31.013137330571944</v>
-      </c>
-      <c r="G36" s="242">
-        <f t="shared" ca="1" si="12"/>
-        <v>6.1419824344211591</v>
-      </c>
-      <c r="H36" s="241">
-        <f t="shared" ca="1" si="13"/>
-        <v>22.83697525643716</v>
+        <v>24.668286975021037</v>
       </c>
       <c r="I36" s="240">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57619481414152229</v>
+        <v>0.5946320315065341</v>
       </c>
       <c r="J36" s="239">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37455229462403888</v>
+        <v>0.31582037416856062</v>
       </c>
       <c r="K36" s="238">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4672575310184798E-4</v>
+        <v>1.3741350063110227E-3</v>
       </c>
       <c r="L36" s="237">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8506165481336891E-2</v>
-      </c>
-      <c r="M36" s="1088">
-        <f t="shared" ca="1" si="2"/>
-        <v>64.714160921593034</v>
-      </c>
-      <c r="N36" s="1089">
+        <v>8.8173459318594119E-2</v>
+      </c>
+      <c r="M36" s="1001">
+        <f t="shared" ca="1" si="7"/>
+        <v>115.27858967893812</v>
+      </c>
+      <c r="N36" s="1002">
         <f t="shared" ca="1" si="1"/>
-        <v>5732.7970074460782</v>
-      </c>
-      <c r="O36" s="1083">
+        <v>10912.723414304002</v>
+      </c>
+      <c r="O36" s="996">
         <f t="shared" ca="1" si="8"/>
-        <v>0.42305846010537579</v>
+        <v>0.40399383348715473</v>
       </c>
       <c r="P36" s="355">
         <f t="shared" ca="1" si="9"/>
-        <v>34.941232719603768</v>
+        <v>34.382084079054998</v>
       </c>
       <c r="Q36" s="49">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.37346792612130741</v>
-      </c>
-      <c r="R36" s="1108"/>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.24460348984756308</v>
+      </c>
+      <c r="R36" s="1020"/>
       <c r="S36" s="116">
         <f ca="1">E36-E24</f>
-        <v>20.335994893708971</v>
+        <v>20.302834082299931</v>
       </c>
       <c r="T36" s="102">
         <f ca="1">H36-H24</f>
-        <v>6.2324010703700701</v>
+        <v>11.68055113866251</v>
       </c>
       <c r="U36" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37346792612130741</v>
+        <v>0.24460348984756308</v>
       </c>
       <c r="W36" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bought 20.335994893709 Shares of State 1 at a cost of 0.37347</v>
+        <v>Bought 20.3028340822999 Shares of State 1 at a cost of 0.2446</v>
       </c>
       <c r="X36" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Bought 6.23240107037007 Shares of State 2 at a cost of 0.37347</v>
+        <v>Bought 11.6805511386625 Shares of State 2 at a cost of 0.2446</v>
       </c>
       <c r="Y36" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bought 20.335994893709 Shares of State 1 at a cost of 0.37347Bought 6.23240107037007 Shares of State 2 at a cost of 0.37347</v>
-      </c>
-      <c r="Z36" s="1094">
-        <f ca="1">(1-O36)*M36 + O36*N36</f>
-        <v>2462.6445617219365</v>
-      </c>
-      <c r="AA36" s="1101">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.9252891234438732E-2</v>
+        <v>Bought 20.3028340822999 Shares of State 1 at a cost of 0.2446Bought 11.6805511386625 Shares of State 2 at a cost of 0.2446</v>
+      </c>
+      <c r="Z36" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>4477.3797162452574</v>
+      </c>
+      <c r="AA36" s="1014">
+        <f t="shared" ca="1" si="10"/>
+        <v>8.9547594324905153E-2</v>
       </c>
       <c r="AE36" s="8"/>
       <c r="AF36" s="28"/>
@@ -68159,95 +68196,95 @@
     </row>
     <row r="37" spans="3:42" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C37" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D37" s="25">
         <v>9</v>
       </c>
       <c r="E37" s="244">
+        <f t="shared" ca="1" si="15"/>
+        <v>32.382877140712175</v>
+      </c>
+      <c r="F37" s="243">
+        <f t="shared" ca="1" si="12"/>
+        <v>30.731841169596208</v>
+      </c>
+      <c r="G37" s="242">
+        <f t="shared" ca="1" si="13"/>
+        <v>8.9214420413025728</v>
+      </c>
+      <c r="H37" s="241">
         <f t="shared" ca="1" si="14"/>
-        <v>33.65868422882923</v>
-      </c>
-      <c r="F37" s="243">
-        <f t="shared" ca="1" si="11"/>
-        <v>31.961543572359322</v>
-      </c>
-      <c r="G37" s="242">
-        <f t="shared" ca="1" si="12"/>
-        <v>6.4823213073292214</v>
-      </c>
-      <c r="H37" s="241">
-        <f t="shared" ca="1" si="13"/>
-        <v>23.382001024081262</v>
+        <v>25.233424321387027</v>
       </c>
       <c r="I37" s="240">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57738163959618327</v>
+        <v>0.54583402023178595</v>
       </c>
       <c r="J37" s="239">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37774459936184085</v>
+        <v>0.36124483599517576</v>
       </c>
       <c r="K37" s="238">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4688466468445561E-4</v>
+        <v>1.5479882155240835E-3</v>
       </c>
       <c r="L37" s="237">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4226876377291398E-2</v>
-      </c>
-      <c r="M37" s="1088">
-        <f t="shared" ca="1" si="2"/>
-        <v>55.956119597353357</v>
-      </c>
-      <c r="N37" s="1089">
+        <v>9.1373155557514074E-2</v>
+      </c>
+      <c r="M37" s="1001">
+        <f t="shared" ca="1" si="7"/>
+        <v>141.39925971581235</v>
+      </c>
+      <c r="N37" s="1002">
         <f t="shared" ca="1" si="1"/>
-        <v>5240.5054512064908</v>
-      </c>
-      <c r="O37" s="1083">
+        <v>10093.849257302138</v>
+      </c>
+      <c r="O37" s="996">
         <f t="shared" ca="1" si="8"/>
-        <v>0.42197147573913224</v>
+        <v>0.45261799155268984</v>
       </c>
       <c r="P37" s="355">
         <f t="shared" ca="1" si="9"/>
-        <v>35.855691471517801</v>
+        <v>34.804638507519051</v>
       </c>
       <c r="Q37" s="49">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.91445875191403303</v>
-      </c>
-      <c r="R37" s="1108"/>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.42255442846405344</v>
+      </c>
+      <c r="R37" s="1020"/>
       <c r="S37" s="116">
         <f ca="1">E37-E33</f>
-        <v>1.8643759389059049</v>
+        <v>1.6410060584356145</v>
       </c>
       <c r="T37" s="102">
         <f ca="1">H37-H33</f>
-        <v>1.619756362905008</v>
+        <v>1.9728374857166777</v>
       </c>
       <c r="U37" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91445875191403303</v>
+        <v>0.42255442846405344</v>
       </c>
       <c r="W37" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bought 1.8643759389059 Shares of State 1 at a cost of 0.91446</v>
+        <v>Bought 1.64100605843561 Shares of State 1 at a cost of 0.42255</v>
       </c>
       <c r="X37" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Bought 1.61975636290501 Shares of State 2 at a cost of 0.91446</v>
+        <v>Bought 1.97283748571668 Shares of State 2 at a cost of 0.42255</v>
       </c>
       <c r="Y37" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bought 1.8643759389059 Shares of State 1 at a cost of 0.91446Bought 1.61975636290501 Shares of State 2 at a cost of 0.91446</v>
-      </c>
-      <c r="Z37" s="1094">
-        <f ca="1">(1-O37)*M37 + O37*N37</f>
-        <v>2243.6880520987929</v>
-      </c>
-      <c r="AA37" s="1101">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.4873761041975858E-2</v>
+        <v>Bought 1.64100605843561 Shares of State 1 at a cost of 0.42255Bought 1.97283748571668 Shares of State 2 at a cost of 0.42255</v>
+      </c>
+      <c r="Z37" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>4646.0571886519083</v>
+      </c>
+      <c r="AA37" s="1014">
+        <f t="shared" ca="1" si="10"/>
+        <v>9.2921143773038159E-2</v>
       </c>
       <c r="AE37" s="8"/>
       <c r="AF37" s="8"/>
@@ -68264,95 +68301,95 @@
     </row>
     <row r="38" spans="3:42" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C38" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D38" s="25">
         <v>10</v>
       </c>
       <c r="E38" s="244">
+        <f t="shared" ca="1" si="15"/>
+        <v>33.272714275328624</v>
+      </c>
+      <c r="F38" s="243">
+        <f t="shared" ca="1" si="12"/>
+        <v>30.851611460918509</v>
+      </c>
+      <c r="G38" s="242">
+        <f t="shared" ca="1" si="13"/>
+        <v>9.8120249373191299</v>
+      </c>
+      <c r="H38" s="241">
         <f t="shared" ca="1" si="14"/>
-        <v>34.4222130363773</v>
-      </c>
-      <c r="F38" s="243">
-        <f t="shared" ca="1" si="11"/>
-        <v>32.304228647721104</v>
-      </c>
-      <c r="G38" s="242">
-        <f t="shared" ca="1" si="12"/>
-        <v>7.1671276853569266</v>
-      </c>
-      <c r="H38" s="241">
-        <f t="shared" ca="1" si="13"/>
-        <v>23.742130431011983</v>
+        <v>26.080220122543654</v>
       </c>
       <c r="I38" s="240">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60268157813591994</v>
+        <v>0.5833047279026734</v>
       </c>
       <c r="J38" s="239">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35492017225297628</v>
+        <v>0.31843998769007037</v>
       </c>
       <c r="K38" s="238">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6207108921128546E-4</v>
+        <v>1.6545637926017047E-3</v>
       </c>
       <c r="L38" s="237">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1736178521892653E-2</v>
-      </c>
-      <c r="M38" s="1088">
-        <f t="shared" ca="1" si="2"/>
-        <v>54.866831702096924</v>
-      </c>
-      <c r="N38" s="1089">
+        <v>9.6600720614654467E-2</v>
+      </c>
+      <c r="M38" s="1001">
+        <f t="shared" ca="1" si="7"/>
+        <v>141.4255501273089</v>
+      </c>
+      <c r="N38" s="1002">
         <f t="shared" ca="1" si="1"/>
-        <v>5260.9996588181366</v>
-      </c>
-      <c r="O38" s="1083">
+        <v>11637.499488812766</v>
+      </c>
+      <c r="O38" s="996">
         <f t="shared" ca="1" si="8"/>
-        <v>0.39665635077486894</v>
+        <v>0.41504070830472484</v>
       </c>
       <c r="P38" s="355">
         <f t="shared" ca="1" si="9"/>
-        <v>36.447678174465487</v>
+        <v>35.428896434593483</v>
       </c>
       <c r="Q38" s="49">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.59198670294768618</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.62425792707443151</v>
       </c>
       <c r="R38" s="203"/>
       <c r="S38" s="116">
         <f ca="1">E38-E32</f>
-        <v>3.0650923796255611</v>
+        <v>2.6561316493330374</v>
       </c>
       <c r="T38" s="102">
         <f ca="1">H38-H32</f>
-        <v>2.9425418935097944</v>
+        <v>3.5954964171757737</v>
       </c>
       <c r="U38" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59198670294768618</v>
+        <v>0.62425792707443151</v>
       </c>
       <c r="W38" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bought 3.06509237962556 Shares of State 1 at a cost of 0.59199</v>
+        <v>Bought 2.65613164933304 Shares of State 1 at a cost of 0.62426</v>
       </c>
       <c r="X38" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Bought 2.94254189350979 Shares of State 2 at a cost of 0.59199</v>
+        <v>Bought 3.59549641717577 Shares of State 2 at a cost of 0.62426</v>
       </c>
       <c r="Y38" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bought 3.06509237962556 Shares of State 1 at a cost of 0.59199Bought 2.94254189350979 Shares of State 2 at a cost of 0.59199</v>
-      </c>
-      <c r="Z38" s="1094">
-        <f ca="1">(1-O38)*M38 + O38*N38</f>
-        <v>2119.9124805551969</v>
-      </c>
-      <c r="AA38" s="1101">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.2398249611103937E-2</v>
+        <v>Bought 2.65613164933304 Shares of State 1 at a cost of 0.62426Bought 3.59549641717577 Shares of State 2 at a cost of 0.62426</v>
+      </c>
+      <c r="Z38" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>4912.7642203628093</v>
+      </c>
+      <c r="AA38" s="1014">
+        <f t="shared" ca="1" si="10"/>
+        <v>9.8255284407256185E-2</v>
       </c>
       <c r="AE38" s="8"/>
       <c r="AF38" s="8"/>
@@ -68369,95 +68406,95 @@
     </row>
     <row r="39" spans="3:42" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C39" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D39" s="25">
         <v>11</v>
       </c>
       <c r="E39" s="244">
+        <f t="shared" ca="1" si="15"/>
+        <v>33.443370453906795</v>
+      </c>
+      <c r="F39" s="243">
+        <f t="shared" ca="1" si="12"/>
+        <v>31.148536593577091</v>
+      </c>
+      <c r="G39" s="242">
+        <f t="shared" ca="1" si="13"/>
+        <v>10.70313057946151</v>
+      </c>
+      <c r="H39" s="241">
         <f t="shared" ca="1" si="14"/>
-        <v>35.341679442195854</v>
-      </c>
-      <c r="F39" s="243">
-        <f t="shared" ca="1" si="11"/>
-        <v>32.388551208825184</v>
-      </c>
-      <c r="G39" s="242">
-        <f t="shared" ca="1" si="12"/>
-        <v>7.8385185216201032</v>
-      </c>
-      <c r="H39" s="241">
-        <f t="shared" ca="1" si="13"/>
-        <v>24.369129284643247</v>
+        <v>26.932230472888605</v>
       </c>
       <c r="I39" s="240">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6479475367796903</v>
+        <v>0.56715306023290246</v>
       </c>
       <c r="J39" s="239">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30967633548623491</v>
+        <v>0.31955223481923739</v>
       </c>
       <c r="K39" s="238">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6899379172548324E-4</v>
+        <v>1.9262387093874462E-3</v>
       </c>
       <c r="L39" s="237">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1707133942349303E-2</v>
-      </c>
-      <c r="M39" s="1088">
-        <f t="shared" ca="1" si="2"/>
-        <v>51.570824993938679</v>
-      </c>
-      <c r="N39" s="1089">
+        <v>0.11136846623847256</v>
+      </c>
+      <c r="M39" s="1001">
+        <f t="shared" ca="1" si="7"/>
+        <v>169.24167800231172</v>
+      </c>
+      <c r="N39" s="1002">
         <f t="shared" ca="1" si="1"/>
-        <v>5934.7034751197843</v>
-      </c>
-      <c r="O39" s="1083">
+        <v>12922.153190263865</v>
+      </c>
+      <c r="O39" s="996">
         <f t="shared" ca="1" si="8"/>
-        <v>0.35138346942858423</v>
+        <v>0.43092070105770997</v>
       </c>
       <c r="P39" s="355">
         <f t="shared" ca="1" si="9"/>
-        <v>37.077461632864576</v>
+        <v>35.711874710638575</v>
       </c>
       <c r="Q39" s="49">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.62978345839908911</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.28297827604509251</v>
       </c>
       <c r="R39" s="203"/>
       <c r="S39" s="116">
         <f ca="1">E39-E31</f>
-        <v>4.0546567029542224</v>
+        <v>3.0190730077656092</v>
       </c>
       <c r="T39" s="102">
         <f ca="1">H39-H31</f>
-        <v>3.8879016007848755</v>
+        <v>5.1605464625319222</v>
       </c>
       <c r="U39" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62978345839908911</v>
+        <v>0.28297827604509251</v>
       </c>
       <c r="W39" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bought 4.05465670295422 Shares of State 1 at a cost of 0.62978</v>
+        <v>Bought 3.01907300776561 Shares of State 1 at a cost of 0.28298</v>
       </c>
       <c r="X39" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Bought 3.88790160078488 Shares of State 2 at a cost of 0.62978</v>
+        <v>Bought 5.16054646253192 Shares of State 2 at a cost of 0.28298</v>
       </c>
       <c r="Y39" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bought 4.05465670295422 Shares of State 1 at a cost of 0.62978Bought 3.88790160078488 Shares of State 2 at a cost of 0.62978</v>
-      </c>
-      <c r="Z39" s="1094">
-        <f ca="1">(1-O39)*M39 + O39*N39</f>
-        <v>2118.8063867037395</v>
-      </c>
-      <c r="AA39" s="1101">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.2376127734074787E-2</v>
+        <v>Bought 3.01907300776561 Shares of State 1 at a cost of 0.28298Bought 5.16054646253192 Shares of State 2 at a cost of 0.28298</v>
+      </c>
+      <c r="Z39" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>5664.7352473930005</v>
+      </c>
+      <c r="AA39" s="1014">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.11329470494786001</v>
       </c>
       <c r="AE39" s="8"/>
       <c r="AF39" s="8"/>
@@ -68474,95 +68511,95 @@
     </row>
     <row r="40" spans="3:42" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C40" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D40" s="25">
         <v>12</v>
       </c>
       <c r="E40" s="244">
+        <f t="shared" ca="1" si="15"/>
+        <v>34.167606208771709</v>
+      </c>
+      <c r="F40" s="243">
+        <f t="shared" ca="1" si="12"/>
+        <v>31.477850246328433</v>
+      </c>
+      <c r="G40" s="242">
+        <f t="shared" ca="1" si="13"/>
+        <v>11.136622368395294</v>
+      </c>
+      <c r="H40" s="241">
         <f t="shared" ca="1" si="14"/>
-        <v>35.51169221342527</v>
-      </c>
-      <c r="F40" s="243">
-        <f t="shared" ca="1" si="11"/>
-        <v>33.059565197532429</v>
-      </c>
-      <c r="G40" s="242">
-        <f t="shared" ca="1" si="12"/>
-        <v>8.2066002664188886</v>
-      </c>
-      <c r="H40" s="241">
-        <f t="shared" ca="1" si="13"/>
-        <v>24.454571985820063</v>
+        <v>27.103528739689978</v>
       </c>
       <c r="I40" s="240">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62273774695978434</v>
+        <v>0.59360122514116709</v>
       </c>
       <c r="J40" s="239">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33734080976836606</v>
+        <v>0.3030108959692242</v>
       </c>
       <c r="K40" s="238">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7560444921139487E-4</v>
+        <v>1.8747246506917044E-3</v>
       </c>
       <c r="L40" s="237">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9245838822638199E-2</v>
-      </c>
-      <c r="M40" s="1088">
-        <f t="shared" ca="1" si="2"/>
-        <v>54.185914344346358</v>
-      </c>
-      <c r="N40" s="1089">
+        <v>0.10151315423891701</v>
+      </c>
+      <c r="M40" s="1001">
+        <f t="shared" ca="1" si="7"/>
+        <v>157.41396872090226</v>
+      </c>
+      <c r="N40" s="1002">
         <f t="shared" ca="1" si="1"/>
-        <v>5210.7315765808698</v>
-      </c>
-      <c r="O40" s="1083">
+        <v>12547.23349411303</v>
+      </c>
+      <c r="O40" s="996">
         <f t="shared" ca="1" si="8"/>
-        <v>0.37658664859100427</v>
+        <v>0.40452405020814119</v>
       </c>
       <c r="P40" s="355">
         <f t="shared" ca="1" si="9"/>
-        <v>37.406211416346352</v>
+        <v>36.253796301627851</v>
       </c>
       <c r="Q40" s="49">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.32874978348177564</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.54192159098927561</v>
       </c>
       <c r="R40" s="203"/>
       <c r="S40" s="116">
         <f ca="1">E40-E39</f>
-        <v>0.17001277122941616</v>
+        <v>0.72423575486491387</v>
       </c>
       <c r="T40" s="102">
         <f ca="1">H40-H39</f>
-        <v>8.5442701176816627E-2</v>
+        <v>0.17129826680137228</v>
       </c>
       <c r="U40" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32874978348177564</v>
+        <v>0.54192159098927561</v>
       </c>
       <c r="W40" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bought 0.170012771229416 Shares of State 1 at a cost of 0.32875</v>
+        <v>Bought 0.724235754864914 Shares of State 1 at a cost of 0.54192</v>
       </c>
       <c r="X40" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Bought 0.0854427011768166 Shares of State 2 at a cost of 0.32875</v>
+        <v>Bought 0.171298266801372 Shares of State 2 at a cost of 0.54192</v>
       </c>
       <c r="Y40" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bought 0.170012771229416 Shares of State 1 at a cost of 0.32875Bought 0.0854427011768166 Shares of State 2 at a cost of 0.32875</v>
-      </c>
-      <c r="Z40" s="1094">
-        <f ca="1">(1-O40)*M40 + O40*N40</f>
-        <v>1996.0721635924795</v>
-      </c>
-      <c r="AA40" s="1101">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.9921443271849592E-2</v>
+        <v>Bought 0.724235754864914 Shares of State 1 at a cost of 0.54192Bought 0.171298266801372 Shares of State 2 at a cost of 0.54192</v>
+      </c>
+      <c r="Z40" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>5169.3939444804355</v>
+      </c>
+      <c r="AA40" s="1014">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.10338787888960871</v>
       </c>
       <c r="AE40" s="8"/>
       <c r="AF40" s="8"/>
@@ -68579,95 +68616,95 @@
     </row>
     <row r="41" spans="3:42" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C41" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D41" s="25">
         <v>13</v>
       </c>
       <c r="E41" s="244">
+        <f t="shared" ca="1" si="15"/>
+        <v>34.640461736659923</v>
+      </c>
+      <c r="F41" s="243">
+        <f t="shared" ca="1" si="12"/>
+        <v>32.312458403887049</v>
+      </c>
+      <c r="G41" s="242">
+        <f t="shared" ca="1" si="13"/>
+        <v>12.041982238448195</v>
+      </c>
+      <c r="H41" s="241">
         <f t="shared" ca="1" si="14"/>
-        <v>36.272191985741948</v>
-      </c>
-      <c r="F41" s="243">
-        <f t="shared" ca="1" si="11"/>
-        <v>33.833742335622752</v>
-      </c>
-      <c r="G41" s="242">
-        <f t="shared" ca="1" si="12"/>
-        <v>8.3180256958033052</v>
-      </c>
-      <c r="H41" s="241">
-        <f t="shared" ca="1" si="13"/>
-        <v>25.338555309637805</v>
+        <v>27.50810999371912</v>
       </c>
       <c r="I41" s="240">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62131821530233156</v>
+        <v>0.57789562498400782</v>
       </c>
       <c r="J41" s="239">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33772466474086449</v>
+        <v>0.3229160684837315</v>
       </c>
       <c r="K41" s="238">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7309820025462036E-4</v>
+        <v>2.0335304047845869E-3</v>
       </c>
       <c r="L41" s="237">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0384021756549267E-2</v>
-      </c>
-      <c r="M41" s="1088">
-        <f t="shared" ca="1" si="2"/>
-        <v>46.077038528392073</v>
-      </c>
-      <c r="N41" s="1089">
+        <v>9.7154776127476181E-2</v>
+      </c>
+      <c r="M41" s="1001">
+        <f t="shared" ca="1" si="7"/>
+        <v>175.32576055960496</v>
+      </c>
+      <c r="N41" s="1002">
         <f t="shared" ca="1" si="1"/>
-        <v>5340.2663306474306</v>
-      </c>
-      <c r="O41" s="1083">
+        <v>11564.094172900383</v>
+      </c>
+      <c r="O41" s="996">
         <f t="shared" ca="1" si="8"/>
-        <v>0.37810868649741375</v>
+        <v>0.42007084461120769</v>
       </c>
       <c r="P41" s="355">
         <f t="shared" ca="1" si="9"/>
-        <v>38.175839602924704</v>
+        <v>36.833909761574581</v>
       </c>
       <c r="Q41" s="49">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.76962818657835186</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.58011345994673036</v>
       </c>
       <c r="R41" s="203"/>
       <c r="S41" s="116">
         <f ca="1">E41-E40</f>
-        <v>0.76049977231667754</v>
+        <v>0.47285552788821406</v>
       </c>
       <c r="T41" s="102">
         <f ca="1">H41-H40</f>
-        <v>0.88398332381774125</v>
+        <v>0.40458125402914291</v>
       </c>
       <c r="U41" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76962818657835186</v>
+        <v>0.58011345994673036</v>
       </c>
       <c r="W41" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bought 0.760499772316678 Shares of State 1 at a cost of 0.76963</v>
+        <v>Bought 0.472855527888214 Shares of State 1 at a cost of 0.58011</v>
       </c>
       <c r="X41" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Bought 0.883983323817741 Shares of State 2 at a cost of 0.76963</v>
+        <v>Bought 0.404581254029143 Shares of State 2 at a cost of 0.58011</v>
       </c>
       <c r="Y41" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bought 0.760499772316678 Shares of State 1 at a cost of 0.76963Bought 0.883983323817741 Shares of State 2 at a cost of 0.76963</v>
-      </c>
-      <c r="Z41" s="1094">
-        <f ca="1">(1-O41)*M41 + O41*N41</f>
-        <v>2047.8559978401945</v>
-      </c>
-      <c r="AA41" s="1101">
-        <f t="shared" ca="1" si="7"/>
-        <v>4.0957119956803893E-2</v>
+        <v>Bought 0.472855527888214 Shares of State 1 at a cost of 0.58011Bought 0.404581254029143 Shares of State 2 at a cost of 0.58011</v>
+      </c>
+      <c r="Z41" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>4959.4153266130379</v>
+      </c>
+      <c r="AA41" s="1014">
+        <f t="shared" ca="1" si="10"/>
+        <v>9.9188306532260753E-2</v>
       </c>
       <c r="AE41" s="8"/>
       <c r="AF41" s="8"/>
@@ -68684,95 +68721,95 @@
     </row>
     <row r="42" spans="3:42" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C42" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D42" s="25">
         <v>14</v>
       </c>
       <c r="E42" s="244">
+        <f t="shared" ca="1" si="15"/>
+        <v>34.654153997365334</v>
+      </c>
+      <c r="F42" s="243">
+        <f t="shared" ca="1" si="12"/>
+        <v>32.768054323984884</v>
+      </c>
+      <c r="G42" s="242">
+        <f t="shared" ca="1" si="13"/>
+        <v>12.278282375693633</v>
+      </c>
+      <c r="H42" s="241">
         <f t="shared" ca="1" si="14"/>
-        <v>37.115246384051297</v>
-      </c>
-      <c r="F42" s="243">
-        <f t="shared" ca="1" si="11"/>
-        <v>34.7839674858348</v>
-      </c>
-      <c r="G42" s="242">
-        <f t="shared" ca="1" si="12"/>
-        <v>8.5491260304608794</v>
-      </c>
-      <c r="H42" s="241">
-        <f t="shared" ca="1" si="13"/>
-        <v>25.660148350346184</v>
+        <v>27.737684832254313</v>
       </c>
       <c r="I42" s="240">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61874817713292485</v>
+        <v>0.55395182694295408</v>
       </c>
       <c r="J42" s="239">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34546061526878064</v>
+        <v>0.34569359172072267</v>
       </c>
       <c r="K42" s="238">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8976395885294208E-4</v>
+        <v>2.0608320779288954E-3</v>
       </c>
       <c r="L42" s="237">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5301443639441668E-2</v>
-      </c>
-      <c r="M42" s="1088">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="1089">
+        <v>9.8293749258394278E-2</v>
+      </c>
+      <c r="M42" s="1001">
+        <f t="shared" ca="1" si="7"/>
+        <v>185.32240628818974</v>
+      </c>
+      <c r="N42" s="1002">
         <f t="shared" ca="1" si="1"/>
-        <v>4635.6304171512293</v>
-      </c>
-      <c r="O42" s="1083">
+        <v>11069.431511451308</v>
+      </c>
+      <c r="O42" s="996">
         <f t="shared" ca="1" si="8"/>
-        <v>0.38076205890822229</v>
+        <v>0.44398734097911696</v>
       </c>
       <c r="P42" s="355">
         <f t="shared" ca="1" si="9"/>
-        <v>39.035474028656793</v>
+        <v>37.016864201334428</v>
       </c>
       <c r="Q42" s="49">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.85963442573208937</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.18295443975984682</v>
       </c>
       <c r="R42" s="203"/>
       <c r="S42" s="116">
         <f ca="1">E42-E39</f>
-        <v>1.7735669418554423</v>
+        <v>1.2107835434585397</v>
       </c>
       <c r="T42" s="102">
         <f ca="1">H42-H39</f>
-        <v>1.2910190657029368</v>
+        <v>0.80545435936570797</v>
       </c>
       <c r="U42" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85963442573208937</v>
+        <v>0.18295443975984682</v>
       </c>
       <c r="W42" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bought 1.77356694185544 Shares of State 1 at a cost of 0.85963</v>
+        <v>Bought 1.21078354345854 Shares of State 1 at a cost of 0.18295</v>
       </c>
       <c r="X42" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Bought 1.29101906570294 Shares of State 2 at a cost of 0.85963</v>
+        <v>Bought 0.805454359365708 Shares of State 2 at a cost of 0.18295</v>
       </c>
       <c r="Y42" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bought 1.77356694185544 Shares of State 1 at a cost of 0.85963Bought 1.29101906570294 Shares of State 2 at a cost of 0.85963</v>
-      </c>
-      <c r="Z42" s="1094">
-        <f ca="1">(1-O42)*M42 + O42*N42</f>
-        <v>1765.0721819720834</v>
-      </c>
-      <c r="AA42" s="1101">
-        <f t="shared" ca="1" si="7"/>
-        <v>3.5301443639441668E-2</v>
+        <v>Bought 1.21078354345854 Shares of State 1 at a cost of 0.18295Bought 0.805454359365708 Shares of State 2 at a cost of 0.18295</v>
+      </c>
+      <c r="Z42" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>5017.7290668161586</v>
+      </c>
+      <c r="AA42" s="1014">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.10035458133632318</v>
       </c>
     </row>
     <row r="43" spans="3:42" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -68787,55 +68824,55 @@
       </c>
       <c r="F43" s="243">
         <f ca="1">F42+0.1</f>
-        <v>34.883967485834802</v>
+        <v>32.868054323984886</v>
       </c>
       <c r="G43" s="242">
         <v>0</v>
       </c>
       <c r="H43" s="241">
         <f ca="1">H42-0.05</f>
-        <v>25.610148350346183</v>
+        <v>27.687684832254313</v>
       </c>
       <c r="I43" s="240">
         <f t="shared" ca="1" si="0"/>
-        <v>1.484642029193776E-4</v>
+        <v>2.1187820529758021E-4</v>
       </c>
       <c r="J43" s="239">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91012364497357667</v>
+        <v>0.78467522674436263</v>
       </c>
       <c r="K43" s="238">
         <f t="shared" ca="1" si="0"/>
-        <v>1.484642029193776E-4</v>
+        <v>2.1187820529758021E-4</v>
       </c>
       <c r="L43" s="237">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9579426620584574E-2</v>
-      </c>
-      <c r="M43" s="1088">
-        <f t="shared" ca="1" si="2"/>
+        <v>0.21490101684504223</v>
+      </c>
+      <c r="M43" s="1001">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="N43" s="1089">
+      <c r="N43" s="1002">
         <f t="shared" ca="1" si="1"/>
-        <v>4480.3016598587674</v>
-      </c>
-      <c r="O43" s="1083">
+        <v>10749.606056730023</v>
+      </c>
+      <c r="O43" s="996">
         <f t="shared" ca="1" si="8"/>
-        <v>0.99970307159416127</v>
+        <v>0.99957624358940489</v>
       </c>
       <c r="P43" s="355">
         <f t="shared" ca="1" si="9"/>
-        <v>35.260666746250344</v>
+        <v>33.837995806783297</v>
       </c>
       <c r="Q43" s="49">
-        <f t="shared" ca="1" si="10"/>
-        <v>-3.7748072824064494</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>-3.1788683945511309</v>
       </c>
       <c r="R43" s="203"/>
       <c r="S43" s="116">
         <f ca="1">E43-E42</f>
-        <v>-37.115246384051297</v>
+        <v>-34.654153997365334</v>
       </c>
       <c r="T43" s="102">
         <f ca="1">H43-H42</f>
@@ -68843,32 +68880,32 @@
       </c>
       <c r="U43" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>-3.7748072824064494</v>
+        <v>-3.1788683945511309</v>
       </c>
       <c r="W43" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Sold 37.1152463840513 Shares of State 1 at a cost of -3.77481</v>
+        <v>Sold 34.6541539973653 Shares of State 1 at a cost of -3.17887</v>
       </c>
       <c r="X43" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Sold 0.0500000000000007 Shares of State 2 at a cost of -3.77481</v>
+        <v>Sold 0.0500000000000007 Shares of State 2 at a cost of -3.17887</v>
       </c>
       <c r="Y43" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Sold 37.1152463840513 Shares of State 1 at a cost of -3.77481Sold 0.0500000000000007 Shares of State 2 at a cost of -3.77481</v>
-      </c>
-      <c r="Z43" s="1094">
-        <f ca="1">(1-O43)*M43 + O43*N43</f>
-        <v>4478.9713310292291</v>
-      </c>
-      <c r="AA43" s="1101">
-        <f t="shared" ca="1" si="7"/>
-        <v>8.9579426620584587E-2</v>
+        <v>Sold 34.6541539973653 Shares of State 1 at a cost of -3.17887Sold 0.0500000000000007 Shares of State 2 at a cost of -3.17887</v>
+      </c>
+      <c r="Z43" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>10745.050842252111</v>
+      </c>
+      <c r="AA43" s="1014">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.2149010168450422</v>
       </c>
     </row>
     <row r="44" spans="3:42" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C44" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D44" s="25">
         <v>16</v>
@@ -68877,84 +68914,84 @@
         <v>0</v>
       </c>
       <c r="F44" s="243">
-        <f t="shared" ref="F44:F46" ca="1" si="16">F43+0.1</f>
-        <v>34.983967485834803</v>
+        <f t="shared" ref="F44:F46" ca="1" si="17">F43+0.1</f>
+        <v>32.968054323984887</v>
       </c>
       <c r="G44" s="242">
         <v>0</v>
       </c>
       <c r="H44" s="241">
-        <f t="shared" ref="H44:H46" ca="1" si="17">H43-0.05</f>
-        <v>25.560148350346182</v>
+        <f t="shared" ref="H44:H46" ca="1" si="18">H43-0.05</f>
+        <v>27.637684832254312</v>
       </c>
       <c r="I44" s="240">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4527866083382881E-4</v>
+        <v>2.0829662714754683E-4</v>
       </c>
       <c r="J44" s="239">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9131409861766453</v>
+        <v>0.79093948298398375</v>
       </c>
       <c r="K44" s="238">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4527866083382881E-4</v>
+        <v>2.0829662714754683E-4</v>
       </c>
       <c r="L44" s="237">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6568456501687013E-2</v>
-      </c>
-      <c r="M44" s="1088">
-        <f t="shared" ca="1" si="2"/>
+        <v>0.20864392376172111</v>
+      </c>
+      <c r="M44" s="1001">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="N44" s="1089">
+      <c r="N44" s="1002">
         <f t="shared" ca="1" si="1"/>
-        <v>4329.6808455545106</v>
-      </c>
-      <c r="O44" s="1083">
+        <v>10436.543981907073</v>
+      </c>
+      <c r="O44" s="996">
         <f t="shared" ca="1" si="8"/>
-        <v>0.99970944267833228</v>
+        <v>0.99958340674570489</v>
       </c>
       <c r="P44" s="355">
         <f t="shared" ca="1" si="9"/>
-        <v>35.347427443930385</v>
+        <v>33.906189608443938</v>
       </c>
       <c r="Q44" s="49">
-        <f t="shared" ca="1" si="10"/>
-        <v>8.6760697680041687E-2</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>6.8193801660640929E-2</v>
       </c>
       <c r="R44" s="203"/>
       <c r="S44" s="116">
         <f ca="1">E44-E39</f>
-        <v>-35.341679442195854</v>
+        <v>-33.443370453906795</v>
       </c>
       <c r="T44" s="102">
         <f ca="1">H44-H39</f>
-        <v>1.1910190657029354</v>
+        <v>0.70545435936570655</v>
       </c>
       <c r="U44" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>8.6760697680041687E-2</v>
+        <v>6.8193801660640929E-2</v>
       </c>
       <c r="W44" s="7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Sold 35.3416794421959 Shares of State 1 at a cost of 0.08676</v>
+        <v>Sold 33.4433704539068 Shares of State 1 at a cost of 0.06819</v>
       </c>
       <c r="X44" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Bought 1.19101906570294 Shares of State 2 at a cost of 0.08676</v>
+        <v>Bought 0.705454359365707 Shares of State 2 at a cost of 0.06819</v>
       </c>
       <c r="Y44" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Sold 35.3416794421959 Shares of State 1 at a cost of 0.08676Bought 1.19101906570294 Shares of State 2 at a cost of 0.08676</v>
-      </c>
-      <c r="Z44" s="1094">
-        <f ca="1">(1-O44)*M44 + O44*N44</f>
-        <v>4328.4228250843498</v>
-      </c>
-      <c r="AA44" s="1101">
-        <f t="shared" ca="1" si="7"/>
-        <v>8.6568456501686999E-2</v>
+        <v>Sold 33.4433704539068 Shares of State 1 at a cost of 0.06819Bought 0.705454359365707 Shares of State 2 at a cost of 0.06819</v>
+      </c>
+      <c r="Z44" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>10432.196188086056</v>
+      </c>
+      <c r="AA44" s="1014">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.20864392376172111</v>
       </c>
       <c r="AH44" s="191"/>
       <c r="AI44" s="191"/>
@@ -68966,7 +69003,7 @@
     </row>
     <row r="45" spans="3:42" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C45" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D45" s="25">
         <v>17</v>
@@ -68975,51 +69012,51 @@
         <v>0</v>
       </c>
       <c r="F45" s="243">
-        <f t="shared" ca="1" si="16"/>
-        <v>35.083967485834805</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>33.068054323984889</v>
       </c>
       <c r="G45" s="242">
         <v>0</v>
       </c>
       <c r="H45" s="241">
         <f ca="1">H44+0.5</f>
-        <v>26.060148350346182</v>
+        <v>28.137684832254312</v>
       </c>
       <c r="I45" s="240">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4041432524961449E-4</v>
+        <v>1.9879362700487421E-4</v>
       </c>
       <c r="J45" s="239">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90490875060513098</v>
+        <v>0.77396413739645809</v>
       </c>
       <c r="K45" s="238">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4041432524961449E-4</v>
+        <v>1.9879362700487421E-4</v>
       </c>
       <c r="L45" s="237">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4810420744369781E-2</v>
-      </c>
-      <c r="M45" s="1088">
-        <f t="shared" ca="1" si="2"/>
+        <v>0.22563827534953218</v>
+      </c>
+      <c r="M45" s="1001">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="N45" s="1089">
+      <c r="N45" s="1002">
         <f t="shared" ca="1" si="1"/>
-        <v>4741.8526853089706</v>
-      </c>
-      <c r="O45" s="1083">
+        <v>11286.401096696296</v>
+      </c>
+      <c r="O45" s="996">
         <f t="shared" ca="1" si="8"/>
-        <v>0.99971917134950072</v>
+        <v>0.99960241274599027</v>
       </c>
       <c r="P45" s="355">
         <f t="shared" ca="1" si="9"/>
-        <v>35.483652159540128</v>
+        <v>34.092973286300776</v>
       </c>
       <c r="Q45" s="49">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.13622471560974247</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.18678367785683747</v>
       </c>
       <c r="R45" s="203"/>
       <c r="S45" s="116">
@@ -69032,7 +69069,7 @@
       </c>
       <c r="U45" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13622471560974247</v>
+        <v>0.18678367785683747</v>
       </c>
       <c r="W45" s="7" t="str">
         <f t="shared" si="4"/>
@@ -69040,24 +69077,24 @@
       </c>
       <c r="X45" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Bought 0.5 Shares of State 2 at a cost of 0.13622</v>
+        <v>Bought 0.5 Shares of State 2 at a cost of 0.18678</v>
       </c>
       <c r="Y45" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bought 0.5 Shares of State 2 at a cost of 0.13622</v>
-      </c>
-      <c r="Z45" s="1094">
-        <f ca="1">(1-O45)*M45 + O45*N45</f>
-        <v>4740.5210372184893</v>
-      </c>
-      <c r="AA45" s="1101">
-        <f t="shared" ca="1" si="7"/>
-        <v>9.4810420744369781E-2</v>
+        <v>Bought 0.5 Shares of State 2 at a cost of 0.18678</v>
+      </c>
+      <c r="Z45" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>11281.913767476608</v>
+      </c>
+      <c r="AA45" s="1014">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.22563827534953215</v>
       </c>
     </row>
     <row r="46" spans="3:42" s="7" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C46" s="21" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D46" s="25">
         <v>18</v>
@@ -69066,51 +69103,51 @@
         <v>0</v>
       </c>
       <c r="F46" s="235">
-        <f t="shared" ca="1" si="16"/>
-        <v>35.183967485834806</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>33.16805432398489</v>
       </c>
       <c r="G46" s="234">
         <v>0</v>
       </c>
       <c r="H46" s="233">
-        <f t="shared" ca="1" si="17"/>
-        <v>26.010148350346181</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>28.087684832254311</v>
       </c>
       <c r="I46" s="232">
         <f t="shared" ca="1" si="0"/>
-        <v>1.374279983374193E-4</v>
+        <v>1.9551098356348378E-4</v>
       </c>
       <c r="J46" s="231">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90808385347220866</v>
+        <v>0.78045326647677793</v>
       </c>
       <c r="K46" s="230">
         <f t="shared" ca="1" si="0"/>
-        <v>1.374279983374193E-4</v>
+        <v>1.9551098356348378E-4</v>
       </c>
       <c r="L46" s="229">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1641290531116484E-2</v>
-      </c>
-      <c r="M46" s="1090">
-        <f t="shared" ca="1" si="2"/>
+        <v>0.21915571155609506</v>
+      </c>
+      <c r="M46" s="1003">
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="N46" s="1091">
+      <c r="N46" s="1004">
         <f t="shared" ca="1" si="1"/>
-        <v>4583.3242807190854</v>
-      </c>
-      <c r="O46" s="1084">
+        <v>10962.071988757585</v>
+      </c>
+      <c r="O46" s="997">
         <f t="shared" ca="1" si="8"/>
-        <v>0.99972514400332513</v>
+        <v>0.99960897803287296</v>
       </c>
       <c r="P46" s="356">
         <f t="shared" ca="1" si="9"/>
-        <v>35.569641705858061</v>
-      </c>
-      <c r="Q46" s="1074">
-        <f t="shared" ca="1" si="10"/>
-        <v>8.5989546317932763E-2</v>
+        <v>34.159575992826383</v>
+      </c>
+      <c r="Q46" s="989">
+        <f t="shared" ca="1" si="11"/>
+        <v>6.6602706525607402E-2</v>
       </c>
       <c r="R46" s="203"/>
       <c r="S46" s="121">
@@ -69123,7 +69160,7 @@
       </c>
       <c r="U46" s="184">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5989546317932763E-2</v>
+        <v>6.6602706525607402E-2</v>
       </c>
       <c r="W46" s="7" t="str">
         <f t="shared" si="4"/>
@@ -69131,19 +69168,19 @@
       </c>
       <c r="X46" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Sold 0.0500000000000007 Shares of State 2 at a cost of 0.08599</v>
+        <v>Sold 0.0500000000000007 Shares of State 2 at a cost of 0.0666</v>
       </c>
       <c r="Y46" s="187" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Sold 0.0500000000000007 Shares of State 2 at a cost of 0.08599</v>
-      </c>
-      <c r="Z46" s="1094">
-        <f ca="1">(1-O46)*M46 + O46*N46</f>
-        <v>4582.0645265558242</v>
-      </c>
-      <c r="AA46" s="1101">
-        <f t="shared" ca="1" si="7"/>
-        <v>9.1641290531116484E-2</v>
+        <v>Sold 0.0500000000000007 Shares of State 2 at a cost of 0.0666</v>
+      </c>
+      <c r="Z46" s="1007">
+        <f t="shared" ca="1" si="2"/>
+        <v>10957.785577804752</v>
+      </c>
+      <c r="AA46" s="1014">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.21915571155609503</v>
       </c>
     </row>
     <row r="47" spans="3:42" s="7" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -69155,16 +69192,16 @@
         <v>0</v>
       </c>
       <c r="F47" s="223">
-        <f t="shared" ref="F47:H47" ca="1" si="18">F46</f>
-        <v>35.183967485834806</v>
+        <f t="shared" ref="F47:H47" ca="1" si="19">F46</f>
+        <v>33.16805432398489</v>
       </c>
       <c r="G47" s="222">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H47" s="221">
-        <f t="shared" ca="1" si="18"/>
-        <v>26.010148350346181</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>28.087684832254311</v>
       </c>
       <c r="I47" s="447">
         <f>F51*F50</f>
@@ -69172,7 +69209,7 @@
       </c>
       <c r="J47" s="447">
         <f>F50*E51</f>
-        <v>0.82000000000000006</v>
+        <v>0.91</v>
       </c>
       <c r="K47" s="447">
         <f>E50*F51</f>
@@ -69180,43 +69217,43 @@
       </c>
       <c r="L47" s="447">
         <f>E50*E51</f>
-        <v>0.18</v>
-      </c>
-      <c r="M47" s="1092">
-        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="M47" s="1005">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N47" s="1093">
+      <c r="N47" s="1006">
         <f t="shared" si="1"/>
-        <v>9000</v>
-      </c>
-      <c r="O47" s="1085">
+        <v>4500</v>
+      </c>
+      <c r="O47" s="998">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="P47" s="1079">
+      <c r="P47" s="992">
         <f t="shared" ca="1" si="9"/>
-        <v>35.569641705858061</v>
+        <v>34.159575992826383</v>
       </c>
       <c r="Q47" s="8" t="s">
         <v>559</v>
       </c>
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
-      <c r="Z47" s="1110">
+      <c r="Z47" s="1118">
         <f>(1-O47)*M47 + O47*N47</f>
-        <v>9000</v>
-      </c>
-      <c r="AA47" s="1101">
-        <f t="shared" si="7"/>
-        <v>0.18</v>
-      </c>
-      <c r="AB47" s="1072" t="s">
+        <v>4500</v>
+      </c>
+      <c r="AA47" s="1014">
+        <f t="shared" si="10"/>
+        <v>0.09</v>
+      </c>
+      <c r="AB47" s="987" t="s">
         <v>557</v>
       </c>
-      <c r="AC47" s="1073">
+      <c r="AC47" s="988">
         <f>(Z47-Z23)/Z23</f>
-        <v>1.6648233534920771</v>
+        <v>0.15027927479567135</v>
       </c>
     </row>
     <row r="48" spans="3:42" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -69235,7 +69272,7 @@
       <c r="O48" s="33"/>
       <c r="P48" s="257">
         <f ca="1">SUMPRODUCT(E47:H47,I47:L47)</f>
-        <v>33.532680041446852</v>
+        <v>32.710821069729136</v>
       </c>
       <c r="Q48" t="s">
         <v>110</v>
@@ -69245,9 +69282,9 @@
       <c r="Z48"/>
       <c r="AA48"/>
       <c r="AB48"/>
-      <c r="AC48" s="1100">
+      <c r="AC48" s="1013">
         <f>(AA47-AA23)/AA23</f>
-        <v>1.6648233534920769</v>
+        <v>0.15027927479567138</v>
       </c>
     </row>
     <row r="49" spans="2:40" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -69269,7 +69306,7 @@
       </c>
       <c r="J49" s="482">
         <f>F50*E51</f>
-        <v>0.82000000000000006</v>
+        <v>0.91</v>
       </c>
       <c r="K49" s="482">
         <f>E50*F51</f>
@@ -69277,14 +69314,14 @@
       </c>
       <c r="L49" s="482">
         <f>E50*E51</f>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="M49" s="17"/>
       <c r="N49" s="17"/>
       <c r="O49" s="17"/>
       <c r="P49" s="257">
         <f ca="1">P47-P48</f>
-        <v>2.0369616644112085</v>
+        <v>1.4487549230972476</v>
       </c>
       <c r="Q49" s="7" t="s">
         <v>102</v>
@@ -69294,16 +69331,16 @@
       <c r="C50" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="1071">
-        <v>9000</v>
+      <c r="D50" s="986">
+        <v>4500</v>
       </c>
       <c r="E50" s="524">
         <f>($D$50-$E$5)/($E$6-$E$5)</f>
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="F50" s="525">
         <f>1-E50</f>
-        <v>0.82000000000000006</v>
+        <v>0.91</v>
       </c>
       <c r="H50" s="33"/>
       <c r="J50" s="33"/>
@@ -69314,7 +69351,7 @@
       <c r="O50" s="17"/>
       <c r="P50" s="260">
         <f ca="1">P22-P49</f>
-        <v>3.5082157800683538</v>
+        <v>4.0964225213823147</v>
       </c>
       <c r="Q50" s="54" t="s">
         <v>103</v>
@@ -69334,11 +69371,11 @@
       <c r="D51" s="481">
         <v>1</v>
       </c>
-      <c r="E51" s="1064">
+      <c r="E51" s="983">
         <f>D51</f>
         <v>1</v>
       </c>
-      <c r="F51" s="1068">
+      <c r="F51" s="985">
         <f>1-E51</f>
         <v>0</v>
       </c>
@@ -69703,6 +69740,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E4:J4"/>
     <mergeCell ref="AB26:AC26"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="Z20:Z21"/>
@@ -69710,12 +69753,6 @@
     <mergeCell ref="AB22:AC23"/>
     <mergeCell ref="AF23:AI23"/>
     <mergeCell ref="AK23:AN23"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
